--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\jigsaw-puzzle-solver\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -362,9 +362,6 @@
     <t>14_3_2_2_out</t>
   </si>
   <si>
-    <t>07_4_5_1_in</t>
-  </si>
-  <si>
     <t>07_4_5_3_in</t>
   </si>
   <si>
@@ -378,6 +375,132 @@
   </si>
   <si>
     <t>02_1_3_1_in</t>
+  </si>
+  <si>
+    <t>06_3_2_2_out</t>
+  </si>
+  <si>
+    <t>06_3_2_4_out</t>
+  </si>
+  <si>
+    <t>06_2_7_1_in</t>
+  </si>
+  <si>
+    <t>06_2_7_2_out</t>
+  </si>
+  <si>
+    <t>11_1_1_1_in</t>
+  </si>
+  <si>
+    <t>01_1_1_1_in</t>
+  </si>
+  <si>
+    <t>02_1_3_2_out</t>
+  </si>
+  <si>
+    <t>14_2_2_1_in</t>
+  </si>
+  <si>
+    <t>02_2_4_2_out</t>
+  </si>
+  <si>
+    <t>06_1_6_2_out</t>
+  </si>
+  <si>
+    <t>06_1_6_3_in</t>
+  </si>
+  <si>
+    <t>06_1_6_4_out</t>
+  </si>
+  <si>
+    <t>11_5_5_3_in</t>
+  </si>
+  <si>
+    <t>07_1_3_4_out</t>
+  </si>
+  <si>
+    <t>13_4_7_1_in</t>
+  </si>
+  <si>
+    <t>07_4_1_3_in</t>
+  </si>
+  <si>
+    <t>13_5_4_4_out</t>
+  </si>
+  <si>
+    <t>07_4_1_4_out</t>
+  </si>
+  <si>
+    <t>08_1_1_3_in</t>
+  </si>
+  <si>
+    <t>08_1_1_2_out</t>
+  </si>
+  <si>
+    <t>09_5_6_1_in</t>
+  </si>
+  <si>
+    <t>07_4_1_2_out</t>
+  </si>
+  <si>
+    <t>08_4_7_1_in</t>
+  </si>
+  <si>
+    <t>08_1_1_1_in</t>
+  </si>
+  <si>
+    <t>11_5_3_4_out</t>
+  </si>
+  <si>
+    <t>12_5_5_3_in</t>
+  </si>
+  <si>
+    <t>06_5_6_2_out</t>
+  </si>
+  <si>
+    <t>12_5_5_2_out</t>
+  </si>
+  <si>
+    <t>05_4_2_1_in</t>
+  </si>
+  <si>
+    <t>01_1_5_1_out</t>
+  </si>
+  <si>
+    <t>05_5_4_1_in</t>
+  </si>
+  <si>
+    <t>06_5_3_2_out</t>
+  </si>
+  <si>
+    <t>05_5_4_3_in</t>
+  </si>
+  <si>
+    <t>06_4_5_2_out</t>
+  </si>
+  <si>
+    <t>05_5_4_4_out</t>
+  </si>
+  <si>
+    <t>06_3_4_1_in</t>
+  </si>
+  <si>
+    <t>06_3_4_2_out</t>
+  </si>
+  <si>
+    <t>06_5_5_3_in</t>
+  </si>
+  <si>
+    <t>06_5_5_4_out</t>
+  </si>
+  <si>
+    <t>06_4_5_1_in</t>
+  </si>
+  <si>
+    <t>10_4_7_1_in</t>
+  </si>
+  <si>
+    <t>08_3_2_4_out</t>
   </si>
 </sst>
 </file>
@@ -561,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,9 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -904,15 +1024,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X192"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="4" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
@@ -925,18 +1046,18 @@
     <col min="13" max="13" width="3.7109375" style="14" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="20" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="3"/>
-    <col min="18" max="19" width="2.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="2.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="22" width="9.140625" style="21"/>
+    <col min="21" max="22" width="2.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3"/>
-    <col min="24" max="24" width="9.140625" style="21"/>
+    <col min="24" max="24" width="9.140625" style="20"/>
     <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -962,7 +1083,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="str">
         <f>IF(B3&lt;&gt;"",LEFT(B3,6),IF(C4&lt;&gt;"",LEFT(C4,6),IF(B5&lt;&gt;"",LEFT(B5,6),IF(A4&lt;&gt;"",LEFT(A4,6),""))))</f>
@@ -1012,7 +1133,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1038,7 +1159,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1064,7 +1185,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="str">
         <f>IF(B6&lt;&gt;"",LEFT(B6,6),IF(C7&lt;&gt;"",LEFT(C7,6),IF(B8&lt;&gt;"",LEFT(B8,6),IF(A7&lt;&gt;"",LEFT(A7,6),""))))</f>
@@ -1113,8 +1234,9 @@
         <v/>
       </c>
       <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1140,7 +1262,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1165,8 +1287,9 @@
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="str">
         <f>IF(B9&lt;&gt;"",LEFT(B9,6),IF(C10&lt;&gt;"",LEFT(C10,6),IF(B11&lt;&gt;"",LEFT(B11,6),IF(A10&lt;&gt;"",LEFT(A10,6),""))))</f>
@@ -1216,7 +1339,7 @@
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -1242,7 +1365,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1268,7 +1391,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="str">
         <f>IF(B12&lt;&gt;"",LEFT(B12,6),IF(C13&lt;&gt;"",LEFT(C13,6),IF(B14&lt;&gt;"",LEFT(B14,6),IF(A13&lt;&gt;"",LEFT(A13,6),""))))</f>
@@ -1318,7 +1441,7 @@
       </c>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1344,7 +1467,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1369,8 +1492,9 @@
       <c r="V15" s="18"/>
       <c r="W15" s="5"/>
       <c r="X15" s="15"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16" si="24">IF(B15&lt;&gt;"",LEFT(B15,6),IF(C16&lt;&gt;"",LEFT(C16,6),IF(B17&lt;&gt;"",LEFT(B17,6),IF(A16&lt;&gt;"",LEFT(A16,6),""))))</f>
@@ -1420,7 +1544,7 @@
       </c>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -1447,8 +1571,9 @@
       <c r="V17" s="19"/>
       <c r="W17" s="11"/>
       <c r="X17" s="16"/>
-    </row>
-    <row r="18" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1475,8 +1600,9 @@
       <c r="V18" s="18"/>
       <c r="W18" s="5"/>
       <c r="X18" s="15"/>
-    </row>
-    <row r="19" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="str">
         <f t="shared" ref="B19" si="29">IF(B18&lt;&gt;"",LEFT(B18,6),IF(C19&lt;&gt;"",LEFT(C19,6),IF(B20&lt;&gt;"",LEFT(B20,6),IF(A19&lt;&gt;"",LEFT(A19,6),""))))</f>
@@ -1530,7 +1656,7 @@
       </c>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -1539,7 +1665,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="19"/>
@@ -1559,8 +1685,9 @@
       <c r="V20" s="19"/>
       <c r="W20" s="11"/>
       <c r="X20" s="16"/>
-    </row>
-    <row r="21" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1569,7 +1696,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="18"/>
@@ -1589,8 +1716,9 @@
       <c r="V21" s="18"/>
       <c r="W21" s="5"/>
       <c r="X21" s="15"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="str">
         <f t="shared" ref="B22" si="34">IF(B21&lt;&gt;"",LEFT(B21,6),IF(C22&lt;&gt;"",LEFT(C22,6),IF(B23&lt;&gt;"",LEFT(B23,6),IF(A22&lt;&gt;"",LEFT(A22,6),""))))</f>
@@ -1608,8 +1736,12 @@
         <f>IF(H21&lt;&gt;"",LEFT(H21,6),IF(I22&lt;&gt;"",LEFT(I22,6),IF(H23&lt;&gt;"",LEFT(H23,6),IF(G22&lt;&gt;"",LEFT(G22,6),""))))</f>
         <v>02_1_3</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
+      <c r="I22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="K22" s="8" t="str">
         <f>IF(K21&lt;&gt;"",LEFT(K21,6),IF(L22&lt;&gt;"",LEFT(L22,6),IF(K23&lt;&gt;"",LEFT(K23,6),IF(J22&lt;&gt;"",LEFT(J22,6),""))))</f>
         <v>01_1_1</v>
@@ -1640,7 +1772,7 @@
       </c>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1669,8 +1801,9 @@
       <c r="V23" s="19"/>
       <c r="W23" s="11"/>
       <c r="X23" s="16"/>
-    </row>
-    <row r="24" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1699,8 +1832,9 @@
       <c r="V24" s="18"/>
       <c r="W24" s="5"/>
       <c r="X24" s="15"/>
-    </row>
-    <row r="25" spans="1:24" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="str">
         <f t="shared" ref="B25" si="39">IF(B24&lt;&gt;"",LEFT(B24,6),IF(C25&lt;&gt;"",LEFT(C25,6),IF(B26&lt;&gt;"",LEFT(B26,6),IF(A25&lt;&gt;"",LEFT(A25,6),""))))</f>
@@ -1754,7 +1888,7 @@
       </c>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1779,8 +1913,9 @@
       <c r="V26" s="19"/>
       <c r="W26" s="11"/>
       <c r="X26" s="16"/>
-    </row>
-    <row r="27" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1805,8 +1940,9 @@
       <c r="V27" s="18"/>
       <c r="W27" s="5"/>
       <c r="X27" s="15"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="str">
         <f t="shared" ref="B28" si="44">IF(B27&lt;&gt;"",LEFT(B27,6),IF(C28&lt;&gt;"",LEFT(C28,6),IF(B29&lt;&gt;"",LEFT(B29,6),IF(A28&lt;&gt;"",LEFT(A28,6),""))))</f>
@@ -1856,7 +1992,7 @@
       </c>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -1881,8 +2017,9 @@
       <c r="V29" s="19"/>
       <c r="W29" s="11"/>
       <c r="X29" s="16"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1908,7 +2045,7 @@
       <c r="W30" s="5"/>
       <c r="X30" s="15"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="str">
         <f t="shared" ref="B31" si="49">IF(B30&lt;&gt;"",LEFT(B30,6),IF(C31&lt;&gt;"",LEFT(C31,6),IF(B32&lt;&gt;"",LEFT(B32,6),IF(A31&lt;&gt;"",LEFT(A31,6),""))))</f>
@@ -1958,7 +2095,7 @@
       </c>
       <c r="X31" s="9"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -1984,7 +2121,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="16"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -2010,7 +2147,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="15"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="str">
         <f t="shared" ref="B34" si="54">IF(B33&lt;&gt;"",LEFT(B33,6),IF(C34&lt;&gt;"",LEFT(C34,6),IF(B35&lt;&gt;"",LEFT(B35,6),IF(A34&lt;&gt;"",LEFT(A34,6),""))))</f>
@@ -2060,7 +2197,7 @@
       </c>
       <c r="X34" s="9"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -2086,7 +2223,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -2112,7 +2249,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="15"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="str">
         <f t="shared" ref="B37" si="59">IF(B36&lt;&gt;"",LEFT(B36,6),IF(C37&lt;&gt;"",LEFT(C37,6),IF(B38&lt;&gt;"",LEFT(B38,6),IF(A37&lt;&gt;"",LEFT(A37,6),""))))</f>
@@ -2162,7 +2299,7 @@
       </c>
       <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -2188,7 +2325,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="16"/>
     </row>
-    <row r="39" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -2213,8 +2350,9 @@
       <c r="V39" s="18"/>
       <c r="W39" s="5"/>
       <c r="X39" s="15"/>
-    </row>
-    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="str">
         <f t="shared" ref="B40" si="64">IF(B39&lt;&gt;"",LEFT(B39,6),IF(C40&lt;&gt;"",LEFT(C40,6),IF(B41&lt;&gt;"",LEFT(B41,6),IF(A40&lt;&gt;"",LEFT(A40,6),""))))</f>
@@ -2268,7 +2406,7 @@
       </c>
       <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -2297,8 +2435,9 @@
       <c r="V41" s="19"/>
       <c r="W41" s="11"/>
       <c r="X41" s="16"/>
-    </row>
-    <row r="42" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -2327,8 +2466,9 @@
       <c r="V42" s="18"/>
       <c r="W42" s="5"/>
       <c r="X42" s="15"/>
-    </row>
-    <row r="43" spans="1:24" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="str">
         <f t="shared" ref="B43" si="69">IF(B42&lt;&gt;"",LEFT(B42,6),IF(C43&lt;&gt;"",LEFT(C43,6),IF(B44&lt;&gt;"",LEFT(B44,6),IF(A43&lt;&gt;"",LEFT(A43,6),""))))</f>
@@ -2355,8 +2495,8 @@
       <c r="L43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="20" t="s">
-        <v>10</v>
+      <c r="M43" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="N43" s="8" t="str">
         <f>IF(N42&lt;&gt;"",LEFT(N42,6),IF(O43&lt;&gt;"",LEFT(O43,6),IF(N44&lt;&gt;"",LEFT(N44,6),IF(M43&lt;&gt;"",LEFT(M43,6),""))))</f>
@@ -2382,7 +2522,7 @@
       </c>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -2407,8 +2547,9 @@
       <c r="V44" s="19"/>
       <c r="W44" s="11"/>
       <c r="X44" s="16"/>
-    </row>
-    <row r="45" spans="1:24" s="2" customFormat="1" ht="9" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -2433,8 +2574,9 @@
       <c r="V45" s="18"/>
       <c r="W45" s="5"/>
       <c r="X45" s="15"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="str">
         <f t="shared" ref="B46" si="74">IF(B45&lt;&gt;"",LEFT(B45,6),IF(C46&lt;&gt;"",LEFT(C46,6),IF(B47&lt;&gt;"",LEFT(B47,6),IF(A46&lt;&gt;"",LEFT(A46,6),""))))</f>
@@ -2484,7 +2626,7 @@
       </c>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:24" s="2" customFormat="1" ht="9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -2509,8 +2651,9 @@
       <c r="V47" s="19"/>
       <c r="W47" s="11"/>
       <c r="X47" s="16"/>
-    </row>
-    <row r="48" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -2558,7 +2701,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="8" t="str">
         <f>IF(K48&lt;&gt;"",LEFT(K48,6),IF(L49&lt;&gt;"",LEFT(L49,6),IF(K50&lt;&gt;"",LEFT(K50,6),IF(J49&lt;&gt;"",LEFT(J49,6),""))))</f>
-        <v/>
+        <v>01_2_2</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="7"/>
@@ -2597,7 +2740,9 @@
       <c r="H50" s="11"/>
       <c r="I50" s="16"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="L50" s="16"/>
       <c r="M50" s="19"/>
       <c r="N50" s="11"/>
@@ -2623,7 +2768,9 @@
       <c r="H51" s="5"/>
       <c r="I51" s="15"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L51" s="15"/>
       <c r="M51" s="18"/>
       <c r="N51" s="5"/>
@@ -2638,7 +2785,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="15"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="str">
         <f t="shared" ref="B52" si="84">IF(B51&lt;&gt;"",LEFT(B51,6),IF(C52&lt;&gt;"",LEFT(C52,6),IF(B53&lt;&gt;"",LEFT(B53,6),IF(A52&lt;&gt;"",LEFT(A52,6),""))))</f>
@@ -2662,11 +2809,15 @@
         <f>IF(K51&lt;&gt;"",LEFT(K51,6),IF(L52&lt;&gt;"",LEFT(L52,6),IF(K53&lt;&gt;"",LEFT(K53,6),IF(J52&lt;&gt;"",LEFT(J52,6),""))))</f>
         <v>01_2_1</v>
       </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="7"/>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="N52" s="8" t="str">
         <f>IF(N51&lt;&gt;"",LEFT(N51,6),IF(O52&lt;&gt;"",LEFT(O52,6),IF(N53&lt;&gt;"",LEFT(N53,6),IF(M52&lt;&gt;"",LEFT(M52,6),""))))</f>
-        <v/>
+        <v>08_5_2</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="7"/>
@@ -2699,12 +2850,12 @@
       <c r="H53" s="11"/>
       <c r="I53" s="16"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="K53" s="11"/>
       <c r="L53" s="16"/>
       <c r="M53" s="19"/>
-      <c r="N53" s="11"/>
+      <c r="N53" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="O53" s="16"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="11"/>
@@ -2727,12 +2878,12 @@
       <c r="H54" s="5"/>
       <c r="I54" s="15"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K54" s="5"/>
       <c r="L54" s="15"/>
       <c r="M54" s="18"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="O54" s="15"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="5"/>
@@ -2744,7 +2895,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="15"/>
     </row>
-    <row r="55" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="str">
         <f t="shared" ref="B55" si="89">IF(B54&lt;&gt;"",LEFT(B54,6),IF(C55&lt;&gt;"",LEFT(C55,6),IF(B56&lt;&gt;"",LEFT(B56,6),IF(A55&lt;&gt;"",LEFT(A55,6),""))))</f>
@@ -2766,17 +2917,13 @@
       <c r="J55" s="7"/>
       <c r="K55" s="8" t="str">
         <f>IF(K54&lt;&gt;"",LEFT(K54,6),IF(L55&lt;&gt;"",LEFT(L55,6),IF(K56&lt;&gt;"",LEFT(K56,6),IF(J55&lt;&gt;"",LEFT(J55,6),""))))</f>
-        <v>01_2_2</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="8" t="str">
         <f>IF(N54&lt;&gt;"",LEFT(N54,6),IF(O55&lt;&gt;"",LEFT(O55,6),IF(N56&lt;&gt;"",LEFT(N56,6),IF(M55&lt;&gt;"",LEFT(M55,6),""))))</f>
-        <v>08_5_2</v>
+        <v>06_3_2</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="7"/>
@@ -2813,7 +2960,7 @@
       <c r="L56" s="16"/>
       <c r="M56" s="19"/>
       <c r="N56" s="11" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="O56" s="16"/>
       <c r="P56" s="19"/>
@@ -2840,7 +2987,9 @@
       <c r="K57" s="5"/>
       <c r="L57" s="15"/>
       <c r="M57" s="18"/>
-      <c r="N57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="O57" s="15"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="5"/>
@@ -2852,7 +3001,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="15"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="str">
         <f>IF(B57&lt;&gt;"",LEFT(B57,6),IF(C58&lt;&gt;"",LEFT(C58,6),IF(B59&lt;&gt;"",LEFT(B59,6),IF(A58&lt;&gt;"",LEFT(A58,6),""))))</f>
@@ -2880,13 +3029,17 @@
       <c r="M58" s="7"/>
       <c r="N58" s="8" t="str">
         <f>IF(N57&lt;&gt;"",LEFT(N57,6),IF(O58&lt;&gt;"",LEFT(O58,6),IF(N59&lt;&gt;"",LEFT(N59,6),IF(M58&lt;&gt;"",LEFT(M58,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="7"/>
+        <v>06_2_7</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="Q58" s="8" t="str">
         <f t="shared" ref="Q58" si="94">IF(Q57&lt;&gt;"",LEFT(Q57,6),IF(R58&lt;&gt;"",LEFT(R58,6),IF(Q59&lt;&gt;"",LEFT(Q59,6),IF(P58&lt;&gt;"",LEFT(P58,6),""))))</f>
-        <v/>
+        <v>11_1_1</v>
       </c>
       <c r="R58" s="9"/>
       <c r="S58" s="7"/>
@@ -3504,7 +3657,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="15"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="48" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="str">
         <f>IF(B75&lt;&gt;"",LEFT(B75,6),IF(C76&lt;&gt;"",LEFT(C76,6),IF(B77&lt;&gt;"",LEFT(B77,6),IF(A76&lt;&gt;"",LEFT(A76,6),""))))</f>
@@ -3538,10 +3691,14 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="8" t="str">
         <f t="shared" ref="Q76" si="112">IF(Q75&lt;&gt;"",LEFT(Q75,6),IF(R76&lt;&gt;"",LEFT(R76,6),IF(Q77&lt;&gt;"",LEFT(Q77,6),IF(P76&lt;&gt;"",LEFT(P76,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R76" s="9"/>
-      <c r="S76" s="7"/>
+        <v>08_3_2</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="T76" s="8" t="str">
         <f t="shared" ref="T76" si="113">IF(T75&lt;&gt;"",LEFT(T75,6),IF(U76&lt;&gt;"",LEFT(U76,6),IF(T77&lt;&gt;"",LEFT(T77,6),IF(S76&lt;&gt;"",LEFT(S76,6),""))))</f>
         <v>10_4_7</v>
@@ -4872,7 +5029,9 @@
       </c>
       <c r="R113" s="16"/>
       <c r="S113" s="19"/>
-      <c r="T113" s="11"/>
+      <c r="T113" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
       <c r="W113" s="11"/>
@@ -4900,13 +5059,15 @@
       </c>
       <c r="R114" s="15"/>
       <c r="S114" s="18"/>
-      <c r="T114" s="5"/>
+      <c r="T114" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="U114" s="15"/>
       <c r="V114" s="18"/>
       <c r="W114" s="5"/>
       <c r="X114" s="15"/>
     </row>
-    <row r="115" spans="1:24" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="str">
         <f>IF(B114&lt;&gt;"",LEFT(B114,6),IF(C115&lt;&gt;"",LEFT(C115,6),IF(B116&lt;&gt;"",LEFT(B116,6),IF(A115&lt;&gt;"",LEFT(A115,6),""))))</f>
@@ -4956,11 +5117,15 @@
         <f t="shared" ref="T115" si="152">IF(T114&lt;&gt;"",LEFT(T114,6),IF(U115&lt;&gt;"",LEFT(U115,6),IF(T116&lt;&gt;"",LEFT(T116,6),IF(S115&lt;&gt;"",LEFT(S115,6),""))))</f>
         <v>12_5_5</v>
       </c>
-      <c r="U115" s="9"/>
-      <c r="V115" s="7"/>
+      <c r="U115" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="V115" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="W115" s="8" t="str">
         <f t="shared" ref="W115" si="153">IF(W114&lt;&gt;"",LEFT(W114,6),IF(X115&lt;&gt;"",LEFT(X115,6),IF(W116&lt;&gt;"",LEFT(W116,6),IF(V115&lt;&gt;"",LEFT(V115,6),""))))</f>
-        <v/>
+        <v>06_5_6</v>
       </c>
       <c r="X115" s="9"/>
     </row>
@@ -5134,7 +5299,7 @@
       <c r="W120" s="5"/>
       <c r="X120" s="15"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="48" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="str">
         <f>IF(B120&lt;&gt;"",LEFT(B120,6),IF(C121&lt;&gt;"",LEFT(C121,6),IF(B122&lt;&gt;"",LEFT(B122,6),IF(A121&lt;&gt;"",LEFT(A121,6),""))))</f>
@@ -5146,8 +5311,12 @@
         <f>IF(E120&lt;&gt;"",LEFT(E120,6),IF(F121&lt;&gt;"",LEFT(F121,6),IF(E122&lt;&gt;"",LEFT(E122,6),IF(D121&lt;&gt;"",LEFT(D121,6),""))))</f>
         <v>02_2_4</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="7"/>
+      <c r="F121" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H121" s="8" t="str">
         <f>IF(H120&lt;&gt;"",LEFT(H120,6),IF(I121&lt;&gt;"",LEFT(I121,6),IF(H122&lt;&gt;"",LEFT(H122,6),IF(G121&lt;&gt;"",LEFT(G121,6),""))))</f>
         <v>14_2_2</v>
@@ -5843,7 +6012,7 @@
       <c r="L140" s="16"/>
       <c r="M140" s="19"/>
       <c r="N140" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O140" s="16"/>
       <c r="P140" s="19"/>
@@ -5871,7 +6040,7 @@
       <c r="L141" s="15"/>
       <c r="M141" s="18"/>
       <c r="N141" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O141" s="15"/>
       <c r="P141" s="18"/>
@@ -5900,20 +6069,16 @@
       <c r="G142" s="7"/>
       <c r="H142" s="8" t="str">
         <f>IF(H141&lt;&gt;"",LEFT(H141,6),IF(I142&lt;&gt;"",LEFT(I142,6),IF(H143&lt;&gt;"",LEFT(H143,6),IF(G142&lt;&gt;"",LEFT(G142,6),""))))</f>
-        <v>14_3_2</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="7"/>
       <c r="K142" s="8" t="str">
         <f>IF(K141&lt;&gt;"",LEFT(K141,6),IF(L142&lt;&gt;"",LEFT(L142,6),IF(K143&lt;&gt;"",LEFT(K143,6),IF(J142&lt;&gt;"",LEFT(J142,6),""))))</f>
         <v>07_4_5</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>110</v>
@@ -6028,7 +6193,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="8" t="str">
         <f t="shared" ref="Q145" si="180">IF(Q144&lt;&gt;"",LEFT(Q144,6),IF(R145&lt;&gt;"",LEFT(R145,6),IF(Q146&lt;&gt;"",LEFT(Q146,6),IF(P145&lt;&gt;"",LEFT(P145,6),""))))</f>
-        <v/>
+        <v>09_5_6</v>
       </c>
       <c r="R145" s="9"/>
       <c r="S145" s="7"/>
@@ -6061,7 +6226,9 @@
       <c r="N146" s="11"/>
       <c r="O146" s="16"/>
       <c r="P146" s="19"/>
-      <c r="Q146" s="11"/>
+      <c r="Q146" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="R146" s="16"/>
       <c r="S146" s="19"/>
       <c r="T146" s="11"/>
@@ -6087,7 +6254,9 @@
       <c r="N147" s="5"/>
       <c r="O147" s="15"/>
       <c r="P147" s="18"/>
-      <c r="Q147" s="5"/>
+      <c r="Q147" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="R147" s="15"/>
       <c r="S147" s="18"/>
       <c r="T147" s="5"/>
@@ -6096,7 +6265,7 @@
       <c r="W147" s="5"/>
       <c r="X147" s="15"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="8" t="str">
         <f>IF(B147&lt;&gt;"",LEFT(B147,6),IF(C148&lt;&gt;"",LEFT(C148,6),IF(B149&lt;&gt;"",LEFT(B149,6),IF(A148&lt;&gt;"",LEFT(A148,6),""))))</f>
@@ -6112,7 +6281,7 @@
       <c r="G148" s="7"/>
       <c r="H148" s="8" t="str">
         <f>IF(H147&lt;&gt;"",LEFT(H147,6),IF(I148&lt;&gt;"",LEFT(I148,6),IF(H149&lt;&gt;"",LEFT(H149,6),IF(G148&lt;&gt;"",LEFT(G148,6),""))))</f>
-        <v/>
+        <v>11_5_5</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="7"/>
@@ -6124,25 +6293,37 @@
       <c r="M148" s="7"/>
       <c r="N148" s="8" t="str">
         <f>IF(N147&lt;&gt;"",LEFT(N147,6),IF(O148&lt;&gt;"",LEFT(O148,6),IF(N149&lt;&gt;"",LEFT(N149,6),IF(M148&lt;&gt;"",LEFT(M148,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O148" s="9"/>
-      <c r="P148" s="7"/>
+        <v>11_5_3</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P148" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="Q148" s="8" t="str">
         <f t="shared" ref="Q148" si="183">IF(Q147&lt;&gt;"",LEFT(Q147,6),IF(R148&lt;&gt;"",LEFT(R148,6),IF(Q149&lt;&gt;"",LEFT(Q149,6),IF(P148&lt;&gt;"",LEFT(P148,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R148" s="9"/>
-      <c r="S148" s="7"/>
+        <v>08_1_1</v>
+      </c>
+      <c r="R148" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="S148" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="T148" s="8" t="str">
         <f t="shared" ref="T148" si="184">IF(T147&lt;&gt;"",LEFT(T147,6),IF(U148&lt;&gt;"",LEFT(U148,6),IF(T149&lt;&gt;"",LEFT(T149,6),IF(S148&lt;&gt;"",LEFT(S148,6),""))))</f>
-        <v/>
-      </c>
-      <c r="U148" s="9"/>
-      <c r="V148" s="7"/>
+        <v>07_4_1</v>
+      </c>
+      <c r="U148" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V148" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="W148" s="8" t="str">
         <f t="shared" ref="W148" si="185">IF(W147&lt;&gt;"",LEFT(W147,6),IF(X148&lt;&gt;"",LEFT(X148,6),IF(W149&lt;&gt;"",LEFT(W149,6),IF(V148&lt;&gt;"",LEFT(V148,6),""))))</f>
-        <v/>
+        <v>08_4_7</v>
       </c>
       <c r="X148" s="9"/>
     </row>
@@ -6154,7 +6335,9 @@
       <c r="E149" s="11"/>
       <c r="F149" s="12"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="11"/>
+      <c r="H149" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="I149" s="16"/>
       <c r="J149" s="19"/>
       <c r="K149" s="11"/>
@@ -6166,7 +6349,9 @@
       <c r="Q149" s="11"/>
       <c r="R149" s="16"/>
       <c r="S149" s="19"/>
-      <c r="T149" s="11"/>
+      <c r="T149" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="U149" s="16"/>
       <c r="V149" s="19"/>
       <c r="W149" s="11"/>
@@ -6180,7 +6365,9 @@
       <c r="E150" s="5"/>
       <c r="F150" s="6"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="5"/>
+      <c r="H150" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="I150" s="15"/>
       <c r="J150" s="18"/>
       <c r="K150" s="5"/>
@@ -6192,13 +6379,15 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="15"/>
       <c r="S150" s="18"/>
-      <c r="T150" s="5"/>
+      <c r="T150" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="U150" s="15"/>
       <c r="V150" s="18"/>
       <c r="W150" s="5"/>
       <c r="X150" s="15"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="8" t="str">
         <f>IF(B150&lt;&gt;"",LEFT(B150,6),IF(C151&lt;&gt;"",LEFT(C151,6),IF(B152&lt;&gt;"",LEFT(B152,6),IF(A151&lt;&gt;"",LEFT(A151,6),""))))</f>
@@ -6214,13 +6403,17 @@
       <c r="G151" s="7"/>
       <c r="H151" s="8" t="str">
         <f>IF(H150&lt;&gt;"",LEFT(H150,6),IF(I151&lt;&gt;"",LEFT(I151,6),IF(H152&lt;&gt;"",LEFT(H152,6),IF(G151&lt;&gt;"",LEFT(G151,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I151" s="9"/>
-      <c r="J151" s="7"/>
+        <v>06_1_6</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="K151" s="8" t="str">
         <f>IF(K150&lt;&gt;"",LEFT(K150,6),IF(L151&lt;&gt;"",LEFT(L151,6),IF(K152&lt;&gt;"",LEFT(K152,6),IF(J151&lt;&gt;"",LEFT(J151,6),""))))</f>
-        <v/>
+        <v>07_1_3</v>
       </c>
       <c r="L151" s="9"/>
       <c r="M151" s="7"/>
@@ -6238,7 +6431,7 @@
       <c r="S151" s="7"/>
       <c r="T151" s="8" t="str">
         <f t="shared" ref="T151" si="187">IF(T150&lt;&gt;"",LEFT(T150,6),IF(U151&lt;&gt;"",LEFT(U151,6),IF(T152&lt;&gt;"",LEFT(T152,6),IF(S151&lt;&gt;"",LEFT(S151,6),""))))</f>
-        <v/>
+        <v>13_5_4</v>
       </c>
       <c r="U151" s="9"/>
       <c r="V151" s="7"/>
@@ -6256,7 +6449,9 @@
       <c r="E152" s="11"/>
       <c r="F152" s="12"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="11"/>
+      <c r="H152" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="I152" s="16"/>
       <c r="J152" s="19"/>
       <c r="K152" s="11"/>
@@ -6282,7 +6477,9 @@
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="5"/>
+      <c r="H153" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="I153" s="15"/>
       <c r="J153" s="18"/>
       <c r="K153" s="5"/>
@@ -6316,7 +6513,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="8" t="str">
         <f>IF(H153&lt;&gt;"",LEFT(H153,6),IF(I154&lt;&gt;"",LEFT(I154,6),IF(H155&lt;&gt;"",LEFT(H155,6),IF(G154&lt;&gt;"",LEFT(G154,6),""))))</f>
-        <v/>
+        <v>13_4_7</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="7"/>
@@ -6424,7 +6621,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="8" t="str">
         <f>IF(K156&lt;&gt;"",LEFT(K156,6),IF(L157&lt;&gt;"",LEFT(L157,6),IF(K158&lt;&gt;"",LEFT(K158,6),IF(J157&lt;&gt;"",LEFT(J157,6),""))))</f>
-        <v/>
+        <v>06_5_3</v>
       </c>
       <c r="L157" s="9"/>
       <c r="M157" s="7"/>
@@ -6463,7 +6660,9 @@
       <c r="H158" s="11"/>
       <c r="I158" s="16"/>
       <c r="J158" s="19"/>
-      <c r="K158" s="11"/>
+      <c r="K158" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="L158" s="16"/>
       <c r="M158" s="19"/>
       <c r="N158" s="11"/>
@@ -6489,7 +6688,9 @@
       <c r="H159" s="5"/>
       <c r="I159" s="15"/>
       <c r="J159" s="18"/>
-      <c r="K159" s="5"/>
+      <c r="K159" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="L159" s="15"/>
       <c r="M159" s="18"/>
       <c r="N159" s="5"/>
@@ -6504,7 +6705,7 @@
       <c r="W159" s="5"/>
       <c r="X159" s="15"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="8" t="str">
         <f>IF(B159&lt;&gt;"",LEFT(B159,6),IF(C160&lt;&gt;"",LEFT(C160,6),IF(B161&lt;&gt;"",LEFT(B161,6),IF(A160&lt;&gt;"",LEFT(A160,6),""))))</f>
@@ -6520,13 +6721,17 @@
       <c r="G160" s="7"/>
       <c r="H160" s="8" t="str">
         <f>IF(H159&lt;&gt;"",LEFT(H159,6),IF(I160&lt;&gt;"",LEFT(I160,6),IF(H161&lt;&gt;"",LEFT(H161,6),IF(G160&lt;&gt;"",LEFT(G160,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I160" s="9"/>
-      <c r="J160" s="7"/>
+        <v>06_3_4</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="K160" s="8" t="str">
         <f>IF(K159&lt;&gt;"",LEFT(K159,6),IF(L160&lt;&gt;"",LEFT(L160,6),IF(K161&lt;&gt;"",LEFT(K161,6),IF(J160&lt;&gt;"",LEFT(J160,6),""))))</f>
-        <v/>
+        <v>05_5_4</v>
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="7"/>
@@ -6562,10 +6767,14 @@
       <c r="E161" s="11"/>
       <c r="F161" s="12"/>
       <c r="G161" s="10"/>
-      <c r="H161" s="11"/>
+      <c r="H161" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="I161" s="16"/>
       <c r="J161" s="19"/>
-      <c r="K161" s="11"/>
+      <c r="K161" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="L161" s="16"/>
       <c r="M161" s="19"/>
       <c r="N161" s="11"/>
@@ -6588,10 +6797,14 @@
       <c r="E162" s="5"/>
       <c r="F162" s="6"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="5"/>
+      <c r="H162" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="I162" s="15"/>
       <c r="J162" s="18"/>
-      <c r="K162" s="5"/>
+      <c r="K162" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="L162" s="15"/>
       <c r="M162" s="18"/>
       <c r="N162" s="5"/>
@@ -6606,7 +6819,7 @@
       <c r="W162" s="5"/>
       <c r="X162" s="15"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="8" t="str">
         <f>IF(B162&lt;&gt;"",LEFT(B162,6),IF(C163&lt;&gt;"",LEFT(C163,6),IF(B164&lt;&gt;"",LEFT(B164,6),IF(A163&lt;&gt;"",LEFT(A163,6),""))))</f>
@@ -6622,13 +6835,17 @@
       <c r="G163" s="7"/>
       <c r="H163" s="8" t="str">
         <f>IF(H162&lt;&gt;"",LEFT(H162,6),IF(I163&lt;&gt;"",LEFT(I163,6),IF(H164&lt;&gt;"",LEFT(H164,6),IF(G163&lt;&gt;"",LEFT(G163,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I163" s="9"/>
-      <c r="J163" s="7"/>
+        <v>06_5_5</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="K163" s="8" t="str">
         <f>IF(K162&lt;&gt;"",LEFT(K162,6),IF(L163&lt;&gt;"",LEFT(L163,6),IF(K164&lt;&gt;"",LEFT(K164,6),IF(J163&lt;&gt;"",LEFT(J163,6),""))))</f>
-        <v/>
+        <v>06_4_5</v>
       </c>
       <c r="L163" s="9"/>
       <c r="M163" s="7"/>

--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$147</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -501,6 +502,12 @@
   </si>
   <si>
     <t>08_3_2_4_out</t>
+  </si>
+  <si>
+    <t>13_2_5_4_out</t>
+  </si>
+  <si>
+    <t>03_4_7_3_in</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1034,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,37 +1105,37 @@
       <c r="F4" s="9"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="str">
-        <f t="shared" ref="H4" si="0">IF(H3&lt;&gt;"",LEFT(H3,6),IF(I4&lt;&gt;"",LEFT(I4,6),IF(H5&lt;&gt;"",LEFT(H5,6),IF(G4&lt;&gt;"",LEFT(G4,6),""))))</f>
+        <f>IF(H3&lt;&gt;"",LEFT(H3,6),IF(I4&lt;&gt;"",LEFT(I4,6),IF(H5&lt;&gt;"",LEFT(H5,6),IF(G4&lt;&gt;"",LEFT(G4,6),""))))</f>
         <v/>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="str">
-        <f t="shared" ref="K4" si="1">IF(K3&lt;&gt;"",LEFT(K3,6),IF(L4&lt;&gt;"",LEFT(L4,6),IF(K5&lt;&gt;"",LEFT(K5,6),IF(J4&lt;&gt;"",LEFT(J4,6),""))))</f>
+        <f>IF(K3&lt;&gt;"",LEFT(K3,6),IF(L4&lt;&gt;"",LEFT(L4,6),IF(K5&lt;&gt;"",LEFT(K5,6),IF(J4&lt;&gt;"",LEFT(J4,6),""))))</f>
         <v/>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8" t="str">
-        <f t="shared" ref="N4" si="2">IF(N3&lt;&gt;"",LEFT(N3,6),IF(O4&lt;&gt;"",LEFT(O4,6),IF(N5&lt;&gt;"",LEFT(N5,6),IF(M4&lt;&gt;"",LEFT(M4,6),""))))</f>
+        <f>IF(N3&lt;&gt;"",LEFT(N3,6),IF(O4&lt;&gt;"",LEFT(O4,6),IF(N5&lt;&gt;"",LEFT(N5,6),IF(M4&lt;&gt;"",LEFT(M4,6),""))))</f>
         <v/>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="8" t="str">
-        <f t="shared" ref="Q4" si="3">IF(Q3&lt;&gt;"",LEFT(Q3,6),IF(R4&lt;&gt;"",LEFT(R4,6),IF(Q5&lt;&gt;"",LEFT(Q5,6),IF(P4&lt;&gt;"",LEFT(P4,6),""))))</f>
+        <f>IF(Q3&lt;&gt;"",LEFT(Q3,6),IF(R4&lt;&gt;"",LEFT(R4,6),IF(Q5&lt;&gt;"",LEFT(Q5,6),IF(P4&lt;&gt;"",LEFT(P4,6),""))))</f>
         <v/>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="7"/>
       <c r="T4" s="8" t="str">
-        <f t="shared" ref="T4" si="4">IF(T3&lt;&gt;"",LEFT(T3,6),IF(U4&lt;&gt;"",LEFT(U4,6),IF(T5&lt;&gt;"",LEFT(T5,6),IF(S4&lt;&gt;"",LEFT(S4,6),""))))</f>
+        <f>IF(T3&lt;&gt;"",LEFT(T3,6),IF(U4&lt;&gt;"",LEFT(U4,6),IF(T5&lt;&gt;"",LEFT(T5,6),IF(S4&lt;&gt;"",LEFT(S4,6),""))))</f>
         <v/>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="7"/>
       <c r="W4" s="8" t="str">
-        <f t="shared" ref="W4" si="5">IF(W3&lt;&gt;"",LEFT(W3,6),IF(X4&lt;&gt;"",LEFT(X4,6),IF(W5&lt;&gt;"",LEFT(W5,6),IF(V4&lt;&gt;"",LEFT(V4,6),""))))</f>
+        <f>IF(W3&lt;&gt;"",LEFT(W3,6),IF(X4&lt;&gt;"",LEFT(X4,6),IF(W5&lt;&gt;"",LEFT(W5,6),IF(V4&lt;&gt;"",LEFT(V4,6),""))))</f>
         <v/>
       </c>
       <c r="X4" s="9"/>
@@ -1200,37 +1207,37 @@
       <c r="F7" s="9"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="str">
-        <f t="shared" ref="H7" si="6">IF(H6&lt;&gt;"",LEFT(H6,6),IF(I7&lt;&gt;"",LEFT(I7,6),IF(H8&lt;&gt;"",LEFT(H8,6),IF(G7&lt;&gt;"",LEFT(G7,6),""))))</f>
+        <f>IF(H6&lt;&gt;"",LEFT(H6,6),IF(I7&lt;&gt;"",LEFT(I7,6),IF(H8&lt;&gt;"",LEFT(H8,6),IF(G7&lt;&gt;"",LEFT(G7,6),""))))</f>
         <v/>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="str">
-        <f t="shared" ref="K7" si="7">IF(K6&lt;&gt;"",LEFT(K6,6),IF(L7&lt;&gt;"",LEFT(L7,6),IF(K8&lt;&gt;"",LEFT(K8,6),IF(J7&lt;&gt;"",LEFT(J7,6),""))))</f>
+        <f>IF(K6&lt;&gt;"",LEFT(K6,6),IF(L7&lt;&gt;"",LEFT(L7,6),IF(K8&lt;&gt;"",LEFT(K8,6),IF(J7&lt;&gt;"",LEFT(J7,6),""))))</f>
         <v/>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="str">
-        <f t="shared" ref="N7" si="8">IF(N6&lt;&gt;"",LEFT(N6,6),IF(O7&lt;&gt;"",LEFT(O7,6),IF(N8&lt;&gt;"",LEFT(N8,6),IF(M7&lt;&gt;"",LEFT(M7,6),""))))</f>
+        <f>IF(N6&lt;&gt;"",LEFT(N6,6),IF(O7&lt;&gt;"",LEFT(O7,6),IF(N8&lt;&gt;"",LEFT(N8,6),IF(M7&lt;&gt;"",LEFT(M7,6),""))))</f>
         <v/>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8" t="str">
-        <f t="shared" ref="Q7" si="9">IF(Q6&lt;&gt;"",LEFT(Q6,6),IF(R7&lt;&gt;"",LEFT(R7,6),IF(Q8&lt;&gt;"",LEFT(Q8,6),IF(P7&lt;&gt;"",LEFT(P7,6),""))))</f>
+        <f>IF(Q6&lt;&gt;"",LEFT(Q6,6),IF(R7&lt;&gt;"",LEFT(R7,6),IF(Q8&lt;&gt;"",LEFT(Q8,6),IF(P7&lt;&gt;"",LEFT(P7,6),""))))</f>
         <v/>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="7"/>
       <c r="T7" s="8" t="str">
-        <f t="shared" ref="T7" si="10">IF(T6&lt;&gt;"",LEFT(T6,6),IF(U7&lt;&gt;"",LEFT(U7,6),IF(T8&lt;&gt;"",LEFT(T8,6),IF(S7&lt;&gt;"",LEFT(S7,6),""))))</f>
+        <f>IF(T6&lt;&gt;"",LEFT(T6,6),IF(U7&lt;&gt;"",LEFT(U7,6),IF(T8&lt;&gt;"",LEFT(T8,6),IF(S7&lt;&gt;"",LEFT(S7,6),""))))</f>
         <v/>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" ref="W7" si="11">IF(W6&lt;&gt;"",LEFT(W6,6),IF(X7&lt;&gt;"",LEFT(X7,6),IF(W8&lt;&gt;"",LEFT(W8,6),IF(V7&lt;&gt;"",LEFT(V7,6),""))))</f>
+        <f>IF(W6&lt;&gt;"",LEFT(W6,6),IF(X7&lt;&gt;"",LEFT(X7,6),IF(W8&lt;&gt;"",LEFT(W8,6),IF(V7&lt;&gt;"",LEFT(V7,6),""))))</f>
         <v/>
       </c>
       <c r="X7" s="9"/>
@@ -1304,37 +1311,37 @@
       <c r="F10" s="9"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8" t="str">
-        <f t="shared" ref="H10" si="12">IF(H9&lt;&gt;"",LEFT(H9,6),IF(I10&lt;&gt;"",LEFT(I10,6),IF(H11&lt;&gt;"",LEFT(H11,6),IF(G10&lt;&gt;"",LEFT(G10,6),""))))</f>
+        <f>IF(H9&lt;&gt;"",LEFT(H9,6),IF(I10&lt;&gt;"",LEFT(I10,6),IF(H11&lt;&gt;"",LEFT(H11,6),IF(G10&lt;&gt;"",LEFT(G10,6),""))))</f>
         <v/>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="str">
-        <f t="shared" ref="K10" si="13">IF(K9&lt;&gt;"",LEFT(K9,6),IF(L10&lt;&gt;"",LEFT(L10,6),IF(K11&lt;&gt;"",LEFT(K11,6),IF(J10&lt;&gt;"",LEFT(J10,6),""))))</f>
+        <f>IF(K9&lt;&gt;"",LEFT(K9,6),IF(L10&lt;&gt;"",LEFT(L10,6),IF(K11&lt;&gt;"",LEFT(K11,6),IF(J10&lt;&gt;"",LEFT(J10,6),""))))</f>
         <v/>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="7"/>
       <c r="N10" s="8" t="str">
-        <f t="shared" ref="N10" si="14">IF(N9&lt;&gt;"",LEFT(N9,6),IF(O10&lt;&gt;"",LEFT(O10,6),IF(N11&lt;&gt;"",LEFT(N11,6),IF(M10&lt;&gt;"",LEFT(M10,6),""))))</f>
+        <f>IF(N9&lt;&gt;"",LEFT(N9,6),IF(O10&lt;&gt;"",LEFT(O10,6),IF(N11&lt;&gt;"",LEFT(N11,6),IF(M10&lt;&gt;"",LEFT(M10,6),""))))</f>
         <v/>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="8" t="str">
-        <f t="shared" ref="Q10" si="15">IF(Q9&lt;&gt;"",LEFT(Q9,6),IF(R10&lt;&gt;"",LEFT(R10,6),IF(Q11&lt;&gt;"",LEFT(Q11,6),IF(P10&lt;&gt;"",LEFT(P10,6),""))))</f>
+        <f>IF(Q9&lt;&gt;"",LEFT(Q9,6),IF(R10&lt;&gt;"",LEFT(R10,6),IF(Q11&lt;&gt;"",LEFT(Q11,6),IF(P10&lt;&gt;"",LEFT(P10,6),""))))</f>
         <v/>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="7"/>
       <c r="T10" s="8" t="str">
-        <f t="shared" ref="T10" si="16">IF(T9&lt;&gt;"",LEFT(T9,6),IF(U10&lt;&gt;"",LEFT(U10,6),IF(T11&lt;&gt;"",LEFT(T11,6),IF(S10&lt;&gt;"",LEFT(S10,6),""))))</f>
+        <f>IF(T9&lt;&gt;"",LEFT(T9,6),IF(U10&lt;&gt;"",LEFT(U10,6),IF(T11&lt;&gt;"",LEFT(T11,6),IF(S10&lt;&gt;"",LEFT(S10,6),""))))</f>
         <v/>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" ref="W10" si="17">IF(W9&lt;&gt;"",LEFT(W9,6),IF(X10&lt;&gt;"",LEFT(X10,6),IF(W11&lt;&gt;"",LEFT(W11,6),IF(V10&lt;&gt;"",LEFT(V10,6),""))))</f>
+        <f>IF(W9&lt;&gt;"",LEFT(W9,6),IF(X10&lt;&gt;"",LEFT(X10,6),IF(W11&lt;&gt;"",LEFT(W11,6),IF(V10&lt;&gt;"",LEFT(V10,6),""))))</f>
         <v/>
       </c>
       <c r="X10" s="9"/>
@@ -1406,37 +1413,37 @@
       <c r="F13" s="9"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8" t="str">
-        <f t="shared" ref="H13" si="18">IF(H12&lt;&gt;"",LEFT(H12,6),IF(I13&lt;&gt;"",LEFT(I13,6),IF(H14&lt;&gt;"",LEFT(H14,6),IF(G13&lt;&gt;"",LEFT(G13,6),""))))</f>
+        <f>IF(H12&lt;&gt;"",LEFT(H12,6),IF(I13&lt;&gt;"",LEFT(I13,6),IF(H14&lt;&gt;"",LEFT(H14,6),IF(G13&lt;&gt;"",LEFT(G13,6),""))))</f>
         <v/>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="str">
-        <f t="shared" ref="K13" si="19">IF(K12&lt;&gt;"",LEFT(K12,6),IF(L13&lt;&gt;"",LEFT(L13,6),IF(K14&lt;&gt;"",LEFT(K14,6),IF(J13&lt;&gt;"",LEFT(J13,6),""))))</f>
+        <f>IF(K12&lt;&gt;"",LEFT(K12,6),IF(L13&lt;&gt;"",LEFT(L13,6),IF(K14&lt;&gt;"",LEFT(K14,6),IF(J13&lt;&gt;"",LEFT(J13,6),""))))</f>
         <v/>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8" t="str">
-        <f t="shared" ref="N13" si="20">IF(N12&lt;&gt;"",LEFT(N12,6),IF(O13&lt;&gt;"",LEFT(O13,6),IF(N14&lt;&gt;"",LEFT(N14,6),IF(M13&lt;&gt;"",LEFT(M13,6),""))))</f>
+        <f>IF(N12&lt;&gt;"",LEFT(N12,6),IF(O13&lt;&gt;"",LEFT(O13,6),IF(N14&lt;&gt;"",LEFT(N14,6),IF(M13&lt;&gt;"",LEFT(M13,6),""))))</f>
         <v/>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="8" t="str">
-        <f t="shared" ref="Q13" si="21">IF(Q12&lt;&gt;"",LEFT(Q12,6),IF(R13&lt;&gt;"",LEFT(R13,6),IF(Q14&lt;&gt;"",LEFT(Q14,6),IF(P13&lt;&gt;"",LEFT(P13,6),""))))</f>
+        <f>IF(Q12&lt;&gt;"",LEFT(Q12,6),IF(R13&lt;&gt;"",LEFT(R13,6),IF(Q14&lt;&gt;"",LEFT(Q14,6),IF(P13&lt;&gt;"",LEFT(P13,6),""))))</f>
         <v/>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="str">
-        <f t="shared" ref="T13" si="22">IF(T12&lt;&gt;"",LEFT(T12,6),IF(U13&lt;&gt;"",LEFT(U13,6),IF(T14&lt;&gt;"",LEFT(T14,6),IF(S13&lt;&gt;"",LEFT(S13,6),""))))</f>
+        <f>IF(T12&lt;&gt;"",LEFT(T12,6),IF(U13&lt;&gt;"",LEFT(U13,6),IF(T14&lt;&gt;"",LEFT(T14,6),IF(S13&lt;&gt;"",LEFT(S13,6),""))))</f>
         <v/>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" ref="W13" si="23">IF(W12&lt;&gt;"",LEFT(W12,6),IF(X13&lt;&gt;"",LEFT(X13,6),IF(W14&lt;&gt;"",LEFT(W14,6),IF(V13&lt;&gt;"",LEFT(V13,6),""))))</f>
+        <f>IF(W12&lt;&gt;"",LEFT(W12,6),IF(X13&lt;&gt;"",LEFT(X13,6),IF(W14&lt;&gt;"",LEFT(W14,6),IF(V13&lt;&gt;"",LEFT(V13,6),""))))</f>
         <v/>
       </c>
       <c r="X13" s="9"/>
@@ -1497,13 +1504,13 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="str">
-        <f t="shared" ref="B16" si="24">IF(B15&lt;&gt;"",LEFT(B15,6),IF(C16&lt;&gt;"",LEFT(C16,6),IF(B17&lt;&gt;"",LEFT(B17,6),IF(A16&lt;&gt;"",LEFT(A16,6),""))))</f>
+        <f>IF(B15&lt;&gt;"",LEFT(B15,6),IF(C16&lt;&gt;"",LEFT(C16,6),IF(B17&lt;&gt;"",LEFT(B17,6),IF(A16&lt;&gt;"",LEFT(A16,6),""))))</f>
         <v/>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="str">
-        <f t="shared" ref="E16" si="25">IF(E15&lt;&gt;"",LEFT(E15,6),IF(F16&lt;&gt;"",LEFT(F16,6),IF(E17&lt;&gt;"",LEFT(E17,6),IF(D16&lt;&gt;"",LEFT(D16,6),""))))</f>
+        <f>IF(E15&lt;&gt;"",LEFT(E15,6),IF(F16&lt;&gt;"",LEFT(F16,6),IF(E17&lt;&gt;"",LEFT(E17,6),IF(D16&lt;&gt;"",LEFT(D16,6),""))))</f>
         <v/>
       </c>
       <c r="F16" s="9"/>
@@ -1527,19 +1534,19 @@
       <c r="O16" s="9"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="8" t="str">
-        <f t="shared" ref="Q16" si="26">IF(Q15&lt;&gt;"",LEFT(Q15,6),IF(R16&lt;&gt;"",LEFT(R16,6),IF(Q17&lt;&gt;"",LEFT(Q17,6),IF(P16&lt;&gt;"",LEFT(P16,6),""))))</f>
+        <f>IF(Q15&lt;&gt;"",LEFT(Q15,6),IF(R16&lt;&gt;"",LEFT(R16,6),IF(Q17&lt;&gt;"",LEFT(Q17,6),IF(P16&lt;&gt;"",LEFT(P16,6),""))))</f>
         <v/>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="7"/>
       <c r="T16" s="8" t="str">
-        <f t="shared" ref="T16" si="27">IF(T15&lt;&gt;"",LEFT(T15,6),IF(U16&lt;&gt;"",LEFT(U16,6),IF(T17&lt;&gt;"",LEFT(T17,6),IF(S16&lt;&gt;"",LEFT(S16,6),""))))</f>
+        <f>IF(T15&lt;&gt;"",LEFT(T15,6),IF(U16&lt;&gt;"",LEFT(U16,6),IF(T17&lt;&gt;"",LEFT(T17,6),IF(S16&lt;&gt;"",LEFT(S16,6),""))))</f>
         <v/>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" ref="W16" si="28">IF(W15&lt;&gt;"",LEFT(W15,6),IF(X16&lt;&gt;"",LEFT(X16,6),IF(W17&lt;&gt;"",LEFT(W17,6),IF(V16&lt;&gt;"",LEFT(V16,6),""))))</f>
+        <f>IF(W15&lt;&gt;"",LEFT(W15,6),IF(X16&lt;&gt;"",LEFT(X16,6),IF(W17&lt;&gt;"",LEFT(W17,6),IF(V16&lt;&gt;"",LEFT(V16,6),""))))</f>
         <v/>
       </c>
       <c r="X16" s="9"/>
@@ -1605,13 +1612,13 @@
     <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="str">
-        <f t="shared" ref="B19" si="29">IF(B18&lt;&gt;"",LEFT(B18,6),IF(C19&lt;&gt;"",LEFT(C19,6),IF(B20&lt;&gt;"",LEFT(B20,6),IF(A19&lt;&gt;"",LEFT(A19,6),""))))</f>
+        <f>IF(B18&lt;&gt;"",LEFT(B18,6),IF(C19&lt;&gt;"",LEFT(C19,6),IF(B20&lt;&gt;"",LEFT(B20,6),IF(A19&lt;&gt;"",LEFT(A19,6),""))))</f>
         <v/>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8" t="str">
-        <f t="shared" ref="E19" si="30">IF(E18&lt;&gt;"",LEFT(E18,6),IF(F19&lt;&gt;"",LEFT(F19,6),IF(E20&lt;&gt;"",LEFT(E20,6),IF(D19&lt;&gt;"",LEFT(D19,6),""))))</f>
+        <f>IF(E18&lt;&gt;"",LEFT(E18,6),IF(F19&lt;&gt;"",LEFT(F19,6),IF(E20&lt;&gt;"",LEFT(E20,6),IF(D19&lt;&gt;"",LEFT(D19,6),""))))</f>
         <v/>
       </c>
       <c r="F19" s="9"/>
@@ -1639,19 +1646,19 @@
       <c r="O19" s="9"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="8" t="str">
-        <f t="shared" ref="Q19" si="31">IF(Q18&lt;&gt;"",LEFT(Q18,6),IF(R19&lt;&gt;"",LEFT(R19,6),IF(Q20&lt;&gt;"",LEFT(Q20,6),IF(P19&lt;&gt;"",LEFT(P19,6),""))))</f>
+        <f>IF(Q18&lt;&gt;"",LEFT(Q18,6),IF(R19&lt;&gt;"",LEFT(R19,6),IF(Q20&lt;&gt;"",LEFT(Q20,6),IF(P19&lt;&gt;"",LEFT(P19,6),""))))</f>
         <v/>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="7"/>
       <c r="T19" s="8" t="str">
-        <f t="shared" ref="T19" si="32">IF(T18&lt;&gt;"",LEFT(T18,6),IF(U19&lt;&gt;"",LEFT(U19,6),IF(T20&lt;&gt;"",LEFT(T20,6),IF(S19&lt;&gt;"",LEFT(S19,6),""))))</f>
+        <f>IF(T18&lt;&gt;"",LEFT(T18,6),IF(U19&lt;&gt;"",LEFT(U19,6),IF(T20&lt;&gt;"",LEFT(T20,6),IF(S19&lt;&gt;"",LEFT(S19,6),""))))</f>
         <v/>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
-        <f t="shared" ref="W19" si="33">IF(W18&lt;&gt;"",LEFT(W18,6),IF(X19&lt;&gt;"",LEFT(X19,6),IF(W20&lt;&gt;"",LEFT(W20,6),IF(V19&lt;&gt;"",LEFT(V19,6),""))))</f>
+        <f>IF(W18&lt;&gt;"",LEFT(W18,6),IF(X19&lt;&gt;"",LEFT(X19,6),IF(W20&lt;&gt;"",LEFT(W20,6),IF(V19&lt;&gt;"",LEFT(V19,6),""))))</f>
         <v/>
       </c>
       <c r="X19" s="9"/>
@@ -1721,13 +1728,13 @@
     <row r="22" spans="1:25" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="str">
-        <f t="shared" ref="B22" si="34">IF(B21&lt;&gt;"",LEFT(B21,6),IF(C22&lt;&gt;"",LEFT(C22,6),IF(B23&lt;&gt;"",LEFT(B23,6),IF(A22&lt;&gt;"",LEFT(A22,6),""))))</f>
+        <f>IF(B21&lt;&gt;"",LEFT(B21,6),IF(C22&lt;&gt;"",LEFT(C22,6),IF(B23&lt;&gt;"",LEFT(B23,6),IF(A22&lt;&gt;"",LEFT(A22,6),""))))</f>
         <v/>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="str">
-        <f t="shared" ref="E22" si="35">IF(E21&lt;&gt;"",LEFT(E21,6),IF(F22&lt;&gt;"",LEFT(F22,6),IF(E23&lt;&gt;"",LEFT(E23,6),IF(D22&lt;&gt;"",LEFT(D22,6),""))))</f>
+        <f>IF(E21&lt;&gt;"",LEFT(E21,6),IF(F22&lt;&gt;"",LEFT(F22,6),IF(E23&lt;&gt;"",LEFT(E23,6),IF(D22&lt;&gt;"",LEFT(D22,6),""))))</f>
         <v/>
       </c>
       <c r="F22" s="9"/>
@@ -1755,19 +1762,19 @@
       <c r="O22" s="9"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="8" t="str">
-        <f t="shared" ref="Q22" si="36">IF(Q21&lt;&gt;"",LEFT(Q21,6),IF(R22&lt;&gt;"",LEFT(R22,6),IF(Q23&lt;&gt;"",LEFT(Q23,6),IF(P22&lt;&gt;"",LEFT(P22,6),""))))</f>
+        <f>IF(Q21&lt;&gt;"",LEFT(Q21,6),IF(R22&lt;&gt;"",LEFT(R22,6),IF(Q23&lt;&gt;"",LEFT(Q23,6),IF(P22&lt;&gt;"",LEFT(P22,6),""))))</f>
         <v/>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="7"/>
       <c r="T22" s="8" t="str">
-        <f t="shared" ref="T22" si="37">IF(T21&lt;&gt;"",LEFT(T21,6),IF(U22&lt;&gt;"",LEFT(U22,6),IF(T23&lt;&gt;"",LEFT(T23,6),IF(S22&lt;&gt;"",LEFT(S22,6),""))))</f>
+        <f>IF(T21&lt;&gt;"",LEFT(T21,6),IF(U22&lt;&gt;"",LEFT(U22,6),IF(T23&lt;&gt;"",LEFT(T23,6),IF(S22&lt;&gt;"",LEFT(S22,6),""))))</f>
         <v/>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" ref="W22" si="38">IF(W21&lt;&gt;"",LEFT(W21,6),IF(X22&lt;&gt;"",LEFT(X22,6),IF(W23&lt;&gt;"",LEFT(W23,6),IF(V22&lt;&gt;"",LEFT(V22,6),""))))</f>
+        <f>IF(W21&lt;&gt;"",LEFT(W21,6),IF(X22&lt;&gt;"",LEFT(X22,6),IF(W23&lt;&gt;"",LEFT(W23,6),IF(V22&lt;&gt;"",LEFT(V22,6),""))))</f>
         <v/>
       </c>
       <c r="X22" s="9"/>
@@ -1837,13 +1844,13 @@
     <row r="25" spans="1:25" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="str">
-        <f t="shared" ref="B25" si="39">IF(B24&lt;&gt;"",LEFT(B24,6),IF(C25&lt;&gt;"",LEFT(C25,6),IF(B26&lt;&gt;"",LEFT(B26,6),IF(A25&lt;&gt;"",LEFT(A25,6),""))))</f>
+        <f>IF(B24&lt;&gt;"",LEFT(B24,6),IF(C25&lt;&gt;"",LEFT(C25,6),IF(B26&lt;&gt;"",LEFT(B26,6),IF(A25&lt;&gt;"",LEFT(A25,6),""))))</f>
         <v/>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="str">
-        <f t="shared" ref="E25" si="40">IF(E24&lt;&gt;"",LEFT(E24,6),IF(F25&lt;&gt;"",LEFT(F25,6),IF(E26&lt;&gt;"",LEFT(E26,6),IF(D25&lt;&gt;"",LEFT(D25,6),""))))</f>
+        <f>IF(E24&lt;&gt;"",LEFT(E24,6),IF(F25&lt;&gt;"",LEFT(F25,6),IF(E26&lt;&gt;"",LEFT(E26,6),IF(D25&lt;&gt;"",LEFT(D25,6),""))))</f>
         <v/>
       </c>
       <c r="F25" s="9"/>
@@ -1871,19 +1878,19 @@
       <c r="O25" s="9"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="8" t="str">
-        <f t="shared" ref="Q25" si="41">IF(Q24&lt;&gt;"",LEFT(Q24,6),IF(R25&lt;&gt;"",LEFT(R25,6),IF(Q26&lt;&gt;"",LEFT(Q26,6),IF(P25&lt;&gt;"",LEFT(P25,6),""))))</f>
+        <f>IF(Q24&lt;&gt;"",LEFT(Q24,6),IF(R25&lt;&gt;"",LEFT(R25,6),IF(Q26&lt;&gt;"",LEFT(Q26,6),IF(P25&lt;&gt;"",LEFT(P25,6),""))))</f>
         <v/>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="7"/>
       <c r="T25" s="8" t="str">
-        <f t="shared" ref="T25" si="42">IF(T24&lt;&gt;"",LEFT(T24,6),IF(U25&lt;&gt;"",LEFT(U25,6),IF(T26&lt;&gt;"",LEFT(T26,6),IF(S25&lt;&gt;"",LEFT(S25,6),""))))</f>
+        <f>IF(T24&lt;&gt;"",LEFT(T24,6),IF(U25&lt;&gt;"",LEFT(U25,6),IF(T26&lt;&gt;"",LEFT(T26,6),IF(S25&lt;&gt;"",LEFT(S25,6),""))))</f>
         <v/>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" ref="W25" si="43">IF(W24&lt;&gt;"",LEFT(W24,6),IF(X25&lt;&gt;"",LEFT(X25,6),IF(W26&lt;&gt;"",LEFT(W26,6),IF(V25&lt;&gt;"",LEFT(V25,6),""))))</f>
+        <f>IF(W24&lt;&gt;"",LEFT(W24,6),IF(X25&lt;&gt;"",LEFT(X25,6),IF(W26&lt;&gt;"",LEFT(W26,6),IF(V25&lt;&gt;"",LEFT(V25,6),""))))</f>
         <v/>
       </c>
       <c r="X25" s="9"/>
@@ -1945,13 +1952,13 @@
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="str">
-        <f t="shared" ref="B28" si="44">IF(B27&lt;&gt;"",LEFT(B27,6),IF(C28&lt;&gt;"",LEFT(C28,6),IF(B29&lt;&gt;"",LEFT(B29,6),IF(A28&lt;&gt;"",LEFT(A28,6),""))))</f>
+        <f>IF(B27&lt;&gt;"",LEFT(B27,6),IF(C28&lt;&gt;"",LEFT(C28,6),IF(B29&lt;&gt;"",LEFT(B29,6),IF(A28&lt;&gt;"",LEFT(A28,6),""))))</f>
         <v/>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8" t="str">
-        <f t="shared" ref="E28" si="45">IF(E27&lt;&gt;"",LEFT(E27,6),IF(F28&lt;&gt;"",LEFT(F28,6),IF(E29&lt;&gt;"",LEFT(E29,6),IF(D28&lt;&gt;"",LEFT(D28,6),""))))</f>
+        <f>IF(E27&lt;&gt;"",LEFT(E27,6),IF(F28&lt;&gt;"",LEFT(F28,6),IF(E29&lt;&gt;"",LEFT(E29,6),IF(D28&lt;&gt;"",LEFT(D28,6),""))))</f>
         <v/>
       </c>
       <c r="F28" s="9"/>
@@ -1975,19 +1982,19 @@
       <c r="O28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="8" t="str">
-        <f t="shared" ref="Q28" si="46">IF(Q27&lt;&gt;"",LEFT(Q27,6),IF(R28&lt;&gt;"",LEFT(R28,6),IF(Q29&lt;&gt;"",LEFT(Q29,6),IF(P28&lt;&gt;"",LEFT(P28,6),""))))</f>
+        <f>IF(Q27&lt;&gt;"",LEFT(Q27,6),IF(R28&lt;&gt;"",LEFT(R28,6),IF(Q29&lt;&gt;"",LEFT(Q29,6),IF(P28&lt;&gt;"",LEFT(P28,6),""))))</f>
         <v/>
       </c>
       <c r="R28" s="9"/>
       <c r="S28" s="7"/>
       <c r="T28" s="8" t="str">
-        <f t="shared" ref="T28" si="47">IF(T27&lt;&gt;"",LEFT(T27,6),IF(U28&lt;&gt;"",LEFT(U28,6),IF(T29&lt;&gt;"",LEFT(T29,6),IF(S28&lt;&gt;"",LEFT(S28,6),""))))</f>
+        <f>IF(T27&lt;&gt;"",LEFT(T27,6),IF(U28&lt;&gt;"",LEFT(U28,6),IF(T29&lt;&gt;"",LEFT(T29,6),IF(S28&lt;&gt;"",LEFT(S28,6),""))))</f>
         <v/>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="7"/>
       <c r="W28" s="8" t="str">
-        <f t="shared" ref="W28" si="48">IF(W27&lt;&gt;"",LEFT(W27,6),IF(X28&lt;&gt;"",LEFT(X28,6),IF(W29&lt;&gt;"",LEFT(W29,6),IF(V28&lt;&gt;"",LEFT(V28,6),""))))</f>
+        <f>IF(W27&lt;&gt;"",LEFT(W27,6),IF(X28&lt;&gt;"",LEFT(X28,6),IF(W29&lt;&gt;"",LEFT(W29,6),IF(V28&lt;&gt;"",LEFT(V28,6),""))))</f>
         <v/>
       </c>
       <c r="X28" s="9"/>
@@ -2048,13 +2055,13 @@
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="str">
-        <f t="shared" ref="B31" si="49">IF(B30&lt;&gt;"",LEFT(B30,6),IF(C31&lt;&gt;"",LEFT(C31,6),IF(B32&lt;&gt;"",LEFT(B32,6),IF(A31&lt;&gt;"",LEFT(A31,6),""))))</f>
+        <f>IF(B30&lt;&gt;"",LEFT(B30,6),IF(C31&lt;&gt;"",LEFT(C31,6),IF(B32&lt;&gt;"",LEFT(B32,6),IF(A31&lt;&gt;"",LEFT(A31,6),""))))</f>
         <v/>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8" t="str">
-        <f t="shared" ref="E31" si="50">IF(E30&lt;&gt;"",LEFT(E30,6),IF(F31&lt;&gt;"",LEFT(F31,6),IF(E32&lt;&gt;"",LEFT(E32,6),IF(D31&lt;&gt;"",LEFT(D31,6),""))))</f>
+        <f>IF(E30&lt;&gt;"",LEFT(E30,6),IF(F31&lt;&gt;"",LEFT(F31,6),IF(E32&lt;&gt;"",LEFT(E32,6),IF(D31&lt;&gt;"",LEFT(D31,6),""))))</f>
         <v/>
       </c>
       <c r="F31" s="9"/>
@@ -2078,19 +2085,19 @@
       <c r="O31" s="9"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="8" t="str">
-        <f t="shared" ref="Q31" si="51">IF(Q30&lt;&gt;"",LEFT(Q30,6),IF(R31&lt;&gt;"",LEFT(R31,6),IF(Q32&lt;&gt;"",LEFT(Q32,6),IF(P31&lt;&gt;"",LEFT(P31,6),""))))</f>
+        <f>IF(Q30&lt;&gt;"",LEFT(Q30,6),IF(R31&lt;&gt;"",LEFT(R31,6),IF(Q32&lt;&gt;"",LEFT(Q32,6),IF(P31&lt;&gt;"",LEFT(P31,6),""))))</f>
         <v/>
       </c>
       <c r="R31" s="9"/>
       <c r="S31" s="7"/>
       <c r="T31" s="8" t="str">
-        <f t="shared" ref="T31" si="52">IF(T30&lt;&gt;"",LEFT(T30,6),IF(U31&lt;&gt;"",LEFT(U31,6),IF(T32&lt;&gt;"",LEFT(T32,6),IF(S31&lt;&gt;"",LEFT(S31,6),""))))</f>
+        <f>IF(T30&lt;&gt;"",LEFT(T30,6),IF(U31&lt;&gt;"",LEFT(U31,6),IF(T32&lt;&gt;"",LEFT(T32,6),IF(S31&lt;&gt;"",LEFT(S31,6),""))))</f>
         <v/>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="7"/>
       <c r="W31" s="8" t="str">
-        <f t="shared" ref="W31" si="53">IF(W30&lt;&gt;"",LEFT(W30,6),IF(X31&lt;&gt;"",LEFT(X31,6),IF(W32&lt;&gt;"",LEFT(W32,6),IF(V31&lt;&gt;"",LEFT(V31,6),""))))</f>
+        <f>IF(W30&lt;&gt;"",LEFT(W30,6),IF(X31&lt;&gt;"",LEFT(X31,6),IF(W32&lt;&gt;"",LEFT(W32,6),IF(V31&lt;&gt;"",LEFT(V31,6),""))))</f>
         <v/>
       </c>
       <c r="X31" s="9"/>
@@ -2150,13 +2157,13 @@
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="str">
-        <f t="shared" ref="B34" si="54">IF(B33&lt;&gt;"",LEFT(B33,6),IF(C34&lt;&gt;"",LEFT(C34,6),IF(B35&lt;&gt;"",LEFT(B35,6),IF(A34&lt;&gt;"",LEFT(A34,6),""))))</f>
+        <f>IF(B33&lt;&gt;"",LEFT(B33,6),IF(C34&lt;&gt;"",LEFT(C34,6),IF(B35&lt;&gt;"",LEFT(B35,6),IF(A34&lt;&gt;"",LEFT(A34,6),""))))</f>
         <v/>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="8" t="str">
-        <f t="shared" ref="E34" si="55">IF(E33&lt;&gt;"",LEFT(E33,6),IF(F34&lt;&gt;"",LEFT(F34,6),IF(E35&lt;&gt;"",LEFT(E35,6),IF(D34&lt;&gt;"",LEFT(D34,6),""))))</f>
+        <f>IF(E33&lt;&gt;"",LEFT(E33,6),IF(F34&lt;&gt;"",LEFT(F34,6),IF(E35&lt;&gt;"",LEFT(E35,6),IF(D34&lt;&gt;"",LEFT(D34,6),""))))</f>
         <v/>
       </c>
       <c r="F34" s="9"/>
@@ -2180,19 +2187,19 @@
       <c r="O34" s="9"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="8" t="str">
-        <f t="shared" ref="Q34" si="56">IF(Q33&lt;&gt;"",LEFT(Q33,6),IF(R34&lt;&gt;"",LEFT(R34,6),IF(Q35&lt;&gt;"",LEFT(Q35,6),IF(P34&lt;&gt;"",LEFT(P34,6),""))))</f>
+        <f>IF(Q33&lt;&gt;"",LEFT(Q33,6),IF(R34&lt;&gt;"",LEFT(R34,6),IF(Q35&lt;&gt;"",LEFT(Q35,6),IF(P34&lt;&gt;"",LEFT(P34,6),""))))</f>
         <v/>
       </c>
       <c r="R34" s="9"/>
       <c r="S34" s="7"/>
       <c r="T34" s="8" t="str">
-        <f t="shared" ref="T34" si="57">IF(T33&lt;&gt;"",LEFT(T33,6),IF(U34&lt;&gt;"",LEFT(U34,6),IF(T35&lt;&gt;"",LEFT(T35,6),IF(S34&lt;&gt;"",LEFT(S34,6),""))))</f>
+        <f>IF(T33&lt;&gt;"",LEFT(T33,6),IF(U34&lt;&gt;"",LEFT(U34,6),IF(T35&lt;&gt;"",LEFT(T35,6),IF(S34&lt;&gt;"",LEFT(S34,6),""))))</f>
         <v/>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="7"/>
       <c r="W34" s="8" t="str">
-        <f t="shared" ref="W34" si="58">IF(W33&lt;&gt;"",LEFT(W33,6),IF(X34&lt;&gt;"",LEFT(X34,6),IF(W35&lt;&gt;"",LEFT(W35,6),IF(V34&lt;&gt;"",LEFT(V34,6),""))))</f>
+        <f>IF(W33&lt;&gt;"",LEFT(W33,6),IF(X34&lt;&gt;"",LEFT(X34,6),IF(W35&lt;&gt;"",LEFT(W35,6),IF(V34&lt;&gt;"",LEFT(V34,6),""))))</f>
         <v/>
       </c>
       <c r="X34" s="9"/>
@@ -2252,13 +2259,13 @@
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="str">
-        <f t="shared" ref="B37" si="59">IF(B36&lt;&gt;"",LEFT(B36,6),IF(C37&lt;&gt;"",LEFT(C37,6),IF(B38&lt;&gt;"",LEFT(B38,6),IF(A37&lt;&gt;"",LEFT(A37,6),""))))</f>
+        <f>IF(B36&lt;&gt;"",LEFT(B36,6),IF(C37&lt;&gt;"",LEFT(C37,6),IF(B38&lt;&gt;"",LEFT(B38,6),IF(A37&lt;&gt;"",LEFT(A37,6),""))))</f>
         <v/>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8" t="str">
-        <f t="shared" ref="E37" si="60">IF(E36&lt;&gt;"",LEFT(E36,6),IF(F37&lt;&gt;"",LEFT(F37,6),IF(E38&lt;&gt;"",LEFT(E38,6),IF(D37&lt;&gt;"",LEFT(D37,6),""))))</f>
+        <f>IF(E36&lt;&gt;"",LEFT(E36,6),IF(F37&lt;&gt;"",LEFT(F37,6),IF(E38&lt;&gt;"",LEFT(E38,6),IF(D37&lt;&gt;"",LEFT(D37,6),""))))</f>
         <v/>
       </c>
       <c r="F37" s="9"/>
@@ -2282,19 +2289,19 @@
       <c r="O37" s="9"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="8" t="str">
-        <f t="shared" ref="Q37" si="61">IF(Q36&lt;&gt;"",LEFT(Q36,6),IF(R37&lt;&gt;"",LEFT(R37,6),IF(Q38&lt;&gt;"",LEFT(Q38,6),IF(P37&lt;&gt;"",LEFT(P37,6),""))))</f>
+        <f>IF(Q36&lt;&gt;"",LEFT(Q36,6),IF(R37&lt;&gt;"",LEFT(R37,6),IF(Q38&lt;&gt;"",LEFT(Q38,6),IF(P37&lt;&gt;"",LEFT(P37,6),""))))</f>
         <v/>
       </c>
       <c r="R37" s="9"/>
       <c r="S37" s="7"/>
       <c r="T37" s="8" t="str">
-        <f t="shared" ref="T37" si="62">IF(T36&lt;&gt;"",LEFT(T36,6),IF(U37&lt;&gt;"",LEFT(U37,6),IF(T38&lt;&gt;"",LEFT(T38,6),IF(S37&lt;&gt;"",LEFT(S37,6),""))))</f>
+        <f>IF(T36&lt;&gt;"",LEFT(T36,6),IF(U37&lt;&gt;"",LEFT(U37,6),IF(T38&lt;&gt;"",LEFT(T38,6),IF(S37&lt;&gt;"",LEFT(S37,6),""))))</f>
         <v/>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="7"/>
       <c r="W37" s="8" t="str">
-        <f t="shared" ref="W37" si="63">IF(W36&lt;&gt;"",LEFT(W36,6),IF(X37&lt;&gt;"",LEFT(X37,6),IF(W38&lt;&gt;"",LEFT(W38,6),IF(V37&lt;&gt;"",LEFT(V37,6),""))))</f>
+        <f>IF(W36&lt;&gt;"",LEFT(W36,6),IF(X37&lt;&gt;"",LEFT(X37,6),IF(W38&lt;&gt;"",LEFT(W38,6),IF(V37&lt;&gt;"",LEFT(V37,6),""))))</f>
         <v/>
       </c>
       <c r="X37" s="9"/>
@@ -2355,13 +2362,13 @@
     <row r="40" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="str">
-        <f t="shared" ref="B40" si="64">IF(B39&lt;&gt;"",LEFT(B39,6),IF(C40&lt;&gt;"",LEFT(C40,6),IF(B41&lt;&gt;"",LEFT(B41,6),IF(A40&lt;&gt;"",LEFT(A40,6),""))))</f>
+        <f>IF(B39&lt;&gt;"",LEFT(B39,6),IF(C40&lt;&gt;"",LEFT(C40,6),IF(B41&lt;&gt;"",LEFT(B41,6),IF(A40&lt;&gt;"",LEFT(A40,6),""))))</f>
         <v/>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7"/>
       <c r="E40" s="8" t="str">
-        <f t="shared" ref="E40" si="65">IF(E39&lt;&gt;"",LEFT(E39,6),IF(F40&lt;&gt;"",LEFT(F40,6),IF(E41&lt;&gt;"",LEFT(E41,6),IF(D40&lt;&gt;"",LEFT(D40,6),""))))</f>
+        <f>IF(E39&lt;&gt;"",LEFT(E39,6),IF(F40&lt;&gt;"",LEFT(F40,6),IF(E41&lt;&gt;"",LEFT(E41,6),IF(D40&lt;&gt;"",LEFT(D40,6),""))))</f>
         <v/>
       </c>
       <c r="F40" s="9"/>
@@ -2389,19 +2396,19 @@
       <c r="O40" s="9"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="8" t="str">
-        <f t="shared" ref="Q40" si="66">IF(Q39&lt;&gt;"",LEFT(Q39,6),IF(R40&lt;&gt;"",LEFT(R40,6),IF(Q41&lt;&gt;"",LEFT(Q41,6),IF(P40&lt;&gt;"",LEFT(P40,6),""))))</f>
+        <f>IF(Q39&lt;&gt;"",LEFT(Q39,6),IF(R40&lt;&gt;"",LEFT(R40,6),IF(Q41&lt;&gt;"",LEFT(Q41,6),IF(P40&lt;&gt;"",LEFT(P40,6),""))))</f>
         <v/>
       </c>
       <c r="R40" s="9"/>
       <c r="S40" s="7"/>
       <c r="T40" s="8" t="str">
-        <f t="shared" ref="T40" si="67">IF(T39&lt;&gt;"",LEFT(T39,6),IF(U40&lt;&gt;"",LEFT(U40,6),IF(T41&lt;&gt;"",LEFT(T41,6),IF(S40&lt;&gt;"",LEFT(S40,6),""))))</f>
+        <f>IF(T39&lt;&gt;"",LEFT(T39,6),IF(U40&lt;&gt;"",LEFT(U40,6),IF(T41&lt;&gt;"",LEFT(T41,6),IF(S40&lt;&gt;"",LEFT(S40,6),""))))</f>
         <v/>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="7"/>
       <c r="W40" s="8" t="str">
-        <f t="shared" ref="W40" si="68">IF(W39&lt;&gt;"",LEFT(W39,6),IF(X40&lt;&gt;"",LEFT(X40,6),IF(W41&lt;&gt;"",LEFT(W41,6),IF(V40&lt;&gt;"",LEFT(V40,6),""))))</f>
+        <f>IF(W39&lt;&gt;"",LEFT(W39,6),IF(X40&lt;&gt;"",LEFT(X40,6),IF(W41&lt;&gt;"",LEFT(W41,6),IF(V40&lt;&gt;"",LEFT(V40,6),""))))</f>
         <v/>
       </c>
       <c r="X40" s="9"/>
@@ -2471,13 +2478,13 @@
     <row r="43" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="str">
-        <f t="shared" ref="B43" si="69">IF(B42&lt;&gt;"",LEFT(B42,6),IF(C43&lt;&gt;"",LEFT(C43,6),IF(B44&lt;&gt;"",LEFT(B44,6),IF(A43&lt;&gt;"",LEFT(A43,6),""))))</f>
+        <f>IF(B42&lt;&gt;"",LEFT(B42,6),IF(C43&lt;&gt;"",LEFT(C43,6),IF(B44&lt;&gt;"",LEFT(B44,6),IF(A43&lt;&gt;"",LEFT(A43,6),""))))</f>
         <v/>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="str">
-        <f t="shared" ref="E43" si="70">IF(E42&lt;&gt;"",LEFT(E42,6),IF(F43&lt;&gt;"",LEFT(F43,6),IF(E44&lt;&gt;"",LEFT(E44,6),IF(D43&lt;&gt;"",LEFT(D43,6),""))))</f>
+        <f>IF(E42&lt;&gt;"",LEFT(E42,6),IF(F43&lt;&gt;"",LEFT(F43,6),IF(E44&lt;&gt;"",LEFT(E44,6),IF(D43&lt;&gt;"",LEFT(D43,6),""))))</f>
         <v/>
       </c>
       <c r="F43" s="9"/>
@@ -2505,19 +2512,19 @@
       <c r="O43" s="9"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="8" t="str">
-        <f t="shared" ref="Q43" si="71">IF(Q42&lt;&gt;"",LEFT(Q42,6),IF(R43&lt;&gt;"",LEFT(R43,6),IF(Q44&lt;&gt;"",LEFT(Q44,6),IF(P43&lt;&gt;"",LEFT(P43,6),""))))</f>
+        <f>IF(Q42&lt;&gt;"",LEFT(Q42,6),IF(R43&lt;&gt;"",LEFT(R43,6),IF(Q44&lt;&gt;"",LEFT(Q44,6),IF(P43&lt;&gt;"",LEFT(P43,6),""))))</f>
         <v/>
       </c>
       <c r="R43" s="9"/>
       <c r="S43" s="7"/>
       <c r="T43" s="8" t="str">
-        <f t="shared" ref="T43" si="72">IF(T42&lt;&gt;"",LEFT(T42,6),IF(U43&lt;&gt;"",LEFT(U43,6),IF(T44&lt;&gt;"",LEFT(T44,6),IF(S43&lt;&gt;"",LEFT(S43,6),""))))</f>
+        <f>IF(T42&lt;&gt;"",LEFT(T42,6),IF(U43&lt;&gt;"",LEFT(U43,6),IF(T44&lt;&gt;"",LEFT(T44,6),IF(S43&lt;&gt;"",LEFT(S43,6),""))))</f>
         <v/>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="7"/>
       <c r="W43" s="8" t="str">
-        <f t="shared" ref="W43" si="73">IF(W42&lt;&gt;"",LEFT(W42,6),IF(X43&lt;&gt;"",LEFT(X43,6),IF(W44&lt;&gt;"",LEFT(W44,6),IF(V43&lt;&gt;"",LEFT(V43,6),""))))</f>
+        <f>IF(W42&lt;&gt;"",LEFT(W42,6),IF(X43&lt;&gt;"",LEFT(X43,6),IF(W44&lt;&gt;"",LEFT(W44,6),IF(V43&lt;&gt;"",LEFT(V43,6),""))))</f>
         <v/>
       </c>
       <c r="X43" s="9"/>
@@ -2579,13 +2586,13 @@
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="str">
-        <f t="shared" ref="B46" si="74">IF(B45&lt;&gt;"",LEFT(B45,6),IF(C46&lt;&gt;"",LEFT(C46,6),IF(B47&lt;&gt;"",LEFT(B47,6),IF(A46&lt;&gt;"",LEFT(A46,6),""))))</f>
+        <f>IF(B45&lt;&gt;"",LEFT(B45,6),IF(C46&lt;&gt;"",LEFT(C46,6),IF(B47&lt;&gt;"",LEFT(B47,6),IF(A46&lt;&gt;"",LEFT(A46,6),""))))</f>
         <v/>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="8" t="str">
-        <f t="shared" ref="E46" si="75">IF(E45&lt;&gt;"",LEFT(E45,6),IF(F46&lt;&gt;"",LEFT(F46,6),IF(E47&lt;&gt;"",LEFT(E47,6),IF(D46&lt;&gt;"",LEFT(D46,6),""))))</f>
+        <f>IF(E45&lt;&gt;"",LEFT(E45,6),IF(F46&lt;&gt;"",LEFT(F46,6),IF(E47&lt;&gt;"",LEFT(E47,6),IF(D46&lt;&gt;"",LEFT(D46,6),""))))</f>
         <v/>
       </c>
       <c r="F46" s="9"/>
@@ -2609,19 +2616,19 @@
       <c r="O46" s="9"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="8" t="str">
-        <f t="shared" ref="Q46" si="76">IF(Q45&lt;&gt;"",LEFT(Q45,6),IF(R46&lt;&gt;"",LEFT(R46,6),IF(Q47&lt;&gt;"",LEFT(Q47,6),IF(P46&lt;&gt;"",LEFT(P46,6),""))))</f>
+        <f>IF(Q45&lt;&gt;"",LEFT(Q45,6),IF(R46&lt;&gt;"",LEFT(R46,6),IF(Q47&lt;&gt;"",LEFT(Q47,6),IF(P46&lt;&gt;"",LEFT(P46,6),""))))</f>
         <v/>
       </c>
       <c r="R46" s="9"/>
       <c r="S46" s="7"/>
       <c r="T46" s="8" t="str">
-        <f t="shared" ref="T46" si="77">IF(T45&lt;&gt;"",LEFT(T45,6),IF(U46&lt;&gt;"",LEFT(U46,6),IF(T47&lt;&gt;"",LEFT(T47,6),IF(S46&lt;&gt;"",LEFT(S46,6),""))))</f>
+        <f>IF(T45&lt;&gt;"",LEFT(T45,6),IF(U46&lt;&gt;"",LEFT(U46,6),IF(T47&lt;&gt;"",LEFT(T47,6),IF(S46&lt;&gt;"",LEFT(S46,6),""))))</f>
         <v/>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="7"/>
       <c r="W46" s="8" t="str">
-        <f t="shared" ref="W46" si="78">IF(W45&lt;&gt;"",LEFT(W45,6),IF(X46&lt;&gt;"",LEFT(X46,6),IF(W47&lt;&gt;"",LEFT(W47,6),IF(V46&lt;&gt;"",LEFT(V46,6),""))))</f>
+        <f>IF(W45&lt;&gt;"",LEFT(W45,6),IF(X46&lt;&gt;"",LEFT(X46,6),IF(W47&lt;&gt;"",LEFT(W47,6),IF(V46&lt;&gt;"",LEFT(V46,6),""))))</f>
         <v/>
       </c>
       <c r="X46" s="9"/>
@@ -2682,13 +2689,13 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="str">
-        <f t="shared" ref="B49" si="79">IF(B48&lt;&gt;"",LEFT(B48,6),IF(C49&lt;&gt;"",LEFT(C49,6),IF(B50&lt;&gt;"",LEFT(B50,6),IF(A49&lt;&gt;"",LEFT(A49,6),""))))</f>
+        <f>IF(B48&lt;&gt;"",LEFT(B48,6),IF(C49&lt;&gt;"",LEFT(C49,6),IF(B50&lt;&gt;"",LEFT(B50,6),IF(A49&lt;&gt;"",LEFT(A49,6),""))))</f>
         <v/>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8" t="str">
-        <f t="shared" ref="E49" si="80">IF(E48&lt;&gt;"",LEFT(E48,6),IF(F49&lt;&gt;"",LEFT(F49,6),IF(E50&lt;&gt;"",LEFT(E50,6),IF(D49&lt;&gt;"",LEFT(D49,6),""))))</f>
+        <f>IF(E48&lt;&gt;"",LEFT(E48,6),IF(F49&lt;&gt;"",LEFT(F49,6),IF(E50&lt;&gt;"",LEFT(E50,6),IF(D49&lt;&gt;"",LEFT(D49,6),""))))</f>
         <v/>
       </c>
       <c r="F49" s="9"/>
@@ -2712,19 +2719,19 @@
       <c r="O49" s="9"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="8" t="str">
-        <f t="shared" ref="Q49" si="81">IF(Q48&lt;&gt;"",LEFT(Q48,6),IF(R49&lt;&gt;"",LEFT(R49,6),IF(Q50&lt;&gt;"",LEFT(Q50,6),IF(P49&lt;&gt;"",LEFT(P49,6),""))))</f>
+        <f>IF(Q48&lt;&gt;"",LEFT(Q48,6),IF(R49&lt;&gt;"",LEFT(R49,6),IF(Q50&lt;&gt;"",LEFT(Q50,6),IF(P49&lt;&gt;"",LEFT(P49,6),""))))</f>
         <v/>
       </c>
       <c r="R49" s="9"/>
       <c r="S49" s="7"/>
       <c r="T49" s="8" t="str">
-        <f t="shared" ref="T49" si="82">IF(T48&lt;&gt;"",LEFT(T48,6),IF(U49&lt;&gt;"",LEFT(U49,6),IF(T50&lt;&gt;"",LEFT(T50,6),IF(S49&lt;&gt;"",LEFT(S49,6),""))))</f>
+        <f>IF(T48&lt;&gt;"",LEFT(T48,6),IF(U49&lt;&gt;"",LEFT(U49,6),IF(T50&lt;&gt;"",LEFT(T50,6),IF(S49&lt;&gt;"",LEFT(S49,6),""))))</f>
         <v/>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="7"/>
       <c r="W49" s="8" t="str">
-        <f t="shared" ref="W49" si="83">IF(W48&lt;&gt;"",LEFT(W48,6),IF(X49&lt;&gt;"",LEFT(X49,6),IF(W50&lt;&gt;"",LEFT(W50,6),IF(V49&lt;&gt;"",LEFT(V49,6),""))))</f>
+        <f>IF(W48&lt;&gt;"",LEFT(W48,6),IF(X49&lt;&gt;"",LEFT(X49,6),IF(W50&lt;&gt;"",LEFT(W50,6),IF(V49&lt;&gt;"",LEFT(V49,6),""))))</f>
         <v/>
       </c>
       <c r="X49" s="9"/>
@@ -2788,13 +2795,13 @@
     <row r="52" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="str">
-        <f t="shared" ref="B52" si="84">IF(B51&lt;&gt;"",LEFT(B51,6),IF(C52&lt;&gt;"",LEFT(C52,6),IF(B53&lt;&gt;"",LEFT(B53,6),IF(A52&lt;&gt;"",LEFT(A52,6),""))))</f>
+        <f>IF(B51&lt;&gt;"",LEFT(B51,6),IF(C52&lt;&gt;"",LEFT(C52,6),IF(B53&lt;&gt;"",LEFT(B53,6),IF(A52&lt;&gt;"",LEFT(A52,6),""))))</f>
         <v/>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8" t="str">
-        <f t="shared" ref="E52" si="85">IF(E51&lt;&gt;"",LEFT(E51,6),IF(F52&lt;&gt;"",LEFT(F52,6),IF(E53&lt;&gt;"",LEFT(E53,6),IF(D52&lt;&gt;"",LEFT(D52,6),""))))</f>
+        <f>IF(E51&lt;&gt;"",LEFT(E51,6),IF(F52&lt;&gt;"",LEFT(F52,6),IF(E53&lt;&gt;"",LEFT(E53,6),IF(D52&lt;&gt;"",LEFT(D52,6),""))))</f>
         <v/>
       </c>
       <c r="F52" s="9"/>
@@ -2822,19 +2829,19 @@
       <c r="O52" s="9"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="8" t="str">
-        <f t="shared" ref="Q52" si="86">IF(Q51&lt;&gt;"",LEFT(Q51,6),IF(R52&lt;&gt;"",LEFT(R52,6),IF(Q53&lt;&gt;"",LEFT(Q53,6),IF(P52&lt;&gt;"",LEFT(P52,6),""))))</f>
+        <f>IF(Q51&lt;&gt;"",LEFT(Q51,6),IF(R52&lt;&gt;"",LEFT(R52,6),IF(Q53&lt;&gt;"",LEFT(Q53,6),IF(P52&lt;&gt;"",LEFT(P52,6),""))))</f>
         <v/>
       </c>
       <c r="R52" s="9"/>
       <c r="S52" s="7"/>
       <c r="T52" s="8" t="str">
-        <f t="shared" ref="T52" si="87">IF(T51&lt;&gt;"",LEFT(T51,6),IF(U52&lt;&gt;"",LEFT(U52,6),IF(T53&lt;&gt;"",LEFT(T53,6),IF(S52&lt;&gt;"",LEFT(S52,6),""))))</f>
+        <f>IF(T51&lt;&gt;"",LEFT(T51,6),IF(U52&lt;&gt;"",LEFT(U52,6),IF(T53&lt;&gt;"",LEFT(T53,6),IF(S52&lt;&gt;"",LEFT(S52,6),""))))</f>
         <v/>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="7"/>
       <c r="W52" s="8" t="str">
-        <f t="shared" ref="W52" si="88">IF(W51&lt;&gt;"",LEFT(W51,6),IF(X52&lt;&gt;"",LEFT(X52,6),IF(W53&lt;&gt;"",LEFT(W53,6),IF(V52&lt;&gt;"",LEFT(V52,6),""))))</f>
+        <f>IF(W51&lt;&gt;"",LEFT(W51,6),IF(X52&lt;&gt;"",LEFT(X52,6),IF(W53&lt;&gt;"",LEFT(W53,6),IF(V52&lt;&gt;"",LEFT(V52,6),""))))</f>
         <v/>
       </c>
       <c r="X52" s="9"/>
@@ -2898,13 +2905,13 @@
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="str">
-        <f t="shared" ref="B55" si="89">IF(B54&lt;&gt;"",LEFT(B54,6),IF(C55&lt;&gt;"",LEFT(C55,6),IF(B56&lt;&gt;"",LEFT(B56,6),IF(A55&lt;&gt;"",LEFT(A55,6),""))))</f>
+        <f>IF(B54&lt;&gt;"",LEFT(B54,6),IF(C55&lt;&gt;"",LEFT(C55,6),IF(B56&lt;&gt;"",LEFT(B56,6),IF(A55&lt;&gt;"",LEFT(A55,6),""))))</f>
         <v/>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
       <c r="E55" s="8" t="str">
-        <f t="shared" ref="E55" si="90">IF(E54&lt;&gt;"",LEFT(E54,6),IF(F55&lt;&gt;"",LEFT(F55,6),IF(E56&lt;&gt;"",LEFT(E56,6),IF(D55&lt;&gt;"",LEFT(D55,6),""))))</f>
+        <f>IF(E54&lt;&gt;"",LEFT(E54,6),IF(F55&lt;&gt;"",LEFT(F55,6),IF(E56&lt;&gt;"",LEFT(E56,6),IF(D55&lt;&gt;"",LEFT(D55,6),""))))</f>
         <v/>
       </c>
       <c r="F55" s="9"/>
@@ -2928,19 +2935,19 @@
       <c r="O55" s="9"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="8" t="str">
-        <f t="shared" ref="Q55" si="91">IF(Q54&lt;&gt;"",LEFT(Q54,6),IF(R55&lt;&gt;"",LEFT(R55,6),IF(Q56&lt;&gt;"",LEFT(Q56,6),IF(P55&lt;&gt;"",LEFT(P55,6),""))))</f>
+        <f>IF(Q54&lt;&gt;"",LEFT(Q54,6),IF(R55&lt;&gt;"",LEFT(R55,6),IF(Q56&lt;&gt;"",LEFT(Q56,6),IF(P55&lt;&gt;"",LEFT(P55,6),""))))</f>
         <v/>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="7"/>
       <c r="T55" s="8" t="str">
-        <f t="shared" ref="T55" si="92">IF(T54&lt;&gt;"",LEFT(T54,6),IF(U55&lt;&gt;"",LEFT(U55,6),IF(T56&lt;&gt;"",LEFT(T56,6),IF(S55&lt;&gt;"",LEFT(S55,6),""))))</f>
+        <f>IF(T54&lt;&gt;"",LEFT(T54,6),IF(U55&lt;&gt;"",LEFT(U55,6),IF(T56&lt;&gt;"",LEFT(T56,6),IF(S55&lt;&gt;"",LEFT(S55,6),""))))</f>
         <v/>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="7"/>
       <c r="W55" s="8" t="str">
-        <f t="shared" ref="W55" si="93">IF(W54&lt;&gt;"",LEFT(W54,6),IF(X55&lt;&gt;"",LEFT(X55,6),IF(W56&lt;&gt;"",LEFT(W56,6),IF(V55&lt;&gt;"",LEFT(V55,6),""))))</f>
+        <f>IF(W54&lt;&gt;"",LEFT(W54,6),IF(X55&lt;&gt;"",LEFT(X55,6),IF(W56&lt;&gt;"",LEFT(W56,6),IF(V55&lt;&gt;"",LEFT(V55,6),""))))</f>
         <v/>
       </c>
       <c r="X55" s="9"/>
@@ -3038,19 +3045,19 @@
         <v>120</v>
       </c>
       <c r="Q58" s="8" t="str">
-        <f t="shared" ref="Q58" si="94">IF(Q57&lt;&gt;"",LEFT(Q57,6),IF(R58&lt;&gt;"",LEFT(R58,6),IF(Q59&lt;&gt;"",LEFT(Q59,6),IF(P58&lt;&gt;"",LEFT(P58,6),""))))</f>
+        <f>IF(Q57&lt;&gt;"",LEFT(Q57,6),IF(R58&lt;&gt;"",LEFT(R58,6),IF(Q59&lt;&gt;"",LEFT(Q59,6),IF(P58&lt;&gt;"",LEFT(P58,6),""))))</f>
         <v>11_1_1</v>
       </c>
       <c r="R58" s="9"/>
       <c r="S58" s="7"/>
       <c r="T58" s="8" t="str">
-        <f t="shared" ref="T58" si="95">IF(T57&lt;&gt;"",LEFT(T57,6),IF(U58&lt;&gt;"",LEFT(U58,6),IF(T59&lt;&gt;"",LEFT(T59,6),IF(S58&lt;&gt;"",LEFT(S58,6),""))))</f>
+        <f>IF(T57&lt;&gt;"",LEFT(T57,6),IF(U58&lt;&gt;"",LEFT(U58,6),IF(T59&lt;&gt;"",LEFT(T59,6),IF(S58&lt;&gt;"",LEFT(S58,6),""))))</f>
         <v/>
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="7"/>
       <c r="W58" s="8" t="str">
-        <f t="shared" ref="W58" si="96">IF(W57&lt;&gt;"",LEFT(W57,6),IF(X58&lt;&gt;"",LEFT(X58,6),IF(W59&lt;&gt;"",LEFT(W59,6),IF(V58&lt;&gt;"",LEFT(V58,6),""))))</f>
+        <f>IF(W57&lt;&gt;"",LEFT(W57,6),IF(X58&lt;&gt;"",LEFT(X58,6),IF(W59&lt;&gt;"",LEFT(W59,6),IF(V58&lt;&gt;"",LEFT(V58,6),""))))</f>
         <v/>
       </c>
       <c r="X58" s="9"/>
@@ -3140,19 +3147,19 @@
       <c r="O61" s="9"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="8" t="str">
-        <f t="shared" ref="Q61" si="97">IF(Q60&lt;&gt;"",LEFT(Q60,6),IF(R61&lt;&gt;"",LEFT(R61,6),IF(Q62&lt;&gt;"",LEFT(Q62,6),IF(P61&lt;&gt;"",LEFT(P61,6),""))))</f>
+        <f>IF(Q60&lt;&gt;"",LEFT(Q60,6),IF(R61&lt;&gt;"",LEFT(R61,6),IF(Q62&lt;&gt;"",LEFT(Q62,6),IF(P61&lt;&gt;"",LEFT(P61,6),""))))</f>
         <v/>
       </c>
       <c r="R61" s="9"/>
       <c r="S61" s="7"/>
       <c r="T61" s="8" t="str">
-        <f t="shared" ref="T61" si="98">IF(T60&lt;&gt;"",LEFT(T60,6),IF(U61&lt;&gt;"",LEFT(U61,6),IF(T62&lt;&gt;"",LEFT(T62,6),IF(S61&lt;&gt;"",LEFT(S61,6),""))))</f>
+        <f>IF(T60&lt;&gt;"",LEFT(T60,6),IF(U61&lt;&gt;"",LEFT(U61,6),IF(T62&lt;&gt;"",LEFT(T62,6),IF(S61&lt;&gt;"",LEFT(S61,6),""))))</f>
         <v/>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="7"/>
       <c r="W61" s="8" t="str">
-        <f t="shared" ref="W61" si="99">IF(W60&lt;&gt;"",LEFT(W60,6),IF(X61&lt;&gt;"",LEFT(X61,6),IF(W62&lt;&gt;"",LEFT(W62,6),IF(V61&lt;&gt;"",LEFT(V61,6),""))))</f>
+        <f>IF(W60&lt;&gt;"",LEFT(W60,6),IF(X61&lt;&gt;"",LEFT(X61,6),IF(W62&lt;&gt;"",LEFT(W62,6),IF(V61&lt;&gt;"",LEFT(V61,6),""))))</f>
         <v/>
       </c>
       <c r="X61" s="9"/>
@@ -3246,19 +3253,19 @@
       <c r="O64" s="9"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="8" t="str">
-        <f t="shared" ref="Q64" si="100">IF(Q63&lt;&gt;"",LEFT(Q63,6),IF(R64&lt;&gt;"",LEFT(R64,6),IF(Q65&lt;&gt;"",LEFT(Q65,6),IF(P64&lt;&gt;"",LEFT(P64,6),""))))</f>
+        <f>IF(Q63&lt;&gt;"",LEFT(Q63,6),IF(R64&lt;&gt;"",LEFT(R64,6),IF(Q65&lt;&gt;"",LEFT(Q65,6),IF(P64&lt;&gt;"",LEFT(P64,6),""))))</f>
         <v/>
       </c>
       <c r="R64" s="9"/>
       <c r="S64" s="7"/>
       <c r="T64" s="8" t="str">
-        <f t="shared" ref="T64" si="101">IF(T63&lt;&gt;"",LEFT(T63,6),IF(U64&lt;&gt;"",LEFT(U64,6),IF(T65&lt;&gt;"",LEFT(T65,6),IF(S64&lt;&gt;"",LEFT(S64,6),""))))</f>
+        <f>IF(T63&lt;&gt;"",LEFT(T63,6),IF(U64&lt;&gt;"",LEFT(U64,6),IF(T65&lt;&gt;"",LEFT(T65,6),IF(S64&lt;&gt;"",LEFT(S64,6),""))))</f>
         <v>10_4_6</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="7"/>
       <c r="W64" s="8" t="str">
-        <f t="shared" ref="W64" si="102">IF(W63&lt;&gt;"",LEFT(W63,6),IF(X64&lt;&gt;"",LEFT(X64,6),IF(W65&lt;&gt;"",LEFT(W65,6),IF(V64&lt;&gt;"",LEFT(V64,6),""))))</f>
+        <f>IF(W63&lt;&gt;"",LEFT(W63,6),IF(X64&lt;&gt;"",LEFT(X64,6),IF(W65&lt;&gt;"",LEFT(W65,6),IF(V64&lt;&gt;"",LEFT(V64,6),""))))</f>
         <v/>
       </c>
       <c r="X64" s="9"/>
@@ -3364,7 +3371,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="8" t="str">
-        <f t="shared" ref="Q67" si="103">IF(Q66&lt;&gt;"",LEFT(Q66,6),IF(R67&lt;&gt;"",LEFT(R67,6),IF(Q68&lt;&gt;"",LEFT(Q68,6),IF(P67&lt;&gt;"",LEFT(P67,6),""))))</f>
+        <f>IF(Q66&lt;&gt;"",LEFT(Q66,6),IF(R67&lt;&gt;"",LEFT(R67,6),IF(Q68&lt;&gt;"",LEFT(Q68,6),IF(P67&lt;&gt;"",LEFT(P67,6),""))))</f>
         <v>04_3_6</v>
       </c>
       <c r="R67" s="9" t="s">
@@ -3374,13 +3381,13 @@
         <v>82</v>
       </c>
       <c r="T67" s="8" t="str">
-        <f t="shared" ref="T67" si="104">IF(T66&lt;&gt;"",LEFT(T66,6),IF(U67&lt;&gt;"",LEFT(U67,6),IF(T68&lt;&gt;"",LEFT(T68,6),IF(S67&lt;&gt;"",LEFT(S67,6),""))))</f>
+        <f>IF(T66&lt;&gt;"",LEFT(T66,6),IF(U67&lt;&gt;"",LEFT(U67,6),IF(T68&lt;&gt;"",LEFT(T68,6),IF(S67&lt;&gt;"",LEFT(S67,6),""))))</f>
         <v>03_1_7</v>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="7"/>
       <c r="W67" s="8" t="str">
-        <f t="shared" ref="W67" si="105">IF(W66&lt;&gt;"",LEFT(W66,6),IF(X67&lt;&gt;"",LEFT(X67,6),IF(W68&lt;&gt;"",LEFT(W68,6),IF(V67&lt;&gt;"",LEFT(V67,6),""))))</f>
+        <f>IF(W66&lt;&gt;"",LEFT(W66,6),IF(X67&lt;&gt;"",LEFT(X67,6),IF(W68&lt;&gt;"",LEFT(W68,6),IF(V67&lt;&gt;"",LEFT(V67,6),""))))</f>
         <v/>
       </c>
       <c r="X67" s="9"/>
@@ -3470,19 +3477,19 @@
       <c r="O70" s="9"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="8" t="str">
-        <f t="shared" ref="Q70" si="106">IF(Q69&lt;&gt;"",LEFT(Q69,6),IF(R70&lt;&gt;"",LEFT(R70,6),IF(Q71&lt;&gt;"",LEFT(Q71,6),IF(P70&lt;&gt;"",LEFT(P70,6),""))))</f>
+        <f>IF(Q69&lt;&gt;"",LEFT(Q69,6),IF(R70&lt;&gt;"",LEFT(R70,6),IF(Q71&lt;&gt;"",LEFT(Q71,6),IF(P70&lt;&gt;"",LEFT(P70,6),""))))</f>
         <v/>
       </c>
       <c r="R70" s="9"/>
       <c r="S70" s="7"/>
       <c r="T70" s="8" t="str">
-        <f t="shared" ref="T70" si="107">IF(T69&lt;&gt;"",LEFT(T69,6),IF(U70&lt;&gt;"",LEFT(U70,6),IF(T71&lt;&gt;"",LEFT(T71,6),IF(S70&lt;&gt;"",LEFT(S70,6),""))))</f>
+        <f>IF(T69&lt;&gt;"",LEFT(T69,6),IF(U70&lt;&gt;"",LEFT(U70,6),IF(T71&lt;&gt;"",LEFT(T71,6),IF(S70&lt;&gt;"",LEFT(S70,6),""))))</f>
         <v/>
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="7"/>
       <c r="W70" s="8" t="str">
-        <f t="shared" ref="W70" si="108">IF(W69&lt;&gt;"",LEFT(W69,6),IF(X70&lt;&gt;"",LEFT(X70,6),IF(W71&lt;&gt;"",LEFT(W71,6),IF(V70&lt;&gt;"",LEFT(V70,6),""))))</f>
+        <f>IF(W69&lt;&gt;"",LEFT(W69,6),IF(X70&lt;&gt;"",LEFT(X70,6),IF(W71&lt;&gt;"",LEFT(W71,6),IF(V70&lt;&gt;"",LEFT(V70,6),""))))</f>
         <v/>
       </c>
       <c r="X70" s="9"/>
@@ -3580,7 +3587,7 @@
       <c r="O73" s="9"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="8" t="str">
-        <f t="shared" ref="Q73" si="109">IF(Q72&lt;&gt;"",LEFT(Q72,6),IF(R73&lt;&gt;"",LEFT(R73,6),IF(Q74&lt;&gt;"",LEFT(Q74,6),IF(P73&lt;&gt;"",LEFT(P73,6),""))))</f>
+        <f>IF(Q72&lt;&gt;"",LEFT(Q72,6),IF(R73&lt;&gt;"",LEFT(R73,6),IF(Q74&lt;&gt;"",LEFT(Q74,6),IF(P73&lt;&gt;"",LEFT(P73,6),""))))</f>
         <v>07_5_3</v>
       </c>
       <c r="R73" s="9" t="s">
@@ -3590,13 +3597,13 @@
         <v>85</v>
       </c>
       <c r="T73" s="8" t="str">
-        <f t="shared" ref="T73" si="110">IF(T72&lt;&gt;"",LEFT(T72,6),IF(U73&lt;&gt;"",LEFT(U73,6),IF(T74&lt;&gt;"",LEFT(T74,6),IF(S73&lt;&gt;"",LEFT(S73,6),""))))</f>
+        <f>IF(T72&lt;&gt;"",LEFT(T72,6),IF(U73&lt;&gt;"",LEFT(U73,6),IF(T74&lt;&gt;"",LEFT(T74,6),IF(S73&lt;&gt;"",LEFT(S73,6),""))))</f>
         <v>04_1_3</v>
       </c>
       <c r="U73" s="9"/>
       <c r="V73" s="7"/>
       <c r="W73" s="8" t="str">
-        <f t="shared" ref="W73" si="111">IF(W72&lt;&gt;"",LEFT(W72,6),IF(X73&lt;&gt;"",LEFT(X73,6),IF(W74&lt;&gt;"",LEFT(W74,6),IF(V73&lt;&gt;"",LEFT(V73,6),""))))</f>
+        <f>IF(W72&lt;&gt;"",LEFT(W72,6),IF(X73&lt;&gt;"",LEFT(X73,6),IF(W74&lt;&gt;"",LEFT(W74,6),IF(V73&lt;&gt;"",LEFT(V73,6),""))))</f>
         <v/>
       </c>
       <c r="X73" s="9"/>
@@ -3690,7 +3697,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="8" t="str">
-        <f t="shared" ref="Q76" si="112">IF(Q75&lt;&gt;"",LEFT(Q75,6),IF(R76&lt;&gt;"",LEFT(R76,6),IF(Q77&lt;&gt;"",LEFT(Q77,6),IF(P76&lt;&gt;"",LEFT(P76,6),""))))</f>
+        <f>IF(Q75&lt;&gt;"",LEFT(Q75,6),IF(R76&lt;&gt;"",LEFT(R76,6),IF(Q77&lt;&gt;"",LEFT(Q77,6),IF(P76&lt;&gt;"",LEFT(P76,6),""))))</f>
         <v>08_3_2</v>
       </c>
       <c r="R76" s="9" t="s">
@@ -3700,13 +3707,13 @@
         <v>156</v>
       </c>
       <c r="T76" s="8" t="str">
-        <f t="shared" ref="T76" si="113">IF(T75&lt;&gt;"",LEFT(T75,6),IF(U76&lt;&gt;"",LEFT(U76,6),IF(T77&lt;&gt;"",LEFT(T77,6),IF(S76&lt;&gt;"",LEFT(S76,6),""))))</f>
+        <f>IF(T75&lt;&gt;"",LEFT(T75,6),IF(U76&lt;&gt;"",LEFT(U76,6),IF(T77&lt;&gt;"",LEFT(T77,6),IF(S76&lt;&gt;"",LEFT(S76,6),""))))</f>
         <v>10_4_7</v>
       </c>
       <c r="U76" s="9"/>
       <c r="V76" s="7"/>
       <c r="W76" s="8" t="str">
-        <f t="shared" ref="W76" si="114">IF(W75&lt;&gt;"",LEFT(W75,6),IF(X76&lt;&gt;"",LEFT(X76,6),IF(W77&lt;&gt;"",LEFT(W77,6),IF(V76&lt;&gt;"",LEFT(V76,6),""))))</f>
+        <f>IF(W75&lt;&gt;"",LEFT(W75,6),IF(X76&lt;&gt;"",LEFT(X76,6),IF(W77&lt;&gt;"",LEFT(W77,6),IF(V76&lt;&gt;"",LEFT(V76,6),""))))</f>
         <v/>
       </c>
       <c r="X76" s="9"/>
@@ -3800,19 +3807,19 @@
       <c r="O79" s="9"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="8" t="str">
-        <f t="shared" ref="Q79" si="115">IF(Q78&lt;&gt;"",LEFT(Q78,6),IF(R79&lt;&gt;"",LEFT(R79,6),IF(Q80&lt;&gt;"",LEFT(Q80,6),IF(P79&lt;&gt;"",LEFT(P79,6),""))))</f>
+        <f>IF(Q78&lt;&gt;"",LEFT(Q78,6),IF(R79&lt;&gt;"",LEFT(R79,6),IF(Q80&lt;&gt;"",LEFT(Q80,6),IF(P79&lt;&gt;"",LEFT(P79,6),""))))</f>
         <v/>
       </c>
       <c r="R79" s="9"/>
       <c r="S79" s="7"/>
       <c r="T79" s="8" t="str">
-        <f t="shared" ref="T79" si="116">IF(T78&lt;&gt;"",LEFT(T78,6),IF(U79&lt;&gt;"",LEFT(U79,6),IF(T80&lt;&gt;"",LEFT(T80,6),IF(S79&lt;&gt;"",LEFT(S79,6),""))))</f>
+        <f>IF(T78&lt;&gt;"",LEFT(T78,6),IF(U79&lt;&gt;"",LEFT(U79,6),IF(T80&lt;&gt;"",LEFT(T80,6),IF(S79&lt;&gt;"",LEFT(S79,6),""))))</f>
         <v/>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="7"/>
       <c r="W79" s="8" t="str">
-        <f t="shared" ref="W79" si="117">IF(W78&lt;&gt;"",LEFT(W78,6),IF(X79&lt;&gt;"",LEFT(X79,6),IF(W80&lt;&gt;"",LEFT(W80,6),IF(V79&lt;&gt;"",LEFT(V79,6),""))))</f>
+        <f>IF(W78&lt;&gt;"",LEFT(W78,6),IF(X79&lt;&gt;"",LEFT(X79,6),IF(W80&lt;&gt;"",LEFT(W80,6),IF(V79&lt;&gt;"",LEFT(V79,6),""))))</f>
         <v/>
       </c>
       <c r="X79" s="9"/>
@@ -3902,19 +3909,19 @@
       <c r="O82" s="9"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="8" t="str">
-        <f t="shared" ref="Q82" si="118">IF(Q81&lt;&gt;"",LEFT(Q81,6),IF(R82&lt;&gt;"",LEFT(R82,6),IF(Q83&lt;&gt;"",LEFT(Q83,6),IF(P82&lt;&gt;"",LEFT(P82,6),""))))</f>
+        <f>IF(Q81&lt;&gt;"",LEFT(Q81,6),IF(R82&lt;&gt;"",LEFT(R82,6),IF(Q83&lt;&gt;"",LEFT(Q83,6),IF(P82&lt;&gt;"",LEFT(P82,6),""))))</f>
         <v/>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="7"/>
       <c r="T82" s="8" t="str">
-        <f t="shared" ref="T82" si="119">IF(T81&lt;&gt;"",LEFT(T81,6),IF(U82&lt;&gt;"",LEFT(U82,6),IF(T83&lt;&gt;"",LEFT(T83,6),IF(S82&lt;&gt;"",LEFT(S82,6),""))))</f>
+        <f>IF(T81&lt;&gt;"",LEFT(T81,6),IF(U82&lt;&gt;"",LEFT(U82,6),IF(T83&lt;&gt;"",LEFT(T83,6),IF(S82&lt;&gt;"",LEFT(S82,6),""))))</f>
         <v/>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="7"/>
       <c r="W82" s="8" t="str">
-        <f t="shared" ref="W82" si="120">IF(W81&lt;&gt;"",LEFT(W81,6),IF(X82&lt;&gt;"",LEFT(X82,6),IF(W83&lt;&gt;"",LEFT(W83,6),IF(V82&lt;&gt;"",LEFT(V82,6),""))))</f>
+        <f>IF(W81&lt;&gt;"",LEFT(W81,6),IF(X82&lt;&gt;"",LEFT(X82,6),IF(W83&lt;&gt;"",LEFT(W83,6),IF(V82&lt;&gt;"",LEFT(V82,6),""))))</f>
         <v/>
       </c>
       <c r="X82" s="9"/>
@@ -4008,13 +4015,13 @@
       <c r="O85" s="9"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="8" t="str">
-        <f t="shared" ref="Q85" si="121">IF(Q84&lt;&gt;"",LEFT(Q84,6),IF(R85&lt;&gt;"",LEFT(R85,6),IF(Q86&lt;&gt;"",LEFT(Q86,6),IF(P85&lt;&gt;"",LEFT(P85,6),""))))</f>
+        <f>IF(Q84&lt;&gt;"",LEFT(Q84,6),IF(R85&lt;&gt;"",LEFT(R85,6),IF(Q86&lt;&gt;"",LEFT(Q86,6),IF(P85&lt;&gt;"",LEFT(P85,6),""))))</f>
         <v/>
       </c>
       <c r="R85" s="9"/>
       <c r="S85" s="7"/>
       <c r="T85" s="8" t="str">
-        <f t="shared" ref="T85" si="122">IF(T84&lt;&gt;"",LEFT(T84,6),IF(U85&lt;&gt;"",LEFT(U85,6),IF(T86&lt;&gt;"",LEFT(T86,6),IF(S85&lt;&gt;"",LEFT(S85,6),""))))</f>
+        <f>IF(T84&lt;&gt;"",LEFT(T84,6),IF(U85&lt;&gt;"",LEFT(U85,6),IF(T86&lt;&gt;"",LEFT(T86,6),IF(S85&lt;&gt;"",LEFT(S85,6),""))))</f>
         <v>04_1_4</v>
       </c>
       <c r="U85" s="9" t="s">
@@ -4024,7 +4031,7 @@
         <v>89</v>
       </c>
       <c r="W85" s="8" t="str">
-        <f t="shared" ref="W85" si="123">IF(W84&lt;&gt;"",LEFT(W84,6),IF(X85&lt;&gt;"",LEFT(X85,6),IF(W86&lt;&gt;"",LEFT(W86,6),IF(V85&lt;&gt;"",LEFT(V85,6),""))))</f>
+        <f>IF(W84&lt;&gt;"",LEFT(W84,6),IF(X85&lt;&gt;"",LEFT(X85,6),IF(W86&lt;&gt;"",LEFT(W86,6),IF(V85&lt;&gt;"",LEFT(V85,6),""))))</f>
         <v>13_5_2</v>
       </c>
       <c r="X85" s="9"/>
@@ -4126,19 +4133,19 @@
       <c r="O88" s="9"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="8" t="str">
-        <f t="shared" ref="Q88" si="124">IF(Q87&lt;&gt;"",LEFT(Q87,6),IF(R88&lt;&gt;"",LEFT(R88,6),IF(Q89&lt;&gt;"",LEFT(Q89,6),IF(P88&lt;&gt;"",LEFT(P88,6),""))))</f>
+        <f>IF(Q87&lt;&gt;"",LEFT(Q87,6),IF(R88&lt;&gt;"",LEFT(R88,6),IF(Q89&lt;&gt;"",LEFT(Q89,6),IF(P88&lt;&gt;"",LEFT(P88,6),""))))</f>
         <v/>
       </c>
       <c r="R88" s="9"/>
       <c r="S88" s="7"/>
       <c r="T88" s="8" t="str">
-        <f t="shared" ref="T88" si="125">IF(T87&lt;&gt;"",LEFT(T87,6),IF(U88&lt;&gt;"",LEFT(U88,6),IF(T89&lt;&gt;"",LEFT(T89,6),IF(S88&lt;&gt;"",LEFT(S88,6),""))))</f>
+        <f>IF(T87&lt;&gt;"",LEFT(T87,6),IF(U88&lt;&gt;"",LEFT(U88,6),IF(T89&lt;&gt;"",LEFT(T89,6),IF(S88&lt;&gt;"",LEFT(S88,6),""))))</f>
         <v>10_2_1</v>
       </c>
       <c r="U88" s="9"/>
       <c r="V88" s="7"/>
       <c r="W88" s="8" t="str">
-        <f t="shared" ref="W88" si="126">IF(W87&lt;&gt;"",LEFT(W87,6),IF(X88&lt;&gt;"",LEFT(X88,6),IF(W89&lt;&gt;"",LEFT(W89,6),IF(V88&lt;&gt;"",LEFT(V88,6),""))))</f>
+        <f>IF(W87&lt;&gt;"",LEFT(W87,6),IF(X88&lt;&gt;"",LEFT(X88,6),IF(W89&lt;&gt;"",LEFT(W89,6),IF(V88&lt;&gt;"",LEFT(V88,6),""))))</f>
         <v/>
       </c>
       <c r="X88" s="9"/>
@@ -4228,19 +4235,19 @@
       <c r="O91" s="9"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="8" t="str">
-        <f t="shared" ref="Q91" si="127">IF(Q90&lt;&gt;"",LEFT(Q90,6),IF(R91&lt;&gt;"",LEFT(R91,6),IF(Q92&lt;&gt;"",LEFT(Q92,6),IF(P91&lt;&gt;"",LEFT(P91,6),""))))</f>
+        <f>IF(Q90&lt;&gt;"",LEFT(Q90,6),IF(R91&lt;&gt;"",LEFT(R91,6),IF(Q92&lt;&gt;"",LEFT(Q92,6),IF(P91&lt;&gt;"",LEFT(P91,6),""))))</f>
         <v/>
       </c>
       <c r="R91" s="9"/>
       <c r="S91" s="7"/>
       <c r="T91" s="8" t="str">
-        <f t="shared" ref="T91" si="128">IF(T90&lt;&gt;"",LEFT(T90,6),IF(U91&lt;&gt;"",LEFT(U91,6),IF(T92&lt;&gt;"",LEFT(T92,6),IF(S91&lt;&gt;"",LEFT(S91,6),""))))</f>
+        <f>IF(T90&lt;&gt;"",LEFT(T90,6),IF(U91&lt;&gt;"",LEFT(U91,6),IF(T92&lt;&gt;"",LEFT(T92,6),IF(S91&lt;&gt;"",LEFT(S91,6),""))))</f>
         <v/>
       </c>
       <c r="U91" s="9"/>
       <c r="V91" s="7"/>
       <c r="W91" s="8" t="str">
-        <f t="shared" ref="W91" si="129">IF(W90&lt;&gt;"",LEFT(W90,6),IF(X91&lt;&gt;"",LEFT(X91,6),IF(W92&lt;&gt;"",LEFT(W92,6),IF(V91&lt;&gt;"",LEFT(V91,6),""))))</f>
+        <f>IF(W90&lt;&gt;"",LEFT(W90,6),IF(X91&lt;&gt;"",LEFT(X91,6),IF(W92&lt;&gt;"",LEFT(W92,6),IF(V91&lt;&gt;"",LEFT(V91,6),""))))</f>
         <v/>
       </c>
       <c r="X91" s="9"/>
@@ -4330,19 +4337,19 @@
       <c r="O94" s="9"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="8" t="str">
-        <f t="shared" ref="Q94" si="130">IF(Q93&lt;&gt;"",LEFT(Q93,6),IF(R94&lt;&gt;"",LEFT(R94,6),IF(Q95&lt;&gt;"",LEFT(Q95,6),IF(P94&lt;&gt;"",LEFT(P94,6),""))))</f>
+        <f>IF(Q93&lt;&gt;"",LEFT(Q93,6),IF(R94&lt;&gt;"",LEFT(R94,6),IF(Q95&lt;&gt;"",LEFT(Q95,6),IF(P94&lt;&gt;"",LEFT(P94,6),""))))</f>
         <v/>
       </c>
       <c r="R94" s="9"/>
       <c r="S94" s="7"/>
       <c r="T94" s="8" t="str">
-        <f t="shared" ref="T94" si="131">IF(T93&lt;&gt;"",LEFT(T93,6),IF(U94&lt;&gt;"",LEFT(U94,6),IF(T95&lt;&gt;"",LEFT(T95,6),IF(S94&lt;&gt;"",LEFT(S94,6),""))))</f>
+        <f>IF(T93&lt;&gt;"",LEFT(T93,6),IF(U94&lt;&gt;"",LEFT(U94,6),IF(T95&lt;&gt;"",LEFT(T95,6),IF(S94&lt;&gt;"",LEFT(S94,6),""))))</f>
         <v>13_5_1</v>
       </c>
       <c r="U94" s="9"/>
       <c r="V94" s="7"/>
       <c r="W94" s="8" t="str">
-        <f t="shared" ref="W94" si="132">IF(W93&lt;&gt;"",LEFT(W93,6),IF(X94&lt;&gt;"",LEFT(X94,6),IF(W95&lt;&gt;"",LEFT(W95,6),IF(V94&lt;&gt;"",LEFT(V94,6),""))))</f>
+        <f>IF(W93&lt;&gt;"",LEFT(W93,6),IF(X94&lt;&gt;"",LEFT(X94,6),IF(W95&lt;&gt;"",LEFT(W95,6),IF(V94&lt;&gt;"",LEFT(V94,6),""))))</f>
         <v/>
       </c>
       <c r="X94" s="9"/>
@@ -4448,13 +4455,13 @@
       <c r="O97" s="9"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="8" t="str">
-        <f t="shared" ref="Q97" si="133">IF(Q96&lt;&gt;"",LEFT(Q96,6),IF(R97&lt;&gt;"",LEFT(R97,6),IF(Q98&lt;&gt;"",LEFT(Q98,6),IF(P97&lt;&gt;"",LEFT(P97,6),""))))</f>
+        <f>IF(Q96&lt;&gt;"",LEFT(Q96,6),IF(R97&lt;&gt;"",LEFT(R97,6),IF(Q98&lt;&gt;"",LEFT(Q98,6),IF(P97&lt;&gt;"",LEFT(P97,6),""))))</f>
         <v/>
       </c>
       <c r="R97" s="9"/>
       <c r="S97" s="7"/>
       <c r="T97" s="8" t="str">
-        <f t="shared" ref="T97" si="134">IF(T96&lt;&gt;"",LEFT(T96,6),IF(U97&lt;&gt;"",LEFT(U97,6),IF(T98&lt;&gt;"",LEFT(T98,6),IF(S97&lt;&gt;"",LEFT(S97,6),""))))</f>
+        <f>IF(T96&lt;&gt;"",LEFT(T96,6),IF(U97&lt;&gt;"",LEFT(U97,6),IF(T98&lt;&gt;"",LEFT(T98,6),IF(S97&lt;&gt;"",LEFT(S97,6),""))))</f>
         <v>04_5_6</v>
       </c>
       <c r="U97" s="9" t="s">
@@ -4464,7 +4471,7 @@
         <v>95</v>
       </c>
       <c r="W97" s="8" t="str">
-        <f t="shared" ref="W97" si="135">IF(W96&lt;&gt;"",LEFT(W96,6),IF(X97&lt;&gt;"",LEFT(X97,6),IF(W98&lt;&gt;"",LEFT(W98,6),IF(V97&lt;&gt;"",LEFT(V97,6),""))))</f>
+        <f>IF(W96&lt;&gt;"",LEFT(W96,6),IF(X97&lt;&gt;"",LEFT(X97,6),IF(W98&lt;&gt;"",LEFT(W98,6),IF(V97&lt;&gt;"",LEFT(V97,6),""))))</f>
         <v>13_4_2</v>
       </c>
       <c r="X97" s="9"/>
@@ -4558,19 +4565,19 @@
       <c r="O100" s="9"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="8" t="str">
-        <f t="shared" ref="Q100" si="136">IF(Q99&lt;&gt;"",LEFT(Q99,6),IF(R100&lt;&gt;"",LEFT(R100,6),IF(Q101&lt;&gt;"",LEFT(Q101,6),IF(P100&lt;&gt;"",LEFT(P100,6),""))))</f>
+        <f>IF(Q99&lt;&gt;"",LEFT(Q99,6),IF(R100&lt;&gt;"",LEFT(R100,6),IF(Q101&lt;&gt;"",LEFT(Q101,6),IF(P100&lt;&gt;"",LEFT(P100,6),""))))</f>
         <v/>
       </c>
       <c r="R100" s="9"/>
       <c r="S100" s="7"/>
       <c r="T100" s="8" t="str">
-        <f t="shared" ref="T100" si="137">IF(T99&lt;&gt;"",LEFT(T99,6),IF(U100&lt;&gt;"",LEFT(U100,6),IF(T101&lt;&gt;"",LEFT(T101,6),IF(S100&lt;&gt;"",LEFT(S100,6),""))))</f>
+        <f>IF(T99&lt;&gt;"",LEFT(T99,6),IF(U100&lt;&gt;"",LEFT(U100,6),IF(T101&lt;&gt;"",LEFT(T101,6),IF(S100&lt;&gt;"",LEFT(S100,6),""))))</f>
         <v/>
       </c>
       <c r="U100" s="9"/>
       <c r="V100" s="7"/>
       <c r="W100" s="8" t="str">
-        <f t="shared" ref="W100" si="138">IF(W99&lt;&gt;"",LEFT(W99,6),IF(X100&lt;&gt;"",LEFT(X100,6),IF(W101&lt;&gt;"",LEFT(W101,6),IF(V100&lt;&gt;"",LEFT(V100,6),""))))</f>
+        <f>IF(W99&lt;&gt;"",LEFT(W99,6),IF(X100&lt;&gt;"",LEFT(X100,6),IF(W101&lt;&gt;"",LEFT(W101,6),IF(V100&lt;&gt;"",LEFT(V100,6),""))))</f>
         <v/>
       </c>
       <c r="X100" s="9"/>
@@ -4668,19 +4675,19 @@
       <c r="O103" s="9"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="8" t="str">
-        <f t="shared" ref="Q103" si="139">IF(Q102&lt;&gt;"",LEFT(Q102,6),IF(R103&lt;&gt;"",LEFT(R103,6),IF(Q104&lt;&gt;"",LEFT(Q104,6),IF(P103&lt;&gt;"",LEFT(P103,6),""))))</f>
+        <f>IF(Q102&lt;&gt;"",LEFT(Q102,6),IF(R103&lt;&gt;"",LEFT(R103,6),IF(Q104&lt;&gt;"",LEFT(Q104,6),IF(P103&lt;&gt;"",LEFT(P103,6),""))))</f>
         <v/>
       </c>
       <c r="R103" s="9"/>
       <c r="S103" s="7"/>
       <c r="T103" s="8" t="str">
-        <f t="shared" ref="T103" si="140">IF(T102&lt;&gt;"",LEFT(T102,6),IF(U103&lt;&gt;"",LEFT(U103,6),IF(T104&lt;&gt;"",LEFT(T104,6),IF(S103&lt;&gt;"",LEFT(S103,6),""))))</f>
+        <f>IF(T102&lt;&gt;"",LEFT(T102,6),IF(U103&lt;&gt;"",LEFT(U103,6),IF(T104&lt;&gt;"",LEFT(T104,6),IF(S103&lt;&gt;"",LEFT(S103,6),""))))</f>
         <v/>
       </c>
       <c r="U103" s="9"/>
       <c r="V103" s="7"/>
       <c r="W103" s="8" t="str">
-        <f t="shared" ref="W103" si="141">IF(W102&lt;&gt;"",LEFT(W102,6),IF(X103&lt;&gt;"",LEFT(X103,6),IF(W104&lt;&gt;"",LEFT(W104,6),IF(V103&lt;&gt;"",LEFT(V103,6),""))))</f>
+        <f>IF(W102&lt;&gt;"",LEFT(W102,6),IF(X103&lt;&gt;"",LEFT(X103,6),IF(W104&lt;&gt;"",LEFT(W104,6),IF(V103&lt;&gt;"",LEFT(V103,6),""))))</f>
         <v/>
       </c>
       <c r="X103" s="9"/>
@@ -4778,19 +4785,19 @@
       <c r="O106" s="9"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="8" t="str">
-        <f t="shared" ref="Q106" si="142">IF(Q105&lt;&gt;"",LEFT(Q105,6),IF(R106&lt;&gt;"",LEFT(R106,6),IF(Q107&lt;&gt;"",LEFT(Q107,6),IF(P106&lt;&gt;"",LEFT(P106,6),""))))</f>
+        <f>IF(Q105&lt;&gt;"",LEFT(Q105,6),IF(R106&lt;&gt;"",LEFT(R106,6),IF(Q107&lt;&gt;"",LEFT(Q107,6),IF(P106&lt;&gt;"",LEFT(P106,6),""))))</f>
         <v/>
       </c>
       <c r="R106" s="9"/>
       <c r="S106" s="7"/>
       <c r="T106" s="8" t="str">
-        <f t="shared" ref="T106" si="143">IF(T105&lt;&gt;"",LEFT(T105,6),IF(U106&lt;&gt;"",LEFT(U106,6),IF(T107&lt;&gt;"",LEFT(T107,6),IF(S106&lt;&gt;"",LEFT(S106,6),""))))</f>
+        <f>IF(T105&lt;&gt;"",LEFT(T105,6),IF(U106&lt;&gt;"",LEFT(U106,6),IF(T107&lt;&gt;"",LEFT(T107,6),IF(S106&lt;&gt;"",LEFT(S106,6),""))))</f>
         <v/>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="7"/>
       <c r="W106" s="8" t="str">
-        <f t="shared" ref="W106" si="144">IF(W105&lt;&gt;"",LEFT(W105,6),IF(X106&lt;&gt;"",LEFT(X106,6),IF(W107&lt;&gt;"",LEFT(W107,6),IF(V106&lt;&gt;"",LEFT(V106,6),""))))</f>
+        <f>IF(W105&lt;&gt;"",LEFT(W105,6),IF(X106&lt;&gt;"",LEFT(X106,6),IF(W107&lt;&gt;"",LEFT(W107,6),IF(V106&lt;&gt;"",LEFT(V106,6),""))))</f>
         <v/>
       </c>
       <c r="X106" s="9"/>
@@ -4880,19 +4887,19 @@
       <c r="O109" s="9"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="8" t="str">
-        <f t="shared" ref="Q109" si="145">IF(Q108&lt;&gt;"",LEFT(Q108,6),IF(R109&lt;&gt;"",LEFT(R109,6),IF(Q110&lt;&gt;"",LEFT(Q110,6),IF(P109&lt;&gt;"",LEFT(P109,6),""))))</f>
+        <f>IF(Q108&lt;&gt;"",LEFT(Q108,6),IF(R109&lt;&gt;"",LEFT(R109,6),IF(Q110&lt;&gt;"",LEFT(Q110,6),IF(P109&lt;&gt;"",LEFT(P109,6),""))))</f>
         <v/>
       </c>
       <c r="R109" s="9"/>
       <c r="S109" s="7"/>
       <c r="T109" s="8" t="str">
-        <f t="shared" ref="T109" si="146">IF(T108&lt;&gt;"",LEFT(T108,6),IF(U109&lt;&gt;"",LEFT(U109,6),IF(T110&lt;&gt;"",LEFT(T110,6),IF(S109&lt;&gt;"",LEFT(S109,6),""))))</f>
+        <f>IF(T108&lt;&gt;"",LEFT(T108,6),IF(U109&lt;&gt;"",LEFT(U109,6),IF(T110&lt;&gt;"",LEFT(T110,6),IF(S109&lt;&gt;"",LEFT(S109,6),""))))</f>
         <v>05_4_5</v>
       </c>
       <c r="U109" s="9"/>
       <c r="V109" s="7"/>
       <c r="W109" s="8" t="str">
-        <f t="shared" ref="W109" si="147">IF(W108&lt;&gt;"",LEFT(W108,6),IF(X109&lt;&gt;"",LEFT(X109,6),IF(W110&lt;&gt;"",LEFT(W110,6),IF(V109&lt;&gt;"",LEFT(V109,6),""))))</f>
+        <f>IF(W108&lt;&gt;"",LEFT(W108,6),IF(X109&lt;&gt;"",LEFT(X109,6),IF(W110&lt;&gt;"",LEFT(W110,6),IF(V109&lt;&gt;"",LEFT(V109,6),""))))</f>
         <v/>
       </c>
       <c r="X109" s="9"/>
@@ -4986,7 +4993,7 @@
       <c r="O112" s="9"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="8" t="str">
-        <f t="shared" ref="Q112" si="148">IF(Q111&lt;&gt;"",LEFT(Q111,6),IF(R112&lt;&gt;"",LEFT(R112,6),IF(Q113&lt;&gt;"",LEFT(Q113,6),IF(P112&lt;&gt;"",LEFT(P112,6),""))))</f>
+        <f>IF(Q111&lt;&gt;"",LEFT(Q111,6),IF(R112&lt;&gt;"",LEFT(R112,6),IF(Q113&lt;&gt;"",LEFT(Q113,6),IF(P112&lt;&gt;"",LEFT(P112,6),""))))</f>
         <v>13_2_3</v>
       </c>
       <c r="R112" s="9" t="s">
@@ -4996,13 +5003,13 @@
         <v>100</v>
       </c>
       <c r="T112" s="8" t="str">
-        <f t="shared" ref="T112" si="149">IF(T111&lt;&gt;"",LEFT(T111,6),IF(U112&lt;&gt;"",LEFT(U112,6),IF(T113&lt;&gt;"",LEFT(T113,6),IF(S112&lt;&gt;"",LEFT(S112,6),""))))</f>
+        <f>IF(T111&lt;&gt;"",LEFT(T111,6),IF(U112&lt;&gt;"",LEFT(U112,6),IF(T113&lt;&gt;"",LEFT(T113,6),IF(S112&lt;&gt;"",LEFT(S112,6),""))))</f>
         <v>05_4_2</v>
       </c>
       <c r="U112" s="9"/>
       <c r="V112" s="7"/>
       <c r="W112" s="8" t="str">
-        <f t="shared" ref="W112" si="150">IF(W111&lt;&gt;"",LEFT(W111,6),IF(X112&lt;&gt;"",LEFT(X112,6),IF(W113&lt;&gt;"",LEFT(W113,6),IF(V112&lt;&gt;"",LEFT(V112,6),""))))</f>
+        <f>IF(W111&lt;&gt;"",LEFT(W111,6),IF(X112&lt;&gt;"",LEFT(X112,6),IF(W113&lt;&gt;"",LEFT(W113,6),IF(V112&lt;&gt;"",LEFT(V112,6),""))))</f>
         <v/>
       </c>
       <c r="X112" s="9"/>
@@ -5104,7 +5111,7 @@
         <v>106</v>
       </c>
       <c r="Q115" s="8" t="str">
-        <f t="shared" ref="Q115" si="151">IF(Q114&lt;&gt;"",LEFT(Q114,6),IF(R115&lt;&gt;"",LEFT(R115,6),IF(Q116&lt;&gt;"",LEFT(Q116,6),IF(P115&lt;&gt;"",LEFT(P115,6),""))))</f>
+        <f>IF(Q114&lt;&gt;"",LEFT(Q114,6),IF(R115&lt;&gt;"",LEFT(R115,6),IF(Q116&lt;&gt;"",LEFT(Q116,6),IF(P115&lt;&gt;"",LEFT(P115,6),""))))</f>
         <v>06_1_7</v>
       </c>
       <c r="R115" s="9" t="s">
@@ -5114,7 +5121,7 @@
         <v>109</v>
       </c>
       <c r="T115" s="8" t="str">
-        <f t="shared" ref="T115" si="152">IF(T114&lt;&gt;"",LEFT(T114,6),IF(U115&lt;&gt;"",LEFT(U115,6),IF(T116&lt;&gt;"",LEFT(T116,6),IF(S115&lt;&gt;"",LEFT(S115,6),""))))</f>
+        <f>IF(T114&lt;&gt;"",LEFT(T114,6),IF(U115&lt;&gt;"",LEFT(U115,6),IF(T116&lt;&gt;"",LEFT(T116,6),IF(S115&lt;&gt;"",LEFT(S115,6),""))))</f>
         <v>12_5_5</v>
       </c>
       <c r="U115" s="9" t="s">
@@ -5124,7 +5131,7 @@
         <v>142</v>
       </c>
       <c r="W115" s="8" t="str">
-        <f t="shared" ref="W115" si="153">IF(W114&lt;&gt;"",LEFT(W114,6),IF(X115&lt;&gt;"",LEFT(X115,6),IF(W116&lt;&gt;"",LEFT(W116,6),IF(V115&lt;&gt;"",LEFT(V115,6),""))))</f>
+        <f>IF(W114&lt;&gt;"",LEFT(W114,6),IF(X115&lt;&gt;"",LEFT(X115,6),IF(W116&lt;&gt;"",LEFT(W116,6),IF(V115&lt;&gt;"",LEFT(V115,6),""))))</f>
         <v>06_5_6</v>
       </c>
       <c r="X115" s="9"/>
@@ -5222,19 +5229,19 @@
       <c r="O118" s="9"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="8" t="str">
-        <f t="shared" ref="Q118" si="154">IF(Q117&lt;&gt;"",LEFT(Q117,6),IF(R118&lt;&gt;"",LEFT(R118,6),IF(Q119&lt;&gt;"",LEFT(Q119,6),IF(P118&lt;&gt;"",LEFT(P118,6),""))))</f>
+        <f>IF(Q117&lt;&gt;"",LEFT(Q117,6),IF(R118&lt;&gt;"",LEFT(R118,6),IF(Q119&lt;&gt;"",LEFT(Q119,6),IF(P118&lt;&gt;"",LEFT(P118,6),""))))</f>
         <v/>
       </c>
       <c r="R118" s="9"/>
       <c r="S118" s="7"/>
       <c r="T118" s="8" t="str">
-        <f t="shared" ref="T118" si="155">IF(T117&lt;&gt;"",LEFT(T117,6),IF(U118&lt;&gt;"",LEFT(U118,6),IF(T119&lt;&gt;"",LEFT(T119,6),IF(S118&lt;&gt;"",LEFT(S118,6),""))))</f>
+        <f>IF(T117&lt;&gt;"",LEFT(T117,6),IF(U118&lt;&gt;"",LEFT(U118,6),IF(T119&lt;&gt;"",LEFT(T119,6),IF(S118&lt;&gt;"",LEFT(S118,6),""))))</f>
         <v/>
       </c>
       <c r="U118" s="9"/>
       <c r="V118" s="7"/>
       <c r="W118" s="8" t="str">
-        <f t="shared" ref="W118" si="156">IF(W117&lt;&gt;"",LEFT(W117,6),IF(X118&lt;&gt;"",LEFT(X118,6),IF(W119&lt;&gt;"",LEFT(W119,6),IF(V118&lt;&gt;"",LEFT(V118,6),""))))</f>
+        <f>IF(W117&lt;&gt;"",LEFT(W117,6),IF(X118&lt;&gt;"",LEFT(X118,6),IF(W119&lt;&gt;"",LEFT(W119,6),IF(V118&lt;&gt;"",LEFT(V118,6),""))))</f>
         <v/>
       </c>
       <c r="X118" s="9"/>
@@ -5336,19 +5343,19 @@
       <c r="O121" s="9"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="8" t="str">
-        <f t="shared" ref="Q121" si="157">IF(Q120&lt;&gt;"",LEFT(Q120,6),IF(R121&lt;&gt;"",LEFT(R121,6),IF(Q122&lt;&gt;"",LEFT(Q122,6),IF(P121&lt;&gt;"",LEFT(P121,6),""))))</f>
+        <f>IF(Q120&lt;&gt;"",LEFT(Q120,6),IF(R121&lt;&gt;"",LEFT(R121,6),IF(Q122&lt;&gt;"",LEFT(Q122,6),IF(P121&lt;&gt;"",LEFT(P121,6),""))))</f>
         <v/>
       </c>
       <c r="R121" s="9"/>
       <c r="S121" s="7"/>
       <c r="T121" s="8" t="str">
-        <f t="shared" ref="T121" si="158">IF(T120&lt;&gt;"",LEFT(T120,6),IF(U121&lt;&gt;"",LEFT(U121,6),IF(T122&lt;&gt;"",LEFT(T122,6),IF(S121&lt;&gt;"",LEFT(S121,6),""))))</f>
+        <f>IF(T120&lt;&gt;"",LEFT(T120,6),IF(U121&lt;&gt;"",LEFT(U121,6),IF(T122&lt;&gt;"",LEFT(T122,6),IF(S121&lt;&gt;"",LEFT(S121,6),""))))</f>
         <v/>
       </c>
       <c r="U121" s="9"/>
       <c r="V121" s="7"/>
       <c r="W121" s="8" t="str">
-        <f t="shared" ref="W121" si="159">IF(W120&lt;&gt;"",LEFT(W120,6),IF(X121&lt;&gt;"",LEFT(X121,6),IF(W122&lt;&gt;"",LEFT(W122,6),IF(V121&lt;&gt;"",LEFT(V121,6),""))))</f>
+        <f>IF(W120&lt;&gt;"",LEFT(W120,6),IF(X121&lt;&gt;"",LEFT(X121,6),IF(W122&lt;&gt;"",LEFT(W122,6),IF(V121&lt;&gt;"",LEFT(V121,6),""))))</f>
         <v/>
       </c>
       <c r="X121" s="9"/>
@@ -5452,13 +5459,13 @@
         <v>69</v>
       </c>
       <c r="T124" s="8" t="str">
-        <f t="shared" ref="T124" si="160">IF(T123&lt;&gt;"",LEFT(T123,6),IF(U124&lt;&gt;"",LEFT(U124,6),IF(T125&lt;&gt;"",LEFT(T125,6),IF(S124&lt;&gt;"",LEFT(S124,6),""))))</f>
+        <f>IF(T123&lt;&gt;"",LEFT(T123,6),IF(U124&lt;&gt;"",LEFT(U124,6),IF(T125&lt;&gt;"",LEFT(T125,6),IF(S124&lt;&gt;"",LEFT(S124,6),""))))</f>
         <v>03_1_3</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="7"/>
       <c r="W124" s="8" t="str">
-        <f t="shared" ref="W124" si="161">IF(W123&lt;&gt;"",LEFT(W123,6),IF(X124&lt;&gt;"",LEFT(X124,6),IF(W125&lt;&gt;"",LEFT(W125,6),IF(V124&lt;&gt;"",LEFT(V124,6),""))))</f>
+        <f>IF(W123&lt;&gt;"",LEFT(W123,6),IF(X124&lt;&gt;"",LEFT(X124,6),IF(W125&lt;&gt;"",LEFT(W125,6),IF(V124&lt;&gt;"",LEFT(V124,6),""))))</f>
         <v/>
       </c>
       <c r="X124" s="9"/>
@@ -5552,19 +5559,19 @@
       <c r="O127" s="9"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="8" t="str">
-        <f t="shared" ref="Q127" si="162">IF(Q126&lt;&gt;"",LEFT(Q126,6),IF(R127&lt;&gt;"",LEFT(R127,6),IF(Q128&lt;&gt;"",LEFT(Q128,6),IF(P127&lt;&gt;"",LEFT(P127,6),""))))</f>
+        <f>IF(Q126&lt;&gt;"",LEFT(Q126,6),IF(R127&lt;&gt;"",LEFT(R127,6),IF(Q128&lt;&gt;"",LEFT(Q128,6),IF(P127&lt;&gt;"",LEFT(P127,6),""))))</f>
         <v/>
       </c>
       <c r="R127" s="9"/>
       <c r="S127" s="7"/>
       <c r="T127" s="8" t="str">
-        <f t="shared" ref="T127" si="163">IF(T126&lt;&gt;"",LEFT(T126,6),IF(U127&lt;&gt;"",LEFT(U127,6),IF(T128&lt;&gt;"",LEFT(T128,6),IF(S127&lt;&gt;"",LEFT(S127,6),""))))</f>
+        <f>IF(T126&lt;&gt;"",LEFT(T126,6),IF(U127&lt;&gt;"",LEFT(U127,6),IF(T128&lt;&gt;"",LEFT(T128,6),IF(S127&lt;&gt;"",LEFT(S127,6),""))))</f>
         <v/>
       </c>
       <c r="U127" s="9"/>
       <c r="V127" s="7"/>
       <c r="W127" s="8" t="str">
-        <f t="shared" ref="W127" si="164">IF(W126&lt;&gt;"",LEFT(W126,6),IF(X127&lt;&gt;"",LEFT(X127,6),IF(W128&lt;&gt;"",LEFT(W128,6),IF(V127&lt;&gt;"",LEFT(V127,6),""))))</f>
+        <f>IF(W126&lt;&gt;"",LEFT(W126,6),IF(X127&lt;&gt;"",LEFT(X127,6),IF(W128&lt;&gt;"",LEFT(W128,6),IF(V127&lt;&gt;"",LEFT(V127,6),""))))</f>
         <v/>
       </c>
       <c r="X127" s="9"/>
@@ -5658,19 +5665,19 @@
       <c r="O130" s="9"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="8" t="str">
-        <f t="shared" ref="Q130" si="165">IF(Q129&lt;&gt;"",LEFT(Q129,6),IF(R130&lt;&gt;"",LEFT(R130,6),IF(Q131&lt;&gt;"",LEFT(Q131,6),IF(P130&lt;&gt;"",LEFT(P130,6),""))))</f>
+        <f>IF(Q129&lt;&gt;"",LEFT(Q129,6),IF(R130&lt;&gt;"",LEFT(R130,6),IF(Q131&lt;&gt;"",LEFT(Q131,6),IF(P130&lt;&gt;"",LEFT(P130,6),""))))</f>
         <v/>
       </c>
       <c r="R130" s="9"/>
       <c r="S130" s="7"/>
       <c r="T130" s="8" t="str">
-        <f t="shared" ref="T130" si="166">IF(T129&lt;&gt;"",LEFT(T129,6),IF(U130&lt;&gt;"",LEFT(U130,6),IF(T131&lt;&gt;"",LEFT(T131,6),IF(S130&lt;&gt;"",LEFT(S130,6),""))))</f>
+        <f>IF(T129&lt;&gt;"",LEFT(T129,6),IF(U130&lt;&gt;"",LEFT(U130,6),IF(T131&lt;&gt;"",LEFT(T131,6),IF(S130&lt;&gt;"",LEFT(S130,6),""))))</f>
         <v/>
       </c>
       <c r="U130" s="9"/>
       <c r="V130" s="7"/>
       <c r="W130" s="8" t="str">
-        <f t="shared" ref="W130" si="167">IF(W129&lt;&gt;"",LEFT(W129,6),IF(X130&lt;&gt;"",LEFT(X130,6),IF(W131&lt;&gt;"",LEFT(W131,6),IF(V130&lt;&gt;"",LEFT(V130,6),""))))</f>
+        <f>IF(W129&lt;&gt;"",LEFT(W129,6),IF(X130&lt;&gt;"",LEFT(X130,6),IF(W131&lt;&gt;"",LEFT(W131,6),IF(V130&lt;&gt;"",LEFT(V130,6),""))))</f>
         <v/>
       </c>
       <c r="X130" s="9"/>
@@ -5761,22 +5768,26 @@
         <f>IF(N132&lt;&gt;"",LEFT(N132,6),IF(O133&lt;&gt;"",LEFT(O133,6),IF(N134&lt;&gt;"",LEFT(N134,6),IF(M133&lt;&gt;"",LEFT(M133,6),""))))</f>
         <v>13_2_5</v>
       </c>
-      <c r="O133" s="9"/>
-      <c r="P133" s="7"/>
+      <c r="O133" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P133" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="Q133" s="8" t="str">
-        <f t="shared" ref="Q133" si="168">IF(Q132&lt;&gt;"",LEFT(Q132,6),IF(R133&lt;&gt;"",LEFT(R133,6),IF(Q134&lt;&gt;"",LEFT(Q134,6),IF(P133&lt;&gt;"",LEFT(P133,6),""))))</f>
-        <v/>
+        <f>IF(Q132&lt;&gt;"",LEFT(Q132,6),IF(R133&lt;&gt;"",LEFT(R133,6),IF(Q134&lt;&gt;"",LEFT(Q134,6),IF(P133&lt;&gt;"",LEFT(P133,6),""))))</f>
+        <v>03_4_7</v>
       </c>
       <c r="R133" s="9"/>
       <c r="S133" s="7"/>
       <c r="T133" s="8" t="str">
-        <f t="shared" ref="T133" si="169">IF(T132&lt;&gt;"",LEFT(T132,6),IF(U133&lt;&gt;"",LEFT(U133,6),IF(T134&lt;&gt;"",LEFT(T134,6),IF(S133&lt;&gt;"",LEFT(S133,6),""))))</f>
+        <f>IF(T132&lt;&gt;"",LEFT(T132,6),IF(U133&lt;&gt;"",LEFT(U133,6),IF(T134&lt;&gt;"",LEFT(T134,6),IF(S133&lt;&gt;"",LEFT(S133,6),""))))</f>
         <v/>
       </c>
       <c r="U133" s="9"/>
       <c r="V133" s="7"/>
       <c r="W133" s="8" t="str">
-        <f t="shared" ref="W133" si="170">IF(W132&lt;&gt;"",LEFT(W132,6),IF(X133&lt;&gt;"",LEFT(X133,6),IF(W134&lt;&gt;"",LEFT(W134,6),IF(V133&lt;&gt;"",LEFT(V133,6),""))))</f>
+        <f>IF(W132&lt;&gt;"",LEFT(W132,6),IF(X133&lt;&gt;"",LEFT(X133,6),IF(W134&lt;&gt;"",LEFT(W134,6),IF(V133&lt;&gt;"",LEFT(V133,6),""))))</f>
         <v/>
       </c>
       <c r="X133" s="9"/>
@@ -5878,19 +5889,19 @@
       <c r="O136" s="9"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="8" t="str">
-        <f t="shared" ref="Q136" si="171">IF(Q135&lt;&gt;"",LEFT(Q135,6),IF(R136&lt;&gt;"",LEFT(R136,6),IF(Q137&lt;&gt;"",LEFT(Q137,6),IF(P136&lt;&gt;"",LEFT(P136,6),""))))</f>
+        <f>IF(Q135&lt;&gt;"",LEFT(Q135,6),IF(R136&lt;&gt;"",LEFT(R136,6),IF(Q137&lt;&gt;"",LEFT(Q137,6),IF(P136&lt;&gt;"",LEFT(P136,6),""))))</f>
         <v/>
       </c>
       <c r="R136" s="9"/>
       <c r="S136" s="7"/>
       <c r="T136" s="8" t="str">
-        <f t="shared" ref="T136" si="172">IF(T135&lt;&gt;"",LEFT(T135,6),IF(U136&lt;&gt;"",LEFT(U136,6),IF(T137&lt;&gt;"",LEFT(T137,6),IF(S136&lt;&gt;"",LEFT(S136,6),""))))</f>
+        <f>IF(T135&lt;&gt;"",LEFT(T135,6),IF(U136&lt;&gt;"",LEFT(U136,6),IF(T137&lt;&gt;"",LEFT(T137,6),IF(S136&lt;&gt;"",LEFT(S136,6),""))))</f>
         <v/>
       </c>
       <c r="U136" s="9"/>
       <c r="V136" s="7"/>
       <c r="W136" s="8" t="str">
-        <f t="shared" ref="W136" si="173">IF(W135&lt;&gt;"",LEFT(W135,6),IF(X136&lt;&gt;"",LEFT(X136,6),IF(W137&lt;&gt;"",LEFT(W137,6),IF(V136&lt;&gt;"",LEFT(V136,6),""))))</f>
+        <f>IF(W135&lt;&gt;"",LEFT(W135,6),IF(X136&lt;&gt;"",LEFT(X136,6),IF(W137&lt;&gt;"",LEFT(W137,6),IF(V136&lt;&gt;"",LEFT(V136,6),""))))</f>
         <v/>
       </c>
       <c r="X136" s="9"/>
@@ -5980,19 +5991,19 @@
       <c r="O139" s="9"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="8" t="str">
-        <f t="shared" ref="Q139" si="174">IF(Q138&lt;&gt;"",LEFT(Q138,6),IF(R139&lt;&gt;"",LEFT(R139,6),IF(Q140&lt;&gt;"",LEFT(Q140,6),IF(P139&lt;&gt;"",LEFT(P139,6),""))))</f>
+        <f>IF(Q138&lt;&gt;"",LEFT(Q138,6),IF(R139&lt;&gt;"",LEFT(R139,6),IF(Q140&lt;&gt;"",LEFT(Q140,6),IF(P139&lt;&gt;"",LEFT(P139,6),""))))</f>
         <v/>
       </c>
       <c r="R139" s="9"/>
       <c r="S139" s="7"/>
       <c r="T139" s="8" t="str">
-        <f t="shared" ref="T139" si="175">IF(T138&lt;&gt;"",LEFT(T138,6),IF(U139&lt;&gt;"",LEFT(U139,6),IF(T140&lt;&gt;"",LEFT(T140,6),IF(S139&lt;&gt;"",LEFT(S139,6),""))))</f>
+        <f>IF(T138&lt;&gt;"",LEFT(T138,6),IF(U139&lt;&gt;"",LEFT(U139,6),IF(T140&lt;&gt;"",LEFT(T140,6),IF(S139&lt;&gt;"",LEFT(S139,6),""))))</f>
         <v/>
       </c>
       <c r="U139" s="9"/>
       <c r="V139" s="7"/>
       <c r="W139" s="8" t="str">
-        <f t="shared" ref="W139" si="176">IF(W138&lt;&gt;"",LEFT(W138,6),IF(X139&lt;&gt;"",LEFT(X139,6),IF(W140&lt;&gt;"",LEFT(W140,6),IF(V139&lt;&gt;"",LEFT(V139,6),""))))</f>
+        <f>IF(W138&lt;&gt;"",LEFT(W138,6),IF(X139&lt;&gt;"",LEFT(X139,6),IF(W140&lt;&gt;"",LEFT(W140,6),IF(V139&lt;&gt;"",LEFT(V139,6),""))))</f>
         <v/>
       </c>
       <c r="X139" s="9"/>
@@ -6090,19 +6101,19 @@
       <c r="O142" s="9"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="8" t="str">
-        <f t="shared" ref="Q142" si="177">IF(Q141&lt;&gt;"",LEFT(Q141,6),IF(R142&lt;&gt;"",LEFT(R142,6),IF(Q143&lt;&gt;"",LEFT(Q143,6),IF(P142&lt;&gt;"",LEFT(P142,6),""))))</f>
+        <f>IF(Q141&lt;&gt;"",LEFT(Q141,6),IF(R142&lt;&gt;"",LEFT(R142,6),IF(Q143&lt;&gt;"",LEFT(Q143,6),IF(P142&lt;&gt;"",LEFT(P142,6),""))))</f>
         <v/>
       </c>
       <c r="R142" s="9"/>
       <c r="S142" s="7"/>
       <c r="T142" s="8" t="str">
-        <f t="shared" ref="T142" si="178">IF(T141&lt;&gt;"",LEFT(T141,6),IF(U142&lt;&gt;"",LEFT(U142,6),IF(T143&lt;&gt;"",LEFT(T143,6),IF(S142&lt;&gt;"",LEFT(S142,6),""))))</f>
+        <f>IF(T141&lt;&gt;"",LEFT(T141,6),IF(U142&lt;&gt;"",LEFT(U142,6),IF(T143&lt;&gt;"",LEFT(T143,6),IF(S142&lt;&gt;"",LEFT(S142,6),""))))</f>
         <v/>
       </c>
       <c r="U142" s="9"/>
       <c r="V142" s="7"/>
       <c r="W142" s="8" t="str">
-        <f t="shared" ref="W142" si="179">IF(W141&lt;&gt;"",LEFT(W141,6),IF(X142&lt;&gt;"",LEFT(X142,6),IF(W143&lt;&gt;"",LEFT(W143,6),IF(V142&lt;&gt;"",LEFT(V142,6),""))))</f>
+        <f>IF(W141&lt;&gt;"",LEFT(W141,6),IF(X142&lt;&gt;"",LEFT(X142,6),IF(W143&lt;&gt;"",LEFT(W143,6),IF(V142&lt;&gt;"",LEFT(V142,6),""))))</f>
         <v/>
       </c>
       <c r="X142" s="9"/>
@@ -6192,19 +6203,19 @@
       <c r="O145" s="9"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="8" t="str">
-        <f t="shared" ref="Q145" si="180">IF(Q144&lt;&gt;"",LEFT(Q144,6),IF(R145&lt;&gt;"",LEFT(R145,6),IF(Q146&lt;&gt;"",LEFT(Q146,6),IF(P145&lt;&gt;"",LEFT(P145,6),""))))</f>
+        <f>IF(Q144&lt;&gt;"",LEFT(Q144,6),IF(R145&lt;&gt;"",LEFT(R145,6),IF(Q146&lt;&gt;"",LEFT(Q146,6),IF(P145&lt;&gt;"",LEFT(P145,6),""))))</f>
         <v>09_5_6</v>
       </c>
       <c r="R145" s="9"/>
       <c r="S145" s="7"/>
       <c r="T145" s="8" t="str">
-        <f t="shared" ref="T145" si="181">IF(T144&lt;&gt;"",LEFT(T144,6),IF(U145&lt;&gt;"",LEFT(U145,6),IF(T146&lt;&gt;"",LEFT(T146,6),IF(S145&lt;&gt;"",LEFT(S145,6),""))))</f>
+        <f>IF(T144&lt;&gt;"",LEFT(T144,6),IF(U145&lt;&gt;"",LEFT(U145,6),IF(T146&lt;&gt;"",LEFT(T146,6),IF(S145&lt;&gt;"",LEFT(S145,6),""))))</f>
         <v/>
       </c>
       <c r="U145" s="9"/>
       <c r="V145" s="7"/>
       <c r="W145" s="8" t="str">
-        <f t="shared" ref="W145" si="182">IF(W144&lt;&gt;"",LEFT(W144,6),IF(X145&lt;&gt;"",LEFT(X145,6),IF(W146&lt;&gt;"",LEFT(W146,6),IF(V145&lt;&gt;"",LEFT(V145,6),""))))</f>
+        <f>IF(W144&lt;&gt;"",LEFT(W144,6),IF(X145&lt;&gt;"",LEFT(X145,6),IF(W146&lt;&gt;"",LEFT(W146,6),IF(V145&lt;&gt;"",LEFT(V145,6),""))))</f>
         <v/>
       </c>
       <c r="X145" s="9"/>
@@ -6302,7 +6313,7 @@
         <v>139</v>
       </c>
       <c r="Q148" s="8" t="str">
-        <f t="shared" ref="Q148" si="183">IF(Q147&lt;&gt;"",LEFT(Q147,6),IF(R148&lt;&gt;"",LEFT(R148,6),IF(Q149&lt;&gt;"",LEFT(Q149,6),IF(P148&lt;&gt;"",LEFT(P148,6),""))))</f>
+        <f>IF(Q147&lt;&gt;"",LEFT(Q147,6),IF(R148&lt;&gt;"",LEFT(R148,6),IF(Q149&lt;&gt;"",LEFT(Q149,6),IF(P148&lt;&gt;"",LEFT(P148,6),""))))</f>
         <v>08_1_1</v>
       </c>
       <c r="R148" s="9" t="s">
@@ -6312,7 +6323,7 @@
         <v>133</v>
       </c>
       <c r="T148" s="8" t="str">
-        <f t="shared" ref="T148" si="184">IF(T147&lt;&gt;"",LEFT(T147,6),IF(U148&lt;&gt;"",LEFT(U148,6),IF(T149&lt;&gt;"",LEFT(T149,6),IF(S148&lt;&gt;"",LEFT(S148,6),""))))</f>
+        <f>IF(T147&lt;&gt;"",LEFT(T147,6),IF(U148&lt;&gt;"",LEFT(U148,6),IF(T149&lt;&gt;"",LEFT(T149,6),IF(S148&lt;&gt;"",LEFT(S148,6),""))))</f>
         <v>07_4_1</v>
       </c>
       <c r="U148" s="9" t="s">
@@ -6322,7 +6333,7 @@
         <v>138</v>
       </c>
       <c r="W148" s="8" t="str">
-        <f t="shared" ref="W148" si="185">IF(W147&lt;&gt;"",LEFT(W147,6),IF(X148&lt;&gt;"",LEFT(X148,6),IF(W149&lt;&gt;"",LEFT(W149,6),IF(V148&lt;&gt;"",LEFT(V148,6),""))))</f>
+        <f>IF(W147&lt;&gt;"",LEFT(W147,6),IF(X148&lt;&gt;"",LEFT(X148,6),IF(W149&lt;&gt;"",LEFT(W149,6),IF(V148&lt;&gt;"",LEFT(V148,6),""))))</f>
         <v>08_4_7</v>
       </c>
       <c r="X148" s="9"/>
@@ -6424,19 +6435,19 @@
       <c r="O151" s="9"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="8" t="str">
-        <f t="shared" ref="Q151" si="186">IF(Q150&lt;&gt;"",LEFT(Q150,6),IF(R151&lt;&gt;"",LEFT(R151,6),IF(Q152&lt;&gt;"",LEFT(Q152,6),IF(P151&lt;&gt;"",LEFT(P151,6),""))))</f>
+        <f>IF(Q150&lt;&gt;"",LEFT(Q150,6),IF(R151&lt;&gt;"",LEFT(R151,6),IF(Q152&lt;&gt;"",LEFT(Q152,6),IF(P151&lt;&gt;"",LEFT(P151,6),""))))</f>
         <v/>
       </c>
       <c r="R151" s="9"/>
       <c r="S151" s="7"/>
       <c r="T151" s="8" t="str">
-        <f t="shared" ref="T151" si="187">IF(T150&lt;&gt;"",LEFT(T150,6),IF(U151&lt;&gt;"",LEFT(U151,6),IF(T152&lt;&gt;"",LEFT(T152,6),IF(S151&lt;&gt;"",LEFT(S151,6),""))))</f>
+        <f>IF(T150&lt;&gt;"",LEFT(T150,6),IF(U151&lt;&gt;"",LEFT(U151,6),IF(T152&lt;&gt;"",LEFT(T152,6),IF(S151&lt;&gt;"",LEFT(S151,6),""))))</f>
         <v>13_5_4</v>
       </c>
       <c r="U151" s="9"/>
       <c r="V151" s="7"/>
       <c r="W151" s="8" t="str">
-        <f t="shared" ref="W151" si="188">IF(W150&lt;&gt;"",LEFT(W150,6),IF(X151&lt;&gt;"",LEFT(X151,6),IF(W152&lt;&gt;"",LEFT(W152,6),IF(V151&lt;&gt;"",LEFT(V151,6),""))))</f>
+        <f>IF(W150&lt;&gt;"",LEFT(W150,6),IF(X151&lt;&gt;"",LEFT(X151,6),IF(W152&lt;&gt;"",LEFT(W152,6),IF(V151&lt;&gt;"",LEFT(V151,6),""))))</f>
         <v/>
       </c>
       <c r="X151" s="9"/>
@@ -6530,19 +6541,19 @@
       <c r="O154" s="9"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="8" t="str">
-        <f t="shared" ref="Q154" si="189">IF(Q153&lt;&gt;"",LEFT(Q153,6),IF(R154&lt;&gt;"",LEFT(R154,6),IF(Q155&lt;&gt;"",LEFT(Q155,6),IF(P154&lt;&gt;"",LEFT(P154,6),""))))</f>
+        <f>IF(Q153&lt;&gt;"",LEFT(Q153,6),IF(R154&lt;&gt;"",LEFT(R154,6),IF(Q155&lt;&gt;"",LEFT(Q155,6),IF(P154&lt;&gt;"",LEFT(P154,6),""))))</f>
         <v/>
       </c>
       <c r="R154" s="9"/>
       <c r="S154" s="7"/>
       <c r="T154" s="8" t="str">
-        <f t="shared" ref="T154" si="190">IF(T153&lt;&gt;"",LEFT(T153,6),IF(U154&lt;&gt;"",LEFT(U154,6),IF(T155&lt;&gt;"",LEFT(T155,6),IF(S154&lt;&gt;"",LEFT(S154,6),""))))</f>
+        <f>IF(T153&lt;&gt;"",LEFT(T153,6),IF(U154&lt;&gt;"",LEFT(U154,6),IF(T155&lt;&gt;"",LEFT(T155,6),IF(S154&lt;&gt;"",LEFT(S154,6),""))))</f>
         <v/>
       </c>
       <c r="U154" s="9"/>
       <c r="V154" s="7"/>
       <c r="W154" s="8" t="str">
-        <f t="shared" ref="W154" si="191">IF(W153&lt;&gt;"",LEFT(W153,6),IF(X154&lt;&gt;"",LEFT(X154,6),IF(W155&lt;&gt;"",LEFT(W155,6),IF(V154&lt;&gt;"",LEFT(V154,6),""))))</f>
+        <f>IF(W153&lt;&gt;"",LEFT(W153,6),IF(X154&lt;&gt;"",LEFT(X154,6),IF(W155&lt;&gt;"",LEFT(W155,6),IF(V154&lt;&gt;"",LEFT(V154,6),""))))</f>
         <v/>
       </c>
       <c r="X154" s="9"/>
@@ -6586,7 +6597,7 @@
       <c r="J156" s="18"/>
       <c r="K156" s="5"/>
       <c r="L156" s="15"/>
-      <c r="M156" s="18"/>
+      <c r="M156" s="4"/>
       <c r="N156" s="5"/>
       <c r="O156" s="15"/>
       <c r="P156" s="18"/>
@@ -6621,7 +6632,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="8" t="str">
         <f>IF(K156&lt;&gt;"",LEFT(K156,6),IF(L157&lt;&gt;"",LEFT(L157,6),IF(K158&lt;&gt;"",LEFT(K158,6),IF(J157&lt;&gt;"",LEFT(J157,6),""))))</f>
-        <v>06_5_3</v>
+        <v/>
       </c>
       <c r="L157" s="9"/>
       <c r="M157" s="7"/>
@@ -6632,19 +6643,19 @@
       <c r="O157" s="9"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="8" t="str">
-        <f t="shared" ref="Q157" si="192">IF(Q156&lt;&gt;"",LEFT(Q156,6),IF(R157&lt;&gt;"",LEFT(R157,6),IF(Q158&lt;&gt;"",LEFT(Q158,6),IF(P157&lt;&gt;"",LEFT(P157,6),""))))</f>
-        <v/>
+        <f>IF(Q156&lt;&gt;"",LEFT(Q156,6),IF(R157&lt;&gt;"",LEFT(R157,6),IF(Q158&lt;&gt;"",LEFT(Q158,6),IF(P157&lt;&gt;"",LEFT(P157,6),""))))</f>
+        <v>06_5_3</v>
       </c>
       <c r="R157" s="9"/>
       <c r="S157" s="7"/>
       <c r="T157" s="8" t="str">
-        <f t="shared" ref="T157" si="193">IF(T156&lt;&gt;"",LEFT(T156,6),IF(U157&lt;&gt;"",LEFT(U157,6),IF(T158&lt;&gt;"",LEFT(T158,6),IF(S157&lt;&gt;"",LEFT(S157,6),""))))</f>
+        <f>IF(T156&lt;&gt;"",LEFT(T156,6),IF(U157&lt;&gt;"",LEFT(U157,6),IF(T158&lt;&gt;"",LEFT(T158,6),IF(S157&lt;&gt;"",LEFT(S157,6),""))))</f>
         <v/>
       </c>
       <c r="U157" s="9"/>
       <c r="V157" s="7"/>
       <c r="W157" s="8" t="str">
-        <f t="shared" ref="W157" si="194">IF(W156&lt;&gt;"",LEFT(W156,6),IF(X157&lt;&gt;"",LEFT(X157,6),IF(W158&lt;&gt;"",LEFT(W158,6),IF(V157&lt;&gt;"",LEFT(V157,6),""))))</f>
+        <f>IF(W156&lt;&gt;"",LEFT(W156,6),IF(X157&lt;&gt;"",LEFT(X157,6),IF(W158&lt;&gt;"",LEFT(W158,6),IF(V157&lt;&gt;"",LEFT(V157,6),""))))</f>
         <v/>
       </c>
       <c r="X157" s="9"/>
@@ -6660,15 +6671,15 @@
       <c r="H158" s="11"/>
       <c r="I158" s="16"/>
       <c r="J158" s="19"/>
-      <c r="K158" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="K158" s="11"/>
       <c r="L158" s="16"/>
-      <c r="M158" s="19"/>
+      <c r="M158" s="10"/>
       <c r="N158" s="11"/>
       <c r="O158" s="16"/>
       <c r="P158" s="19"/>
-      <c r="Q158" s="11"/>
+      <c r="Q158" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="R158" s="16"/>
       <c r="S158" s="19"/>
       <c r="T158" s="11"/>
@@ -6688,15 +6699,15 @@
       <c r="H159" s="5"/>
       <c r="I159" s="15"/>
       <c r="J159" s="18"/>
-      <c r="K159" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="K159" s="5"/>
       <c r="L159" s="15"/>
-      <c r="M159" s="18"/>
+      <c r="M159" s="4"/>
       <c r="N159" s="5"/>
       <c r="O159" s="15"/>
       <c r="P159" s="18"/>
-      <c r="Q159" s="5"/>
+      <c r="Q159" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="R159" s="15"/>
       <c r="S159" s="18"/>
       <c r="T159" s="5"/>
@@ -6721,40 +6732,40 @@
       <c r="G160" s="7"/>
       <c r="H160" s="8" t="str">
         <f>IF(H159&lt;&gt;"",LEFT(H159,6),IF(I160&lt;&gt;"",LEFT(I160,6),IF(H161&lt;&gt;"",LEFT(H161,6),IF(G160&lt;&gt;"",LEFT(G160,6),""))))</f>
-        <v>06_3_4</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J160" s="7" t="s">
-        <v>150</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="8" t="str">
         <f>IF(K159&lt;&gt;"",LEFT(K159,6),IF(L160&lt;&gt;"",LEFT(L160,6),IF(K161&lt;&gt;"",LEFT(K161,6),IF(J160&lt;&gt;"",LEFT(J160,6),""))))</f>
-        <v>05_5_4</v>
+        <v/>
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="7"/>
       <c r="N160" s="8" t="str">
         <f>IF(N159&lt;&gt;"",LEFT(N159,6),IF(O160&lt;&gt;"",LEFT(O160,6),IF(N161&lt;&gt;"",LEFT(N161,6),IF(M160&lt;&gt;"",LEFT(M160,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O160" s="9"/>
-      <c r="P160" s="7"/>
+        <v>06_3_4</v>
+      </c>
+      <c r="O160" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P160" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="Q160" s="8" t="str">
-        <f t="shared" ref="Q160" si="195">IF(Q159&lt;&gt;"",LEFT(Q159,6),IF(R160&lt;&gt;"",LEFT(R160,6),IF(Q161&lt;&gt;"",LEFT(Q161,6),IF(P160&lt;&gt;"",LEFT(P160,6),""))))</f>
-        <v/>
+        <f>IF(Q159&lt;&gt;"",LEFT(Q159,6),IF(R160&lt;&gt;"",LEFT(R160,6),IF(Q161&lt;&gt;"",LEFT(Q161,6),IF(P160&lt;&gt;"",LEFT(P160,6),""))))</f>
+        <v>05_5_4</v>
       </c>
       <c r="R160" s="9"/>
       <c r="S160" s="7"/>
       <c r="T160" s="8" t="str">
-        <f t="shared" ref="T160" si="196">IF(T159&lt;&gt;"",LEFT(T159,6),IF(U160&lt;&gt;"",LEFT(U160,6),IF(T161&lt;&gt;"",LEFT(T161,6),IF(S160&lt;&gt;"",LEFT(S160,6),""))))</f>
+        <f>IF(T159&lt;&gt;"",LEFT(T159,6),IF(U160&lt;&gt;"",LEFT(U160,6),IF(T161&lt;&gt;"",LEFT(T161,6),IF(S160&lt;&gt;"",LEFT(S160,6),""))))</f>
         <v/>
       </c>
       <c r="U160" s="9"/>
       <c r="V160" s="7"/>
       <c r="W160" s="8" t="str">
-        <f t="shared" ref="W160" si="197">IF(W159&lt;&gt;"",LEFT(W159,6),IF(X160&lt;&gt;"",LEFT(X160,6),IF(W161&lt;&gt;"",LEFT(W161,6),IF(V160&lt;&gt;"",LEFT(V160,6),""))))</f>
+        <f>IF(W159&lt;&gt;"",LEFT(W159,6),IF(X160&lt;&gt;"",LEFT(X160,6),IF(W161&lt;&gt;"",LEFT(W161,6),IF(V160&lt;&gt;"",LEFT(V160,6),""))))</f>
         <v/>
       </c>
       <c r="X160" s="9"/>
@@ -6767,20 +6778,20 @@
       <c r="E161" s="11"/>
       <c r="F161" s="12"/>
       <c r="G161" s="10"/>
-      <c r="H161" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="H161" s="11"/>
       <c r="I161" s="16"/>
       <c r="J161" s="19"/>
-      <c r="K161" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="K161" s="11"/>
       <c r="L161" s="16"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="11"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="O161" s="16"/>
       <c r="P161" s="19"/>
-      <c r="Q161" s="11"/>
+      <c r="Q161" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="R161" s="16"/>
       <c r="S161" s="19"/>
       <c r="T161" s="11"/>
@@ -6797,20 +6808,20 @@
       <c r="E162" s="5"/>
       <c r="F162" s="6"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="H162" s="5"/>
       <c r="I162" s="15"/>
       <c r="J162" s="18"/>
-      <c r="K162" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="K162" s="5"/>
       <c r="L162" s="15"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="5"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="O162" s="15"/>
       <c r="P162" s="18"/>
-      <c r="Q162" s="5"/>
+      <c r="Q162" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="R162" s="15"/>
       <c r="S162" s="18"/>
       <c r="T162" s="5"/>
@@ -6835,40 +6846,40 @@
       <c r="G163" s="7"/>
       <c r="H163" s="8" t="str">
         <f>IF(H162&lt;&gt;"",LEFT(H162,6),IF(I163&lt;&gt;"",LEFT(I163,6),IF(H164&lt;&gt;"",LEFT(H164,6),IF(G163&lt;&gt;"",LEFT(G163,6),""))))</f>
-        <v>06_5_5</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I163" s="9"/>
+      <c r="J163" s="7"/>
       <c r="K163" s="8" t="str">
         <f>IF(K162&lt;&gt;"",LEFT(K162,6),IF(L163&lt;&gt;"",LEFT(L163,6),IF(K164&lt;&gt;"",LEFT(K164,6),IF(J163&lt;&gt;"",LEFT(J163,6),""))))</f>
-        <v>06_4_5</v>
+        <v/>
       </c>
       <c r="L163" s="9"/>
       <c r="M163" s="7"/>
       <c r="N163" s="8" t="str">
         <f>IF(N162&lt;&gt;"",LEFT(N162,6),IF(O163&lt;&gt;"",LEFT(O163,6),IF(N164&lt;&gt;"",LEFT(N164,6),IF(M163&lt;&gt;"",LEFT(M163,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O163" s="9"/>
-      <c r="P163" s="7"/>
+        <v>06_5_5</v>
+      </c>
+      <c r="O163" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="P163" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="Q163" s="8" t="str">
-        <f t="shared" ref="Q163" si="198">IF(Q162&lt;&gt;"",LEFT(Q162,6),IF(R163&lt;&gt;"",LEFT(R163,6),IF(Q164&lt;&gt;"",LEFT(Q164,6),IF(P163&lt;&gt;"",LEFT(P163,6),""))))</f>
-        <v/>
+        <f>IF(Q162&lt;&gt;"",LEFT(Q162,6),IF(R163&lt;&gt;"",LEFT(R163,6),IF(Q164&lt;&gt;"",LEFT(Q164,6),IF(P163&lt;&gt;"",LEFT(P163,6),""))))</f>
+        <v>06_4_5</v>
       </c>
       <c r="R163" s="9"/>
       <c r="S163" s="7"/>
       <c r="T163" s="8" t="str">
-        <f t="shared" ref="T163" si="199">IF(T162&lt;&gt;"",LEFT(T162,6),IF(U163&lt;&gt;"",LEFT(U163,6),IF(T164&lt;&gt;"",LEFT(T164,6),IF(S163&lt;&gt;"",LEFT(S163,6),""))))</f>
+        <f>IF(T162&lt;&gt;"",LEFT(T162,6),IF(U163&lt;&gt;"",LEFT(U163,6),IF(T164&lt;&gt;"",LEFT(T164,6),IF(S163&lt;&gt;"",LEFT(S163,6),""))))</f>
         <v/>
       </c>
       <c r="U163" s="9"/>
       <c r="V163" s="7"/>
       <c r="W163" s="8" t="str">
-        <f t="shared" ref="W163" si="200">IF(W162&lt;&gt;"",LEFT(W162,6),IF(X163&lt;&gt;"",LEFT(X163,6),IF(W164&lt;&gt;"",LEFT(W164,6),IF(V163&lt;&gt;"",LEFT(V163,6),""))))</f>
+        <f>IF(W162&lt;&gt;"",LEFT(W162,6),IF(X163&lt;&gt;"",LEFT(X163,6),IF(W164&lt;&gt;"",LEFT(W164,6),IF(V163&lt;&gt;"",LEFT(V163,6),""))))</f>
         <v/>
       </c>
       <c r="X163" s="9"/>
@@ -6886,7 +6897,7 @@
       <c r="J164" s="19"/>
       <c r="K164" s="11"/>
       <c r="L164" s="16"/>
-      <c r="M164" s="19"/>
+      <c r="M164" s="10"/>
       <c r="N164" s="11"/>
       <c r="O164" s="16"/>
       <c r="P164" s="19"/>
@@ -6958,19 +6969,19 @@
       <c r="O166" s="9"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="8" t="str">
-        <f t="shared" ref="Q166" si="201">IF(Q165&lt;&gt;"",LEFT(Q165,6),IF(R166&lt;&gt;"",LEFT(R166,6),IF(Q167&lt;&gt;"",LEFT(Q167,6),IF(P166&lt;&gt;"",LEFT(P166,6),""))))</f>
+        <f>IF(Q165&lt;&gt;"",LEFT(Q165,6),IF(R166&lt;&gt;"",LEFT(R166,6),IF(Q167&lt;&gt;"",LEFT(Q167,6),IF(P166&lt;&gt;"",LEFT(P166,6),""))))</f>
         <v/>
       </c>
       <c r="R166" s="9"/>
       <c r="S166" s="7"/>
       <c r="T166" s="8" t="str">
-        <f t="shared" ref="T166" si="202">IF(T165&lt;&gt;"",LEFT(T165,6),IF(U166&lt;&gt;"",LEFT(U166,6),IF(T167&lt;&gt;"",LEFT(T167,6),IF(S166&lt;&gt;"",LEFT(S166,6),""))))</f>
+        <f>IF(T165&lt;&gt;"",LEFT(T165,6),IF(U166&lt;&gt;"",LEFT(U166,6),IF(T167&lt;&gt;"",LEFT(T167,6),IF(S166&lt;&gt;"",LEFT(S166,6),""))))</f>
         <v/>
       </c>
       <c r="U166" s="9"/>
       <c r="V166" s="7"/>
       <c r="W166" s="8" t="str">
-        <f t="shared" ref="W166" si="203">IF(W165&lt;&gt;"",LEFT(W165,6),IF(X166&lt;&gt;"",LEFT(X166,6),IF(W167&lt;&gt;"",LEFT(W167,6),IF(V166&lt;&gt;"",LEFT(V166,6),""))))</f>
+        <f>IF(W165&lt;&gt;"",LEFT(W165,6),IF(X166&lt;&gt;"",LEFT(X166,6),IF(W167&lt;&gt;"",LEFT(W167,6),IF(V166&lt;&gt;"",LEFT(V166,6),""))))</f>
         <v/>
       </c>
       <c r="X166" s="9"/>
@@ -7060,19 +7071,19 @@
       <c r="O169" s="9"/>
       <c r="P169" s="7"/>
       <c r="Q169" s="8" t="str">
-        <f t="shared" ref="Q169" si="204">IF(Q168&lt;&gt;"",LEFT(Q168,6),IF(R169&lt;&gt;"",LEFT(R169,6),IF(Q170&lt;&gt;"",LEFT(Q170,6),IF(P169&lt;&gt;"",LEFT(P169,6),""))))</f>
+        <f>IF(Q168&lt;&gt;"",LEFT(Q168,6),IF(R169&lt;&gt;"",LEFT(R169,6),IF(Q170&lt;&gt;"",LEFT(Q170,6),IF(P169&lt;&gt;"",LEFT(P169,6),""))))</f>
         <v/>
       </c>
       <c r="R169" s="9"/>
       <c r="S169" s="7"/>
       <c r="T169" s="8" t="str">
-        <f t="shared" ref="T169" si="205">IF(T168&lt;&gt;"",LEFT(T168,6),IF(U169&lt;&gt;"",LEFT(U169,6),IF(T170&lt;&gt;"",LEFT(T170,6),IF(S169&lt;&gt;"",LEFT(S169,6),""))))</f>
+        <f>IF(T168&lt;&gt;"",LEFT(T168,6),IF(U169&lt;&gt;"",LEFT(U169,6),IF(T170&lt;&gt;"",LEFT(T170,6),IF(S169&lt;&gt;"",LEFT(S169,6),""))))</f>
         <v/>
       </c>
       <c r="U169" s="9"/>
       <c r="V169" s="7"/>
       <c r="W169" s="8" t="str">
-        <f t="shared" ref="W169" si="206">IF(W168&lt;&gt;"",LEFT(W168,6),IF(X169&lt;&gt;"",LEFT(X169,6),IF(W170&lt;&gt;"",LEFT(W170,6),IF(V169&lt;&gt;"",LEFT(V169,6),""))))</f>
+        <f>IF(W168&lt;&gt;"",LEFT(W168,6),IF(X169&lt;&gt;"",LEFT(X169,6),IF(W170&lt;&gt;"",LEFT(W170,6),IF(V169&lt;&gt;"",LEFT(V169,6),""))))</f>
         <v/>
       </c>
       <c r="X169" s="9"/>
@@ -7162,19 +7173,19 @@
       <c r="O172" s="9"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="8" t="str">
-        <f t="shared" ref="Q172" si="207">IF(Q171&lt;&gt;"",LEFT(Q171,6),IF(R172&lt;&gt;"",LEFT(R172,6),IF(Q173&lt;&gt;"",LEFT(Q173,6),IF(P172&lt;&gt;"",LEFT(P172,6),""))))</f>
+        <f>IF(Q171&lt;&gt;"",LEFT(Q171,6),IF(R172&lt;&gt;"",LEFT(R172,6),IF(Q173&lt;&gt;"",LEFT(Q173,6),IF(P172&lt;&gt;"",LEFT(P172,6),""))))</f>
         <v/>
       </c>
       <c r="R172" s="9"/>
       <c r="S172" s="7"/>
       <c r="T172" s="8" t="str">
-        <f t="shared" ref="T172" si="208">IF(T171&lt;&gt;"",LEFT(T171,6),IF(U172&lt;&gt;"",LEFT(U172,6),IF(T173&lt;&gt;"",LEFT(T173,6),IF(S172&lt;&gt;"",LEFT(S172,6),""))))</f>
+        <f>IF(T171&lt;&gt;"",LEFT(T171,6),IF(U172&lt;&gt;"",LEFT(U172,6),IF(T173&lt;&gt;"",LEFT(T173,6),IF(S172&lt;&gt;"",LEFT(S172,6),""))))</f>
         <v/>
       </c>
       <c r="U172" s="9"/>
       <c r="V172" s="7"/>
       <c r="W172" s="8" t="str">
-        <f t="shared" ref="W172" si="209">IF(W171&lt;&gt;"",LEFT(W171,6),IF(X172&lt;&gt;"",LEFT(X172,6),IF(W173&lt;&gt;"",LEFT(W173,6),IF(V172&lt;&gt;"",LEFT(V172,6),""))))</f>
+        <f>IF(W171&lt;&gt;"",LEFT(W171,6),IF(X172&lt;&gt;"",LEFT(X172,6),IF(W173&lt;&gt;"",LEFT(W173,6),IF(V172&lt;&gt;"",LEFT(V172,6),""))))</f>
         <v/>
       </c>
       <c r="X172" s="9"/>
@@ -7264,19 +7275,19 @@
       <c r="O175" s="9"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="8" t="str">
-        <f t="shared" ref="Q175" si="210">IF(Q174&lt;&gt;"",LEFT(Q174,6),IF(R175&lt;&gt;"",LEFT(R175,6),IF(Q176&lt;&gt;"",LEFT(Q176,6),IF(P175&lt;&gt;"",LEFT(P175,6),""))))</f>
+        <f>IF(Q174&lt;&gt;"",LEFT(Q174,6),IF(R175&lt;&gt;"",LEFT(R175,6),IF(Q176&lt;&gt;"",LEFT(Q176,6),IF(P175&lt;&gt;"",LEFT(P175,6),""))))</f>
         <v/>
       </c>
       <c r="R175" s="9"/>
       <c r="S175" s="7"/>
       <c r="T175" s="8" t="str">
-        <f t="shared" ref="T175" si="211">IF(T174&lt;&gt;"",LEFT(T174,6),IF(U175&lt;&gt;"",LEFT(U175,6),IF(T176&lt;&gt;"",LEFT(T176,6),IF(S175&lt;&gt;"",LEFT(S175,6),""))))</f>
+        <f>IF(T174&lt;&gt;"",LEFT(T174,6),IF(U175&lt;&gt;"",LEFT(U175,6),IF(T176&lt;&gt;"",LEFT(T176,6),IF(S175&lt;&gt;"",LEFT(S175,6),""))))</f>
         <v/>
       </c>
       <c r="U175" s="9"/>
       <c r="V175" s="7"/>
       <c r="W175" s="8" t="str">
-        <f t="shared" ref="W175" si="212">IF(W174&lt;&gt;"",LEFT(W174,6),IF(X175&lt;&gt;"",LEFT(X175,6),IF(W176&lt;&gt;"",LEFT(W176,6),IF(V175&lt;&gt;"",LEFT(V175,6),""))))</f>
+        <f>IF(W174&lt;&gt;"",LEFT(W174,6),IF(X175&lt;&gt;"",LEFT(X175,6),IF(W176&lt;&gt;"",LEFT(W176,6),IF(V175&lt;&gt;"",LEFT(V175,6),""))))</f>
         <v/>
       </c>
       <c r="X175" s="9"/>
@@ -7366,19 +7377,19 @@
       <c r="O178" s="9"/>
       <c r="P178" s="7"/>
       <c r="Q178" s="8" t="str">
-        <f t="shared" ref="Q178" si="213">IF(Q177&lt;&gt;"",LEFT(Q177,6),IF(R178&lt;&gt;"",LEFT(R178,6),IF(Q179&lt;&gt;"",LEFT(Q179,6),IF(P178&lt;&gt;"",LEFT(P178,6),""))))</f>
+        <f>IF(Q177&lt;&gt;"",LEFT(Q177,6),IF(R178&lt;&gt;"",LEFT(R178,6),IF(Q179&lt;&gt;"",LEFT(Q179,6),IF(P178&lt;&gt;"",LEFT(P178,6),""))))</f>
         <v/>
       </c>
       <c r="R178" s="9"/>
       <c r="S178" s="7"/>
       <c r="T178" s="8" t="str">
-        <f t="shared" ref="T178" si="214">IF(T177&lt;&gt;"",LEFT(T177,6),IF(U178&lt;&gt;"",LEFT(U178,6),IF(T179&lt;&gt;"",LEFT(T179,6),IF(S178&lt;&gt;"",LEFT(S178,6),""))))</f>
+        <f>IF(T177&lt;&gt;"",LEFT(T177,6),IF(U178&lt;&gt;"",LEFT(U178,6),IF(T179&lt;&gt;"",LEFT(T179,6),IF(S178&lt;&gt;"",LEFT(S178,6),""))))</f>
         <v/>
       </c>
       <c r="U178" s="9"/>
       <c r="V178" s="7"/>
       <c r="W178" s="8" t="str">
-        <f t="shared" ref="W178" si="215">IF(W177&lt;&gt;"",LEFT(W177,6),IF(X178&lt;&gt;"",LEFT(X178,6),IF(W179&lt;&gt;"",LEFT(W179,6),IF(V178&lt;&gt;"",LEFT(V178,6),""))))</f>
+        <f>IF(W177&lt;&gt;"",LEFT(W177,6),IF(X178&lt;&gt;"",LEFT(X178,6),IF(W179&lt;&gt;"",LEFT(W179,6),IF(V178&lt;&gt;"",LEFT(V178,6),""))))</f>
         <v/>
       </c>
       <c r="X178" s="9"/>
@@ -7468,19 +7479,19 @@
       <c r="O181" s="9"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="8" t="str">
-        <f t="shared" ref="Q181" si="216">IF(Q180&lt;&gt;"",LEFT(Q180,6),IF(R181&lt;&gt;"",LEFT(R181,6),IF(Q182&lt;&gt;"",LEFT(Q182,6),IF(P181&lt;&gt;"",LEFT(P181,6),""))))</f>
+        <f>IF(Q180&lt;&gt;"",LEFT(Q180,6),IF(R181&lt;&gt;"",LEFT(R181,6),IF(Q182&lt;&gt;"",LEFT(Q182,6),IF(P181&lt;&gt;"",LEFT(P181,6),""))))</f>
         <v/>
       </c>
       <c r="R181" s="9"/>
       <c r="S181" s="7"/>
       <c r="T181" s="8" t="str">
-        <f t="shared" ref="T181" si="217">IF(T180&lt;&gt;"",LEFT(T180,6),IF(U181&lt;&gt;"",LEFT(U181,6),IF(T182&lt;&gt;"",LEFT(T182,6),IF(S181&lt;&gt;"",LEFT(S181,6),""))))</f>
+        <f>IF(T180&lt;&gt;"",LEFT(T180,6),IF(U181&lt;&gt;"",LEFT(U181,6),IF(T182&lt;&gt;"",LEFT(T182,6),IF(S181&lt;&gt;"",LEFT(S181,6),""))))</f>
         <v/>
       </c>
       <c r="U181" s="9"/>
       <c r="V181" s="7"/>
       <c r="W181" s="8" t="str">
-        <f t="shared" ref="W181" si="218">IF(W180&lt;&gt;"",LEFT(W180,6),IF(X181&lt;&gt;"",LEFT(X181,6),IF(W182&lt;&gt;"",LEFT(W182,6),IF(V181&lt;&gt;"",LEFT(V181,6),""))))</f>
+        <f>IF(W180&lt;&gt;"",LEFT(W180,6),IF(X181&lt;&gt;"",LEFT(X181,6),IF(W182&lt;&gt;"",LEFT(W182,6),IF(V181&lt;&gt;"",LEFT(V181,6),""))))</f>
         <v/>
       </c>
       <c r="X181" s="9"/>
@@ -7570,19 +7581,19 @@
       <c r="O184" s="9"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="8" t="str">
-        <f t="shared" ref="Q184" si="219">IF(Q183&lt;&gt;"",LEFT(Q183,6),IF(R184&lt;&gt;"",LEFT(R184,6),IF(Q185&lt;&gt;"",LEFT(Q185,6),IF(P184&lt;&gt;"",LEFT(P184,6),""))))</f>
+        <f>IF(Q183&lt;&gt;"",LEFT(Q183,6),IF(R184&lt;&gt;"",LEFT(R184,6),IF(Q185&lt;&gt;"",LEFT(Q185,6),IF(P184&lt;&gt;"",LEFT(P184,6),""))))</f>
         <v/>
       </c>
       <c r="R184" s="9"/>
       <c r="S184" s="7"/>
       <c r="T184" s="8" t="str">
-        <f t="shared" ref="T184" si="220">IF(T183&lt;&gt;"",LEFT(T183,6),IF(U184&lt;&gt;"",LEFT(U184,6),IF(T185&lt;&gt;"",LEFT(T185,6),IF(S184&lt;&gt;"",LEFT(S184,6),""))))</f>
+        <f>IF(T183&lt;&gt;"",LEFT(T183,6),IF(U184&lt;&gt;"",LEFT(U184,6),IF(T185&lt;&gt;"",LEFT(T185,6),IF(S184&lt;&gt;"",LEFT(S184,6),""))))</f>
         <v/>
       </c>
       <c r="U184" s="9"/>
       <c r="V184" s="7"/>
       <c r="W184" s="8" t="str">
-        <f t="shared" ref="W184" si="221">IF(W183&lt;&gt;"",LEFT(W183,6),IF(X184&lt;&gt;"",LEFT(X184,6),IF(W185&lt;&gt;"",LEFT(W185,6),IF(V184&lt;&gt;"",LEFT(V184,6),""))))</f>
+        <f>IF(W183&lt;&gt;"",LEFT(W183,6),IF(X184&lt;&gt;"",LEFT(X184,6),IF(W185&lt;&gt;"",LEFT(W185,6),IF(V184&lt;&gt;"",LEFT(V184,6),""))))</f>
         <v/>
       </c>
       <c r="X184" s="9"/>
@@ -7672,19 +7683,19 @@
       <c r="O187" s="9"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="8" t="str">
-        <f t="shared" ref="Q187" si="222">IF(Q186&lt;&gt;"",LEFT(Q186,6),IF(R187&lt;&gt;"",LEFT(R187,6),IF(Q188&lt;&gt;"",LEFT(Q188,6),IF(P187&lt;&gt;"",LEFT(P187,6),""))))</f>
+        <f>IF(Q186&lt;&gt;"",LEFT(Q186,6),IF(R187&lt;&gt;"",LEFT(R187,6),IF(Q188&lt;&gt;"",LEFT(Q188,6),IF(P187&lt;&gt;"",LEFT(P187,6),""))))</f>
         <v/>
       </c>
       <c r="R187" s="9"/>
       <c r="S187" s="7"/>
       <c r="T187" s="8" t="str">
-        <f t="shared" ref="T187" si="223">IF(T186&lt;&gt;"",LEFT(T186,6),IF(U187&lt;&gt;"",LEFT(U187,6),IF(T188&lt;&gt;"",LEFT(T188,6),IF(S187&lt;&gt;"",LEFT(S187,6),""))))</f>
+        <f>IF(T186&lt;&gt;"",LEFT(T186,6),IF(U187&lt;&gt;"",LEFT(U187,6),IF(T188&lt;&gt;"",LEFT(T188,6),IF(S187&lt;&gt;"",LEFT(S187,6),""))))</f>
         <v/>
       </c>
       <c r="U187" s="9"/>
       <c r="V187" s="7"/>
       <c r="W187" s="8" t="str">
-        <f t="shared" ref="W187" si="224">IF(W186&lt;&gt;"",LEFT(W186,6),IF(X187&lt;&gt;"",LEFT(X187,6),IF(W188&lt;&gt;"",LEFT(W188,6),IF(V187&lt;&gt;"",LEFT(V187,6),""))))</f>
+        <f>IF(W186&lt;&gt;"",LEFT(W186,6),IF(X187&lt;&gt;"",LEFT(X187,6),IF(W188&lt;&gt;"",LEFT(W188,6),IF(V187&lt;&gt;"",LEFT(V187,6),""))))</f>
         <v/>
       </c>
       <c r="X187" s="9"/>
@@ -7774,19 +7785,19 @@
       <c r="O190" s="9"/>
       <c r="P190" s="7"/>
       <c r="Q190" s="8" t="str">
-        <f t="shared" ref="Q190" si="225">IF(Q189&lt;&gt;"",LEFT(Q189,6),IF(R190&lt;&gt;"",LEFT(R190,6),IF(Q191&lt;&gt;"",LEFT(Q191,6),IF(P190&lt;&gt;"",LEFT(P190,6),""))))</f>
+        <f>IF(Q189&lt;&gt;"",LEFT(Q189,6),IF(R190&lt;&gt;"",LEFT(R190,6),IF(Q191&lt;&gt;"",LEFT(Q191,6),IF(P190&lt;&gt;"",LEFT(P190,6),""))))</f>
         <v/>
       </c>
       <c r="R190" s="9"/>
       <c r="S190" s="7"/>
       <c r="T190" s="8" t="str">
-        <f t="shared" ref="T190" si="226">IF(T189&lt;&gt;"",LEFT(T189,6),IF(U190&lt;&gt;"",LEFT(U190,6),IF(T191&lt;&gt;"",LEFT(T191,6),IF(S190&lt;&gt;"",LEFT(S190,6),""))))</f>
+        <f>IF(T189&lt;&gt;"",LEFT(T189,6),IF(U190&lt;&gt;"",LEFT(U190,6),IF(T191&lt;&gt;"",LEFT(T191,6),IF(S190&lt;&gt;"",LEFT(S190,6),""))))</f>
         <v/>
       </c>
       <c r="U190" s="9"/>
       <c r="V190" s="7"/>
       <c r="W190" s="8" t="str">
-        <f t="shared" ref="W190" si="227">IF(W189&lt;&gt;"",LEFT(W189,6),IF(X190&lt;&gt;"",LEFT(X190,6),IF(W191&lt;&gt;"",LEFT(W191,6),IF(V190&lt;&gt;"",LEFT(V190,6),""))))</f>
+        <f>IF(W189&lt;&gt;"",LEFT(W189,6),IF(X190&lt;&gt;"",LEFT(X190,6),IF(W191&lt;&gt;"",LEFT(W191,6),IF(V190&lt;&gt;"",LEFT(V190,6),""))))</f>
         <v/>
       </c>
       <c r="X190" s="9"/>

--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$147</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -508,6 +507,102 @@
   </si>
   <si>
     <t>03_4_7_3_in</t>
+  </si>
+  <si>
+    <t>09_3_6_3_in</t>
+  </si>
+  <si>
+    <t>09_3_6_2_out</t>
+  </si>
+  <si>
+    <t>05_5_5_2_out</t>
+  </si>
+  <si>
+    <t>02_3_2_1_in</t>
+  </si>
+  <si>
+    <t>12_5_2_1_in</t>
+  </si>
+  <si>
+    <t>12_5_2_2_out</t>
+  </si>
+  <si>
+    <t>12_5_2_3_in</t>
+  </si>
+  <si>
+    <t>12_5_2_4_out</t>
+  </si>
+  <si>
+    <t>12_3_2_4_out</t>
+  </si>
+  <si>
+    <t>05_3_1_1_in</t>
+  </si>
+  <si>
+    <t>07_4_6_2_out</t>
+  </si>
+  <si>
+    <t>05_3_1_4_out</t>
+  </si>
+  <si>
+    <t>14_1_4_1_in</t>
+  </si>
+  <si>
+    <t>05_4_4_1_in</t>
+  </si>
+  <si>
+    <t>05_4_4_3_in</t>
+  </si>
+  <si>
+    <t>12_4_2_4_out</t>
+  </si>
+  <si>
+    <t>12_3_2_1_in</t>
+  </si>
+  <si>
+    <t>05_3_5_4_out</t>
+  </si>
+  <si>
+    <t>05_4_4_4_out</t>
+  </si>
+  <si>
+    <t>05_3_5_1_in</t>
+  </si>
+  <si>
+    <t>06_5_2_1_in</t>
+  </si>
+  <si>
+    <t>06_5_2_2_out</t>
+  </si>
+  <si>
+    <t>12_4_2_3_in</t>
+  </si>
+  <si>
+    <t>05_3_5_2_out</t>
+  </si>
+  <si>
+    <t>09_1_5_4_out</t>
+  </si>
+  <si>
+    <t>09_1_5_1_in</t>
+  </si>
+  <si>
+    <t>05_5_5_3_in</t>
+  </si>
+  <si>
+    <t>02_3_2_4_out</t>
+  </si>
+  <si>
+    <t>02_4_7_4_out</t>
+  </si>
+  <si>
+    <t>02_4_7_1_in</t>
+  </si>
+  <si>
+    <t>02_3_7_3_in</t>
+  </si>
+  <si>
+    <t>09_4_7_4_out</t>
   </si>
 </sst>
 </file>
@@ -530,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,6 +851,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,8 +1147,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1203,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="str">
         <f>IF(B3&lt;&gt;"",LEFT(B3,6),IF(C4&lt;&gt;"",LEFT(C4,6),IF(B5&lt;&gt;"",LEFT(B5,6),IF(A4&lt;&gt;"",LEFT(A4,6),""))))</f>
@@ -1100,13 +1213,17 @@
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="str">
         <f>IF(E3&lt;&gt;"",LEFT(E3,6),IF(F4&lt;&gt;"",LEFT(F4,6),IF(E5&lt;&gt;"",LEFT(E5,6),IF(D4&lt;&gt;"",LEFT(D4,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
+        <v>02_3_2</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="H4" s="8" t="str">
         <f>IF(H3&lt;&gt;"",LEFT(H3,6),IF(I4&lt;&gt;"",LEFT(I4,6),IF(H5&lt;&gt;"",LEFT(H5,6),IF(G4&lt;&gt;"",LEFT(G4,6),""))))</f>
-        <v/>
+        <v>09_1_5</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="7"/>
@@ -1145,10 +1262,14 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
@@ -1171,10 +1292,14 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
@@ -1192,7 +1317,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="str">
         <f>IF(B6&lt;&gt;"",LEFT(B6,6),IF(C7&lt;&gt;"",LEFT(C7,6),IF(B8&lt;&gt;"",LEFT(B8,6),IF(A7&lt;&gt;"",LEFT(A7,6),""))))</f>
@@ -1202,13 +1327,17 @@
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="str">
         <f>IF(E6&lt;&gt;"",LEFT(E6,6),IF(F7&lt;&gt;"",LEFT(F7,6),IF(E8&lt;&gt;"",LEFT(E8,6),IF(D7&lt;&gt;"",LEFT(D7,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+        <v>09_3_6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="H7" s="8" t="str">
         <f>IF(H6&lt;&gt;"",LEFT(H6,6),IF(I7&lt;&gt;"",LEFT(I7,6),IF(H8&lt;&gt;"",LEFT(H8,6),IF(G7&lt;&gt;"",LEFT(G7,6),""))))</f>
-        <v/>
+        <v>05_5_5</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="7"/>
@@ -1220,19 +1349,27 @@
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="str">
         <f>IF(N6&lt;&gt;"",LEFT(N6,6),IF(O7&lt;&gt;"",LEFT(O7,6),IF(N8&lt;&gt;"",LEFT(N8,6),IF(M7&lt;&gt;"",LEFT(M7,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="7"/>
+        <v>06_5_2</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="Q7" s="8" t="str">
         <f>IF(Q6&lt;&gt;"",LEFT(Q6,6),IF(R7&lt;&gt;"",LEFT(R7,6),IF(Q8&lt;&gt;"",LEFT(Q8,6),IF(P7&lt;&gt;"",LEFT(P7,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="7"/>
+        <v>05_3_5</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="T7" s="8" t="str">
         <f>IF(T6&lt;&gt;"",LEFT(T6,6),IF(U7&lt;&gt;"",LEFT(U7,6),IF(T8&lt;&gt;"",LEFT(T8,6),IF(S7&lt;&gt;"",LEFT(S7,6),""))))</f>
-        <v/>
+        <v>12_3_2</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -1257,13 +1394,19 @@
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="O8" s="12"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="24" t="s">
+        <v>179</v>
+      </c>
       <c r="R8" s="12"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="11"/>
+      <c r="T8" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="U8" s="12"/>
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
@@ -1283,20 +1426,26 @@
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="23" t="s">
+        <v>182</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="str">
         <f>IF(B9&lt;&gt;"",LEFT(B9,6),IF(C10&lt;&gt;"",LEFT(C10,6),IF(B11&lt;&gt;"",LEFT(B11,6),IF(A10&lt;&gt;"",LEFT(A10,6),""))))</f>
@@ -1324,25 +1473,37 @@
       <c r="M10" s="7"/>
       <c r="N10" s="8" t="str">
         <f>IF(N9&lt;&gt;"",LEFT(N9,6),IF(O10&lt;&gt;"",LEFT(O10,6),IF(N11&lt;&gt;"",LEFT(N11,6),IF(M10&lt;&gt;"",LEFT(M10,6),""))))</f>
-        <v/>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="7"/>
+        <v>12_4_2</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="Q10" s="8" t="str">
         <f>IF(Q9&lt;&gt;"",LEFT(Q9,6),IF(R10&lt;&gt;"",LEFT(R10,6),IF(Q11&lt;&gt;"",LEFT(Q11,6),IF(P10&lt;&gt;"",LEFT(P10,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="7"/>
+        <v>05_4_4</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="T10" s="8" t="str">
         <f>IF(T9&lt;&gt;"",LEFT(T9,6),IF(U10&lt;&gt;"",LEFT(U10,6),IF(T11&lt;&gt;"",LEFT(T11,6),IF(S10&lt;&gt;"",LEFT(S10,6),""))))</f>
-        <v/>
-      </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
+        <v>12_5_2</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="W10" s="8" t="str">
         <f>IF(W9&lt;&gt;"",LEFT(W9,6),IF(X10&lt;&gt;"",LEFT(X10,6),IF(W11&lt;&gt;"",LEFT(W11,6),IF(V10&lt;&gt;"",LEFT(V10,6),""))))</f>
-        <v/>
+        <v>05_3_1</v>
       </c>
       <c r="X10" s="9"/>
     </row>
@@ -1366,10 +1527,14 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="12"/>
       <c r="S11" s="19"/>
-      <c r="T11" s="11"/>
+      <c r="T11" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="U11" s="12"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1392,10 +1557,14 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1438,13 +1607,13 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8" t="str">
         <f>IF(T12&lt;&gt;"",LEFT(T12,6),IF(U13&lt;&gt;"",LEFT(U13,6),IF(T14&lt;&gt;"",LEFT(T14,6),IF(S13&lt;&gt;"",LEFT(S13,6),""))))</f>
-        <v/>
+        <v>07_4_6</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
         <f>IF(W12&lt;&gt;"",LEFT(W12,6),IF(X13&lt;&gt;"",LEFT(X13,6),IF(W14&lt;&gt;"",LEFT(W14,6),IF(V13&lt;&gt;"",LEFT(V13,6),""))))</f>
-        <v/>
+        <v>14_1_4</v>
       </c>
       <c r="X13" s="9"/>
     </row>
@@ -1501,7 +1670,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="str">
         <f>IF(B15&lt;&gt;"",LEFT(B15,6),IF(C16&lt;&gt;"",LEFT(C16,6),IF(B17&lt;&gt;"",LEFT(B17,6),IF(A16&lt;&gt;"",LEFT(A16,6),""))))</f>
@@ -1517,10 +1686,14 @@
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="str">
         <f>IF(H15&lt;&gt;"",LEFT(H15,6),IF(I16&lt;&gt;"",LEFT(I16,6),IF(H17&lt;&gt;"",LEFT(H17,6),IF(G16&lt;&gt;"",LEFT(G16,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
+        <v>02_4_7</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="K16" s="8" t="str">
         <f>IF(K15&lt;&gt;"",LEFT(K15,6),IF(L16&lt;&gt;"",LEFT(L16,6),IF(K17&lt;&gt;"",LEFT(K17,6),IF(J16&lt;&gt;"",LEFT(J16,6),""))))</f>
         <v>02_3_7</v>
@@ -1559,7 +1732,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="19"/>
       <c r="K17" s="13" t="s">
@@ -1588,7 +1763,9 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="23" t="s">
+        <v>191</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="18"/>
       <c r="K18" s="13" t="s">

--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -603,6 +603,60 @@
   </si>
   <si>
     <t>09_4_7_4_out</t>
+  </si>
+  <si>
+    <t>08_2_2_4_out</t>
+  </si>
+  <si>
+    <t>08_2_2_1_in</t>
+  </si>
+  <si>
+    <t>01_2_2_1_out</t>
+  </si>
+  <si>
+    <t>08_5_2_1_in</t>
+  </si>
+  <si>
+    <t>07_2_4_2_out</t>
+  </si>
+  <si>
+    <t>07_2_4_3_in</t>
+  </si>
+  <si>
+    <t>01_2_3_4_in</t>
+  </si>
+  <si>
+    <t>07_4_2_2_out</t>
+  </si>
+  <si>
+    <t>12_3_6_2_out</t>
+  </si>
+  <si>
+    <t>14_5_5_1_in</t>
+  </si>
+  <si>
+    <t>13_3_1_2_out</t>
+  </si>
+  <si>
+    <t>12_3_6_3_in</t>
+  </si>
+  <si>
+    <t>10_1_6_2_out</t>
+  </si>
+  <si>
+    <t>08_5_6_3_in</t>
+  </si>
+  <si>
+    <t>07_4_5_2_out</t>
+  </si>
+  <si>
+    <t>10_1_6_3_in</t>
+  </si>
+  <si>
+    <t>07_4_5_1_in</t>
+  </si>
+  <si>
+    <t>11_3_4_2_out</t>
   </si>
 </sst>
 </file>
@@ -625,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,12 +689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,16 +900,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1207,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,10 +1275,10 @@
         <f>IF(E3&lt;&gt;"",LEFT(E3,6),IF(F4&lt;&gt;"",LEFT(F4,6),IF(E5&lt;&gt;"",LEFT(E5,6),IF(D4&lt;&gt;"",LEFT(D4,6),""))))</f>
         <v>02_3_2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>185</v>
       </c>
       <c r="H4" s="8" t="str">
@@ -1267,7 +1327,7 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="12"/>
@@ -1297,7 +1357,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>186</v>
       </c>
       <c r="I6" s="6"/>
@@ -1351,20 +1411,20 @@
         <f>IF(N6&lt;&gt;"",LEFT(N6,6),IF(O7&lt;&gt;"",LEFT(O7,6),IF(N8&lt;&gt;"",LEFT(N8,6),IF(M7&lt;&gt;"",LEFT(M7,6),""))))</f>
         <v>06_5_2</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="24" t="s">
         <v>183</v>
       </c>
       <c r="Q7" s="8" t="str">
         <f>IF(Q6&lt;&gt;"",LEFT(Q6,6),IF(R7&lt;&gt;"",LEFT(R7,6),IF(Q8&lt;&gt;"",LEFT(Q8,6),IF(P7&lt;&gt;"",LEFT(P7,6),""))))</f>
         <v>05_3_5</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="24" t="s">
         <v>176</v>
       </c>
       <c r="T7" s="8" t="str">
@@ -1394,12 +1454,12 @@
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="24" t="s">
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="26" t="s">
         <v>179</v>
       </c>
       <c r="R8" s="12"/>
@@ -1426,12 +1486,12 @@
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="23" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="21" t="s">
         <v>178</v>
       </c>
       <c r="R9" s="6"/>
@@ -1688,10 +1748,10 @@
         <f>IF(H15&lt;&gt;"",LEFT(H15,6),IF(I16&lt;&gt;"",LEFT(I16,6),IF(H17&lt;&gt;"",LEFT(H17,6),IF(G16&lt;&gt;"",LEFT(G16,6),""))))</f>
         <v>02_4_7</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="24" t="s">
         <v>190</v>
       </c>
       <c r="K16" s="8" t="str">
@@ -1732,7 +1792,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="26" t="s">
         <v>189</v>
       </c>
       <c r="I17" s="16"/>
@@ -1763,7 +1823,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="21" t="s">
         <v>191</v>
       </c>
       <c r="I18" s="15"/>
@@ -2863,7 +2923,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="str">
         <f>IF(B48&lt;&gt;"",LEFT(B48,6),IF(C49&lt;&gt;"",LEFT(C49,6),IF(B50&lt;&gt;"",LEFT(B50,6),IF(A49&lt;&gt;"",LEFT(A49,6),""))))</f>
@@ -2887,11 +2947,15 @@
         <f>IF(K48&lt;&gt;"",LEFT(K48,6),IF(L49&lt;&gt;"",LEFT(L49,6),IF(K50&lt;&gt;"",LEFT(K50,6),IF(J49&lt;&gt;"",LEFT(J49,6),""))))</f>
         <v>01_2_2</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="7"/>
+      <c r="L49" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>193</v>
+      </c>
       <c r="N49" s="8" t="str">
         <f>IF(N48&lt;&gt;"",LEFT(N48,6),IF(O49&lt;&gt;"",LEFT(O49,6),IF(N50&lt;&gt;"",LEFT(N50,6),IF(M49&lt;&gt;"",LEFT(M49,6),""))))</f>
-        <v/>
+        <v>08_2_2</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="7"/>
@@ -2929,7 +2993,9 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="19"/>
-      <c r="N50" s="11"/>
+      <c r="N50" s="26" t="s">
+        <v>192</v>
+      </c>
       <c r="O50" s="16"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="11"/>
@@ -2957,7 +3023,9 @@
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="18"/>
-      <c r="N51" s="5"/>
+      <c r="N51" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="O51" s="15"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="5"/>
@@ -3397,7 +3465,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="15"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="str">
         <f>IF(B63&lt;&gt;"",LEFT(B63,6),IF(C64&lt;&gt;"",LEFT(C64,6),IF(B65&lt;&gt;"",LEFT(B65,6),IF(A64&lt;&gt;"",LEFT(A64,6),""))))</f>
@@ -3413,10 +3481,14 @@
       <c r="G64" s="7"/>
       <c r="H64" s="8" t="str">
         <f>IF(H63&lt;&gt;"",LEFT(H63,6),IF(I64&lt;&gt;"",LEFT(I64,6),IF(H65&lt;&gt;"",LEFT(H65,6),IF(G64&lt;&gt;"",LEFT(G64,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="7"/>
+        <v>07_2_4</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="K64" s="8" t="str">
         <f>IF(K63&lt;&gt;"",LEFT(K63,6),IF(L64&lt;&gt;"",LEFT(L64,6),IF(K65&lt;&gt;"",LEFT(K65,6),IF(J64&lt;&gt;"",LEFT(J64,6),""))))</f>
         <v>01_2_3</v>
@@ -3455,7 +3527,9 @@
       <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="I65" s="16"/>
       <c r="J65" s="19"/>
       <c r="K65" s="11" t="s">
@@ -3485,7 +3559,9 @@
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
+      <c r="H66" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="I66" s="15"/>
       <c r="J66" s="18"/>
       <c r="K66" s="5" t="s">
@@ -5911,14 +5987,18 @@
       <c r="W132" s="5"/>
       <c r="X132" s="15"/>
     </row>
-    <row r="133" spans="1:24" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="str">
         <f>IF(B132&lt;&gt;"",LEFT(B132,6),IF(C133&lt;&gt;"",LEFT(C133,6),IF(B134&lt;&gt;"",LEFT(B134,6),IF(A133&lt;&gt;"",LEFT(A133,6),""))))</f>
-        <v/>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="7"/>
+        <v>12_3_6</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="E133" s="8" t="str">
         <f>IF(E132&lt;&gt;"",LEFT(E132,6),IF(F133&lt;&gt;"",LEFT(F133,6),IF(E134&lt;&gt;"",LEFT(E134,6),IF(D133&lt;&gt;"",LEFT(D133,6),""))))</f>
         <v>14_5_5</v>
@@ -5971,7 +6051,9 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
-      <c r="B134" s="11"/>
+      <c r="B134" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="C134" s="12"/>
       <c r="D134" s="10"/>
       <c r="E134" s="11" t="s">
@@ -6001,7 +6083,9 @@
     </row>
     <row r="135" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
-      <c r="B135" s="5"/>
+      <c r="B135" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5" t="s">
@@ -6135,7 +6219,7 @@
       <c r="W138" s="5"/>
       <c r="X138" s="15"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="str">
         <f>IF(B138&lt;&gt;"",LEFT(B138,6),IF(C139&lt;&gt;"",LEFT(C139,6),IF(B140&lt;&gt;"",LEFT(B140,6),IF(A139&lt;&gt;"",LEFT(A139,6),""))))</f>
@@ -6157,10 +6241,14 @@
       <c r="J139" s="7"/>
       <c r="K139" s="8" t="str">
         <f>IF(K138&lt;&gt;"",LEFT(K138,6),IF(L139&lt;&gt;"",LEFT(L139,6),IF(K140&lt;&gt;"",LEFT(K140,6),IF(J139&lt;&gt;"",LEFT(J139,6),""))))</f>
-        <v/>
-      </c>
-      <c r="L139" s="9"/>
-      <c r="M139" s="7"/>
+        <v>10_1_6</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="N139" s="8" t="str">
         <f>IF(N138&lt;&gt;"",LEFT(N138,6),IF(O139&lt;&gt;"",LEFT(O139,6),IF(N140&lt;&gt;"",LEFT(N140,6),IF(M139&lt;&gt;"",LEFT(M139,6),""))))</f>
         <v>08_5_6</v>
@@ -6196,7 +6284,9 @@
       <c r="H140" s="11"/>
       <c r="I140" s="16"/>
       <c r="J140" s="19"/>
-      <c r="K140" s="11"/>
+      <c r="K140" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="L140" s="16"/>
       <c r="M140" s="19"/>
       <c r="N140" s="11" t="s">
@@ -6224,7 +6314,9 @@
       <c r="H141" s="5"/>
       <c r="I141" s="15"/>
       <c r="J141" s="18"/>
-      <c r="K141" s="5"/>
+      <c r="K141" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="L141" s="15"/>
       <c r="M141" s="18"/>
       <c r="N141" s="5" t="s">
@@ -6257,10 +6349,14 @@
       <c r="G142" s="7"/>
       <c r="H142" s="8" t="str">
         <f>IF(H141&lt;&gt;"",LEFT(H141,6),IF(I142&lt;&gt;"",LEFT(I142,6),IF(H143&lt;&gt;"",LEFT(H143,6),IF(G142&lt;&gt;"",LEFT(G142,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I142" s="9"/>
-      <c r="J142" s="7"/>
+        <v>11_3_4</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="K142" s="8" t="str">
         <f>IF(K141&lt;&gt;"",LEFT(K141,6),IF(L142&lt;&gt;"",LEFT(L142,6),IF(K143&lt;&gt;"",LEFT(K143,6),IF(J142&lt;&gt;"",LEFT(J142,6),""))))</f>
         <v>07_4_5</v>

--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -434,12 +434,6 @@
     <t>08_1_1_3_in</t>
   </si>
   <si>
-    <t>08_1_1_2_out</t>
-  </si>
-  <si>
-    <t>09_5_6_1_in</t>
-  </si>
-  <si>
     <t>07_4_1_2_out</t>
   </si>
   <si>
@@ -657,6 +651,84 @@
   </si>
   <si>
     <t>11_3_4_2_out</t>
+  </si>
+  <si>
+    <t>15_1_7_1_in</t>
+  </si>
+  <si>
+    <t>15_1_7_2_out</t>
+  </si>
+  <si>
+    <t>15_1_7_4_out</t>
+  </si>
+  <si>
+    <t>14_2_5_1_in</t>
+  </si>
+  <si>
+    <t>08_5_5_3_in</t>
+  </si>
+  <si>
+    <t>15_1_6_2_out</t>
+  </si>
+  <si>
+    <t>05_3_5_3_in</t>
+  </si>
+  <si>
+    <t>13_5_5_2_out</t>
+  </si>
+  <si>
+    <t>02_4_7_2_out</t>
+  </si>
+  <si>
+    <t>10_5_1_1_in</t>
+  </si>
+  <si>
+    <t>03_5_3_1_in</t>
+  </si>
+  <si>
+    <t>03_5_3_2_out</t>
+  </si>
+  <si>
+    <t>10_5_1_2_out</t>
+  </si>
+  <si>
+    <t>09_4_7_3_in</t>
+  </si>
+  <si>
+    <t>13_1_6_4_out</t>
+  </si>
+  <si>
+    <t>13_1_6_1_in</t>
+  </si>
+  <si>
+    <t>05_4_5_3_in</t>
+  </si>
+  <si>
+    <t>13_2_3_2_out</t>
+  </si>
+  <si>
+    <t>09_3_4_2_out</t>
+  </si>
+  <si>
+    <t>09_3_4_3_in</t>
+  </si>
+  <si>
+    <t>06_5_6_3_in</t>
+  </si>
+  <si>
+    <t>05_4_2_4_out</t>
+  </si>
+  <si>
+    <t>09_5_7_4_out</t>
+  </si>
+  <si>
+    <t>09_5_7_1_in</t>
+  </si>
+  <si>
+    <t>02_1_1_3_in</t>
+  </si>
+  <si>
+    <t>02_1_5_2_out</t>
   </si>
 </sst>
 </file>
@@ -679,7 +751,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +761,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,6 +1001,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,8 +1300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T151" sqref="T151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,10 +1369,10 @@
         <v>02_3_2</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H4" s="8" t="str">
         <f>IF(H3&lt;&gt;"",LEFT(H3,6),IF(I4&lt;&gt;"",LEFT(I4,6),IF(H5&lt;&gt;"",LEFT(H5,6),IF(G4&lt;&gt;"",LEFT(G4,6),""))))</f>
@@ -1299,9 +1392,9 @@
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="8" t="str">
+      <c r="Q4" s="29" t="str">
         <f>IF(Q3&lt;&gt;"",LEFT(Q3,6),IF(R4&lt;&gt;"",LEFT(R4,6),IF(Q5&lt;&gt;"",LEFT(Q5,6),IF(P4&lt;&gt;"",LEFT(P4,6),""))))</f>
-        <v/>
+        <v>13_5_5</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="7"/>
@@ -1323,12 +1416,12 @@
       <c r="C5" s="12"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="19"/>
       <c r="H5" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="10"/>
@@ -1338,7 +1431,9 @@
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="R5" s="12"/>
       <c r="S5" s="19"/>
       <c r="T5" s="11"/>
@@ -1353,12 +1448,12 @@
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
       <c r="H6" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
@@ -1368,7 +1463,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="18"/>
       <c r="T6" s="5"/>
@@ -1390,10 +1487,10 @@
         <v>09_3_6</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H7" s="8" t="str">
         <f>IF(H6&lt;&gt;"",LEFT(H6,6),IF(I7&lt;&gt;"",LEFT(I7,6),IF(H8&lt;&gt;"",LEFT(H8,6),IF(G7&lt;&gt;"",LEFT(G7,6),""))))</f>
@@ -1407,27 +1504,27 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="8" t="str">
+      <c r="N7" s="29" t="str">
         <f>IF(N6&lt;&gt;"",LEFT(N6,6),IF(O7&lt;&gt;"",LEFT(O7,6),IF(N8&lt;&gt;"",LEFT(N8,6),IF(M7&lt;&gt;"",LEFT(M7,6),""))))</f>
         <v>06_5_2</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="8" t="str">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="29" t="str">
         <f>IF(Q6&lt;&gt;"",LEFT(Q6,6),IF(R7&lt;&gt;"",LEFT(R7,6),IF(Q8&lt;&gt;"",LEFT(Q8,6),IF(P7&lt;&gt;"",LEFT(P7,6),""))))</f>
         <v>05_3_5</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="T7" s="8" t="str">
+        <v>174</v>
+      </c>
+      <c r="T7" s="29" t="str">
         <f>IF(T6&lt;&gt;"",LEFT(T6,6),IF(U7&lt;&gt;"",LEFT(U7,6),IF(T8&lt;&gt;"",LEFT(T8,6),IF(S7&lt;&gt;"",LEFT(S7,6),""))))</f>
         <v>12_3_2</v>
       </c>
@@ -1455,17 +1552,17 @@
       <c r="L8" s="12"/>
       <c r="M8" s="19"/>
       <c r="N8" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="19"/>
       <c r="T8" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="10"/>
@@ -1487,17 +1584,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="18"/>
       <c r="N9" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="18"/>
       <c r="T9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="4"/>
@@ -1531,37 +1628,37 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="29" t="str">
         <f>IF(N9&lt;&gt;"",LEFT(N9,6),IF(O10&lt;&gt;"",LEFT(O10,6),IF(N11&lt;&gt;"",LEFT(N11,6),IF(M10&lt;&gt;"",LEFT(M10,6),""))))</f>
         <v>12_4_2</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" s="8" t="str">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="29" t="str">
         <f>IF(Q9&lt;&gt;"",LEFT(Q9,6),IF(R10&lt;&gt;"",LEFT(R10,6),IF(Q11&lt;&gt;"",LEFT(Q11,6),IF(P10&lt;&gt;"",LEFT(P10,6),""))))</f>
         <v>05_4_4</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="8" t="str">
+        <v>165</v>
+      </c>
+      <c r="T10" s="29" t="str">
         <f>IF(T9&lt;&gt;"",LEFT(T9,6),IF(U10&lt;&gt;"",LEFT(U10,6),IF(T11&lt;&gt;"",LEFT(T11,6),IF(S10&lt;&gt;"",LEFT(S10,6),""))))</f>
         <v>12_5_2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="W10" s="8" t="str">
+        <v>167</v>
+      </c>
+      <c r="W10" s="29" t="str">
         <f>IF(W9&lt;&gt;"",LEFT(W9,6),IF(X10&lt;&gt;"",LEFT(X10,6),IF(W11&lt;&gt;"",LEFT(W11,6),IF(V10&lt;&gt;"",LEFT(V10,6),""))))</f>
         <v>05_3_1</v>
       </c>
@@ -1588,12 +1685,12 @@
       <c r="R11" s="12"/>
       <c r="S11" s="19"/>
       <c r="T11" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="10"/>
       <c r="W11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X11" s="12"/>
     </row>
@@ -1618,12 +1715,12 @@
       <c r="R12" s="6"/>
       <c r="S12" s="18"/>
       <c r="T12" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="4"/>
       <c r="W12" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X12" s="6"/>
     </row>
@@ -1665,13 +1762,13 @@
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="8" t="str">
+      <c r="T13" s="29" t="str">
         <f>IF(T12&lt;&gt;"",LEFT(T12,6),IF(U13&lt;&gt;"",LEFT(U13,6),IF(T14&lt;&gt;"",LEFT(T14,6),IF(S13&lt;&gt;"",LEFT(S13,6),""))))</f>
         <v>07_4_6</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="8" t="str">
+      <c r="W13" s="29" t="str">
         <f>IF(W12&lt;&gt;"",LEFT(W12,6),IF(X13&lt;&gt;"",LEFT(X13,6),IF(W14&lt;&gt;"",LEFT(W14,6),IF(V13&lt;&gt;"",LEFT(V13,6),""))))</f>
         <v>14_1_4</v>
       </c>
@@ -1738,23 +1835,27 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="29" t="str">
         <f>IF(E15&lt;&gt;"",LEFT(E15,6),IF(F16&lt;&gt;"",LEFT(F16,6),IF(E17&lt;&gt;"",LEFT(E17,6),IF(D16&lt;&gt;"",LEFT(D16,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8" t="str">
+        <v>10_5_1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="29" t="str">
         <f>IF(H15&lt;&gt;"",LEFT(H15,6),IF(I16&lt;&gt;"",LEFT(I16,6),IF(H17&lt;&gt;"",LEFT(H17,6),IF(G16&lt;&gt;"",LEFT(G16,6),""))))</f>
         <v>02_4_7</v>
       </c>
       <c r="I16" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="8" t="str">
+      <c r="K16" s="29" t="str">
         <f>IF(K15&lt;&gt;"",LEFT(K15,6),IF(L16&lt;&gt;"",LEFT(L16,6),IF(K17&lt;&gt;"",LEFT(K17,6),IF(J16&lt;&gt;"",LEFT(J16,6),""))))</f>
         <v>02_3_7</v>
       </c>
@@ -1789,11 +1890,13 @@
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="30" t="s">
+        <v>220</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
       <c r="H17" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="19"/>
@@ -1820,11 +1923,13 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="31" t="s">
+        <v>218</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="18"/>
@@ -1846,7 +1951,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="str">
         <f>IF(B18&lt;&gt;"",LEFT(B18,6),IF(C19&lt;&gt;"",LEFT(C19,6),IF(B20&lt;&gt;"",LEFT(B20,6),IF(A19&lt;&gt;"",LEFT(A19,6),""))))</f>
@@ -1854,13 +1959,17 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="29" t="str">
         <f>IF(E18&lt;&gt;"",LEFT(E18,6),IF(F19&lt;&gt;"",LEFT(F19,6),IF(E20&lt;&gt;"",LEFT(E20,6),IF(D19&lt;&gt;"",LEFT(D19,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8" t="str">
+        <v>03_5_3</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="29" t="str">
         <f>IF(H18&lt;&gt;"",LEFT(H18,6),IF(I19&lt;&gt;"",LEFT(I19,6),IF(H20&lt;&gt;"",LEFT(H20,6),IF(G19&lt;&gt;"",LEFT(G19,6),""))))</f>
         <v>09_4_7</v>
       </c>
@@ -1870,7 +1979,7 @@
       <c r="J19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="29" t="str">
         <f>IF(K18&lt;&gt;"",LEFT(K18,6),IF(L19&lt;&gt;"",LEFT(L19,6),IF(K20&lt;&gt;"",LEFT(K20,6),IF(J19&lt;&gt;"",LEFT(J19,6),""))))</f>
         <v>01_1_2</v>
       </c>
@@ -1976,7 +2085,7 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="29" t="str">
         <f>IF(H21&lt;&gt;"",LEFT(H21,6),IF(I22&lt;&gt;"",LEFT(I22,6),IF(H23&lt;&gt;"",LEFT(H23,6),IF(G22&lt;&gt;"",LEFT(G22,6),""))))</f>
         <v>02_1_3</v>
       </c>
@@ -1986,7 +2095,7 @@
       <c r="J22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="29" t="str">
         <f>IF(K21&lt;&gt;"",LEFT(K21,6),IF(L22&lt;&gt;"",LEFT(L22,6),IF(K23&lt;&gt;"",LEFT(K23,6),IF(J22&lt;&gt;"",LEFT(J22,6),""))))</f>
         <v>01_1_1</v>
       </c>
@@ -2092,7 +2201,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="29" t="str">
         <f>IF(H24&lt;&gt;"",LEFT(H24,6),IF(I25&lt;&gt;"",LEFT(I25,6),IF(H26&lt;&gt;"",LEFT(H26,6),IF(G25&lt;&gt;"",LEFT(G25,6),""))))</f>
         <v>06_2_5</v>
       </c>
@@ -2102,7 +2211,7 @@
       <c r="J25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="29" t="str">
         <f>IF(K24&lt;&gt;"",LEFT(K24,6),IF(L25&lt;&gt;"",LEFT(L25,6),IF(K26&lt;&gt;"",LEFT(K26,6),IF(J25&lt;&gt;"",LEFT(J25,6),""))))</f>
         <v>07_5_2</v>
       </c>
@@ -2740,7 +2849,7 @@
         <v>32</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N43" s="8" t="str">
         <f>IF(N42&lt;&gt;"",LEFT(N42,6),IF(O43&lt;&gt;"",LEFT(O43,6),IF(N44&lt;&gt;"",LEFT(N44,6),IF(M43&lt;&gt;"",LEFT(M43,6),""))))</f>
@@ -2943,17 +3052,17 @@
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="8" t="str">
+      <c r="K49" s="29" t="str">
         <f>IF(K48&lt;&gt;"",LEFT(K48,6),IF(L49&lt;&gt;"",LEFT(L49,6),IF(K50&lt;&gt;"",LEFT(K50,6),IF(J49&lt;&gt;"",LEFT(J49,6),""))))</f>
         <v>01_2_2</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="N49" s="8" t="str">
+        <v>191</v>
+      </c>
+      <c r="N49" s="29" t="str">
         <f>IF(N48&lt;&gt;"",LEFT(N48,6),IF(O49&lt;&gt;"",LEFT(O49,6),IF(N50&lt;&gt;"",LEFT(N50,6),IF(M49&lt;&gt;"",LEFT(M49,6),""))))</f>
         <v>08_2_2</v>
       </c>
@@ -2994,7 +3103,7 @@
       <c r="L50" s="16"/>
       <c r="M50" s="19"/>
       <c r="N50" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O50" s="16"/>
       <c r="P50" s="19"/>
@@ -3024,7 +3133,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="18"/>
       <c r="N51" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O51" s="15"/>
       <c r="P51" s="18"/>
@@ -3057,7 +3166,7 @@
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="8" t="str">
+      <c r="K52" s="29" t="str">
         <f>IF(K51&lt;&gt;"",LEFT(K51,6),IF(L52&lt;&gt;"",LEFT(L52,6),IF(K53&lt;&gt;"",LEFT(K53,6),IF(J52&lt;&gt;"",LEFT(J52,6),""))))</f>
         <v>01_2_1</v>
       </c>
@@ -3067,7 +3176,7 @@
       <c r="M52" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N52" s="8" t="str">
+      <c r="N52" s="29" t="str">
         <f>IF(N51&lt;&gt;"",LEFT(N51,6),IF(O52&lt;&gt;"",LEFT(O52,6),IF(N53&lt;&gt;"",LEFT(N53,6),IF(M52&lt;&gt;"",LEFT(M52,6),""))))</f>
         <v>08_5_2</v>
       </c>
@@ -3173,7 +3282,7 @@
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="8" t="str">
+      <c r="N55" s="29" t="str">
         <f>IF(N54&lt;&gt;"",LEFT(N54,6),IF(O55&lt;&gt;"",LEFT(O55,6),IF(N56&lt;&gt;"",LEFT(N56,6),IF(M55&lt;&gt;"",LEFT(M55,6),""))))</f>
         <v>06_3_2</v>
       </c>
@@ -3279,7 +3388,7 @@
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="8" t="str">
+      <c r="N58" s="29" t="str">
         <f>IF(N57&lt;&gt;"",LEFT(N57,6),IF(O58&lt;&gt;"",LEFT(O58,6),IF(N59&lt;&gt;"",LEFT(N59,6),IF(M58&lt;&gt;"",LEFT(M58,6),""))))</f>
         <v>06_2_7</v>
       </c>
@@ -3289,7 +3398,7 @@
       <c r="P58" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Q58" s="8" t="str">
+      <c r="Q58" s="29" t="str">
         <f>IF(Q57&lt;&gt;"",LEFT(Q57,6),IF(R58&lt;&gt;"",LEFT(R58,6),IF(Q59&lt;&gt;"",LEFT(Q59,6),IF(P58&lt;&gt;"",LEFT(P58,6),""))))</f>
         <v>11_1_1</v>
       </c>
@@ -3379,7 +3488,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="8" t="str">
+      <c r="K61" s="29" t="str">
         <f>IF(K60&lt;&gt;"",LEFT(K60,6),IF(L61&lt;&gt;"",LEFT(L61,6),IF(K62&lt;&gt;"",LEFT(K62,6),IF(J61&lt;&gt;"",LEFT(J61,6),""))))</f>
         <v>15_1_3</v>
       </c>
@@ -3479,17 +3588,17 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="8" t="str">
+      <c r="H64" s="29" t="str">
         <f>IF(H63&lt;&gt;"",LEFT(H63,6),IF(I64&lt;&gt;"",LEFT(I64,6),IF(H65&lt;&gt;"",LEFT(H65,6),IF(G64&lt;&gt;"",LEFT(G64,6),""))))</f>
         <v>07_2_4</v>
       </c>
       <c r="I64" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="K64" s="8" t="str">
+      <c r="K64" s="29" t="str">
         <f>IF(K63&lt;&gt;"",LEFT(K63,6),IF(L64&lt;&gt;"",LEFT(L64,6),IF(K65&lt;&gt;"",LEFT(K65,6),IF(J64&lt;&gt;"",LEFT(J64,6),""))))</f>
         <v>01_2_3</v>
       </c>
@@ -3528,7 +3637,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="10"/>
       <c r="H65" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="19"/>
@@ -3560,7 +3669,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
       <c r="H66" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="18"/>
@@ -3591,7 +3700,7 @@
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="8" t="str">
+      <c r="E67" s="29" t="str">
         <f>IF(E66&lt;&gt;"",LEFT(E66,6),IF(F67&lt;&gt;"",LEFT(F67,6),IF(E68&lt;&gt;"",LEFT(E68,6),IF(D67&lt;&gt;"",LEFT(D67,6),""))))</f>
         <v>12_2_7</v>
       </c>
@@ -3601,7 +3710,7 @@
       <c r="G67" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H67" s="29" t="str">
         <f>IF(H66&lt;&gt;"",LEFT(H66,6),IF(I67&lt;&gt;"",LEFT(I67,6),IF(H68&lt;&gt;"",LEFT(H68,6),IF(G67&lt;&gt;"",LEFT(G67,6),""))))</f>
         <v>07_4_2</v>
       </c>
@@ -3611,7 +3720,7 @@
       <c r="J67" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K67" s="8" t="str">
+      <c r="K67" s="29" t="str">
         <f>IF(K66&lt;&gt;"",LEFT(K66,6),IF(L67&lt;&gt;"",LEFT(L67,6),IF(K68&lt;&gt;"",LEFT(K68,6),IF(J67&lt;&gt;"",LEFT(J67,6),""))))</f>
         <v>13_5_3</v>
       </c>
@@ -3954,10 +4063,10 @@
         <v>08_3_2</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T76" s="8" t="str">
         <f>IF(T75&lt;&gt;"",LEFT(T75,6),IF(U76&lt;&gt;"",LEFT(U76,6),IF(T77&lt;&gt;"",LEFT(T77,6),IF(S76&lt;&gt;"",LEFT(S76,6),""))))</f>
@@ -4245,7 +4354,7 @@
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="8" t="str">
+      <c r="H85" s="29" t="str">
         <f>IF(H84&lt;&gt;"",LEFT(H84,6),IF(I85&lt;&gt;"",LEFT(I85,6),IF(H86&lt;&gt;"",LEFT(H86,6),IF(G85&lt;&gt;"",LEFT(G85,6),""))))</f>
         <v>01_3_3</v>
       </c>
@@ -4255,7 +4364,7 @@
       <c r="J85" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K85" s="8" t="str">
+      <c r="K85" s="29" t="str">
         <f>IF(K84&lt;&gt;"",LEFT(K84,6),IF(L85&lt;&gt;"",LEFT(L85,6),IF(K86&lt;&gt;"",LEFT(K86,6),IF(J85&lt;&gt;"",LEFT(J85,6),""))))</f>
         <v>01_3_4</v>
       </c>
@@ -4369,7 +4478,7 @@
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="8" t="str">
+      <c r="K88" s="29" t="str">
         <f>IF(K87&lt;&gt;"",LEFT(K87,6),IF(L88&lt;&gt;"",LEFT(L88,6),IF(K89&lt;&gt;"",LEFT(K89,6),IF(J88&lt;&gt;"",LEFT(J88,6),""))))</f>
         <v>07_5_1</v>
       </c>
@@ -4379,7 +4488,7 @@
       <c r="M88" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N88" s="8" t="str">
+      <c r="N88" s="29" t="str">
         <f>IF(N87&lt;&gt;"",LEFT(N87,6),IF(O88&lt;&gt;"",LEFT(O88,6),IF(N89&lt;&gt;"",LEFT(N89,6),IF(M88&lt;&gt;"",LEFT(M88,6),""))))</f>
         <v>07_2_6</v>
       </c>
@@ -5107,7 +5216,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="15"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="str">
         <f>IF(B108&lt;&gt;"",LEFT(B108,6),IF(C109&lt;&gt;"",LEFT(C109,6),IF(B110&lt;&gt;"",LEFT(B110,6),IF(A109&lt;&gt;"",LEFT(A109,6),""))))</f>
@@ -5139,13 +5248,17 @@
       </c>
       <c r="O109" s="9"/>
       <c r="P109" s="7"/>
-      <c r="Q109" s="8" t="str">
+      <c r="Q109" s="29" t="str">
         <f>IF(Q108&lt;&gt;"",LEFT(Q108,6),IF(R109&lt;&gt;"",LEFT(R109,6),IF(Q110&lt;&gt;"",LEFT(Q110,6),IF(P109&lt;&gt;"",LEFT(P109,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R109" s="9"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="8" t="str">
+        <v>13_1_6</v>
+      </c>
+      <c r="R109" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="S109" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="T109" s="29" t="str">
         <f>IF(T108&lt;&gt;"",LEFT(T108,6),IF(U109&lt;&gt;"",LEFT(U109,6),IF(T110&lt;&gt;"",LEFT(T110,6),IF(S109&lt;&gt;"",LEFT(S109,6),""))))</f>
         <v>05_4_5</v>
       </c>
@@ -5174,7 +5287,9 @@
       <c r="N110" s="11"/>
       <c r="O110" s="16"/>
       <c r="P110" s="19"/>
-      <c r="Q110" s="11"/>
+      <c r="Q110" s="30" t="s">
+        <v>223</v>
+      </c>
       <c r="R110" s="16"/>
       <c r="S110" s="19"/>
       <c r="T110" s="11" t="s">
@@ -5202,7 +5317,9 @@
       <c r="N111" s="5"/>
       <c r="O111" s="15"/>
       <c r="P111" s="18"/>
-      <c r="Q111" s="5"/>
+      <c r="Q111" s="31" t="s">
+        <v>225</v>
+      </c>
       <c r="R111" s="15"/>
       <c r="S111" s="18"/>
       <c r="T111" s="5" t="s">
@@ -5245,7 +5362,7 @@
       </c>
       <c r="O112" s="9"/>
       <c r="P112" s="7"/>
-      <c r="Q112" s="8" t="str">
+      <c r="Q112" s="29" t="str">
         <f>IF(Q111&lt;&gt;"",LEFT(Q111,6),IF(R112&lt;&gt;"",LEFT(R112,6),IF(Q113&lt;&gt;"",LEFT(Q113,6),IF(P112&lt;&gt;"",LEFT(P112,6),""))))</f>
         <v>13_2_3</v>
       </c>
@@ -5255,15 +5372,19 @@
       <c r="S112" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T112" s="8" t="str">
+      <c r="T112" s="29" t="str">
         <f>IF(T111&lt;&gt;"",LEFT(T111,6),IF(U112&lt;&gt;"",LEFT(U112,6),IF(T113&lt;&gt;"",LEFT(T113,6),IF(S112&lt;&gt;"",LEFT(S112,6),""))))</f>
         <v>05_4_2</v>
       </c>
-      <c r="U112" s="9"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="8" t="str">
+      <c r="U112" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="V112" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="W112" s="29" t="str">
         <f>IF(W111&lt;&gt;"",LEFT(W111,6),IF(X112&lt;&gt;"",LEFT(X112,6),IF(W113&lt;&gt;"",LEFT(W113,6),IF(V112&lt;&gt;"",LEFT(V112,6),""))))</f>
-        <v/>
+        <v>09_3_4</v>
       </c>
       <c r="X112" s="9"/>
     </row>
@@ -5290,11 +5411,13 @@
       <c r="R113" s="16"/>
       <c r="S113" s="19"/>
       <c r="T113" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
-      <c r="W113" s="11"/>
+      <c r="W113" s="30" t="s">
+        <v>226</v>
+      </c>
       <c r="X113" s="16"/>
     </row>
     <row r="114" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5320,11 +5443,13 @@
       <c r="R114" s="15"/>
       <c r="S114" s="18"/>
       <c r="T114" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U114" s="15"/>
       <c r="V114" s="18"/>
-      <c r="W114" s="5"/>
+      <c r="W114" s="31" t="s">
+        <v>228</v>
+      </c>
       <c r="X114" s="15"/>
     </row>
     <row r="115" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
@@ -5335,13 +5460,17 @@
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="8" t="str">
+      <c r="E115" s="29" t="str">
         <f>IF(E114&lt;&gt;"",LEFT(E114,6),IF(F115&lt;&gt;"",LEFT(F115,6),IF(E116&lt;&gt;"",LEFT(E116,6),IF(D115&lt;&gt;"",LEFT(D115,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8" t="str">
+        <v>09_5_7</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H115" s="29" t="str">
         <f>IF(H114&lt;&gt;"",LEFT(H114,6),IF(I115&lt;&gt;"",LEFT(I115,6),IF(H116&lt;&gt;"",LEFT(H116,6),IF(G115&lt;&gt;"",LEFT(G115,6),""))))</f>
         <v>02_1_1</v>
       </c>
@@ -5353,7 +5482,7 @@
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="8" t="str">
+      <c r="N115" s="29" t="str">
         <f>IF(N114&lt;&gt;"",LEFT(N114,6),IF(O115&lt;&gt;"",LEFT(O115,6),IF(N116&lt;&gt;"",LEFT(N116,6),IF(M115&lt;&gt;"",LEFT(M115,6),""))))</f>
         <v>11_5_1</v>
       </c>
@@ -5363,7 +5492,7 @@
       <c r="P115" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q115" s="8" t="str">
+      <c r="Q115" s="29" t="str">
         <f>IF(Q114&lt;&gt;"",LEFT(Q114,6),IF(R115&lt;&gt;"",LEFT(R115,6),IF(Q116&lt;&gt;"",LEFT(Q116,6),IF(P115&lt;&gt;"",LEFT(P115,6),""))))</f>
         <v>06_1_7</v>
       </c>
@@ -5373,17 +5502,17 @@
       <c r="S115" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T115" s="8" t="str">
+      <c r="T115" s="29" t="str">
         <f>IF(T114&lt;&gt;"",LEFT(T114,6),IF(U115&lt;&gt;"",LEFT(U115,6),IF(T116&lt;&gt;"",LEFT(T116,6),IF(S115&lt;&gt;"",LEFT(S115,6),""))))</f>
         <v>12_5_5</v>
       </c>
       <c r="U115" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V115" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W115" s="8" t="str">
+        <v>140</v>
+      </c>
+      <c r="W115" s="29" t="str">
         <f>IF(W114&lt;&gt;"",LEFT(W114,6),IF(X115&lt;&gt;"",LEFT(X115,6),IF(W116&lt;&gt;"",LEFT(W116,6),IF(V115&lt;&gt;"",LEFT(V115,6),""))))</f>
         <v>06_5_6</v>
       </c>
@@ -5394,7 +5523,9 @@
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
+      <c r="E116" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="F116" s="12"/>
       <c r="G116" s="10"/>
       <c r="H116" s="11" t="s">
@@ -5422,7 +5553,9 @@
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="31" t="s">
+        <v>233</v>
+      </c>
       <c r="F117" s="6"/>
       <c r="G117" s="4"/>
       <c r="H117" s="5" t="s">
@@ -5453,7 +5586,7 @@
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="8" t="str">
+      <c r="E118" s="29" t="str">
         <f>IF(E117&lt;&gt;"",LEFT(E117,6),IF(F118&lt;&gt;"",LEFT(F118,6),IF(E119&lt;&gt;"",LEFT(E119,6),IF(D118&lt;&gt;"",LEFT(D118,6),""))))</f>
         <v>02_1_5</v>
       </c>
@@ -5463,7 +5596,7 @@
       <c r="G118" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H118" s="8" t="str">
+      <c r="H118" s="29" t="str">
         <f>IF(H117&lt;&gt;"",LEFT(H117,6),IF(I118&lt;&gt;"",LEFT(I118,6),IF(H119&lt;&gt;"",LEFT(H119,6),IF(G118&lt;&gt;"",LEFT(G118,6),""))))</f>
         <v>12_5_3</v>
       </c>
@@ -5567,7 +5700,7 @@
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="8" t="str">
+      <c r="E121" s="29" t="str">
         <f>IF(E120&lt;&gt;"",LEFT(E120,6),IF(F121&lt;&gt;"",LEFT(F121,6),IF(E122&lt;&gt;"",LEFT(E122,6),IF(D121&lt;&gt;"",LEFT(D121,6),""))))</f>
         <v>02_2_4</v>
       </c>
@@ -5577,7 +5710,7 @@
       <c r="G121" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H121" s="8" t="str">
+      <c r="H121" s="29" t="str">
         <f>IF(H120&lt;&gt;"",LEFT(H120,6),IF(I121&lt;&gt;"",LEFT(I121,6),IF(H122&lt;&gt;"",LEFT(H122,6),IF(G121&lt;&gt;"",LEFT(G121,6),""))))</f>
         <v>14_2_2</v>
       </c>
@@ -5994,10 +6127,10 @@
         <v>12_3_6</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E133" s="8" t="str">
         <f>IF(E132&lt;&gt;"",LEFT(E132,6),IF(F133&lt;&gt;"",LEFT(F133,6),IF(E134&lt;&gt;"",LEFT(E134,6),IF(D133&lt;&gt;"",LEFT(D133,6),""))))</f>
@@ -6011,7 +6144,7 @@
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="8" t="str">
+      <c r="K133" s="29" t="str">
         <f>IF(K132&lt;&gt;"",LEFT(K132,6),IF(L133&lt;&gt;"",LEFT(L133,6),IF(K134&lt;&gt;"",LEFT(K134,6),IF(J133&lt;&gt;"",LEFT(J133,6),""))))</f>
         <v>02_4_3</v>
       </c>
@@ -6021,17 +6154,17 @@
       <c r="M133" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N133" s="8" t="str">
+      <c r="N133" s="29" t="str">
         <f>IF(N132&lt;&gt;"",LEFT(N132,6),IF(O133&lt;&gt;"",LEFT(O133,6),IF(N134&lt;&gt;"",LEFT(N134,6),IF(M133&lt;&gt;"",LEFT(M133,6),""))))</f>
         <v>13_2_5</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q133" s="8" t="str">
+        <v>157</v>
+      </c>
+      <c r="Q133" s="29" t="str">
         <f>IF(Q132&lt;&gt;"",LEFT(Q132,6),IF(R133&lt;&gt;"",LEFT(R133,6),IF(Q134&lt;&gt;"",LEFT(Q134,6),IF(P133&lt;&gt;"",LEFT(P133,6),""))))</f>
         <v>03_4_7</v>
       </c>
@@ -6052,7 +6185,7 @@
     <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
       <c r="B134" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="10"/>
@@ -6084,7 +6217,7 @@
     <row r="135" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
       <c r="B135" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
@@ -6137,7 +6270,7 @@
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="7"/>
-      <c r="K136" s="8" t="str">
+      <c r="K136" s="29" t="str">
         <f>IF(K135&lt;&gt;"",LEFT(K135,6),IF(L136&lt;&gt;"",LEFT(L136,6),IF(K137&lt;&gt;"",LEFT(K137,6),IF(J136&lt;&gt;"",LEFT(J136,6),""))))</f>
         <v>02_4_5</v>
       </c>
@@ -6239,17 +6372,17 @@
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="7"/>
-      <c r="K139" s="8" t="str">
+      <c r="K139" s="29" t="str">
         <f>IF(K138&lt;&gt;"",LEFT(K138,6),IF(L139&lt;&gt;"",LEFT(L139,6),IF(K140&lt;&gt;"",LEFT(K140,6),IF(J139&lt;&gt;"",LEFT(J139,6),""))))</f>
         <v>10_1_6</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="N139" s="8" t="str">
+        <v>203</v>
+      </c>
+      <c r="N139" s="29" t="str">
         <f>IF(N138&lt;&gt;"",LEFT(N138,6),IF(O139&lt;&gt;"",LEFT(O139,6),IF(N140&lt;&gt;"",LEFT(N140,6),IF(M139&lt;&gt;"",LEFT(M139,6),""))))</f>
         <v>08_5_6</v>
       </c>
@@ -6285,7 +6418,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="19"/>
       <c r="K140" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L140" s="16"/>
       <c r="M140" s="19"/>
@@ -6315,7 +6448,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="18"/>
       <c r="K141" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L141" s="15"/>
       <c r="M141" s="18"/>
@@ -6347,17 +6480,17 @@
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="8" t="str">
+      <c r="H142" s="29" t="str">
         <f>IF(H141&lt;&gt;"",LEFT(H141,6),IF(I142&lt;&gt;"",LEFT(I142,6),IF(H143&lt;&gt;"",LEFT(H143,6),IF(G142&lt;&gt;"",LEFT(G142,6),""))))</f>
         <v>11_3_4</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K142" s="8" t="str">
+        <v>206</v>
+      </c>
+      <c r="K142" s="29" t="str">
         <f>IF(K141&lt;&gt;"",LEFT(K141,6),IF(L142&lt;&gt;"",LEFT(L142,6),IF(K143&lt;&gt;"",LEFT(K143,6),IF(J142&lt;&gt;"",LEFT(J142,6),""))))</f>
         <v>07_4_5</v>
       </c>
@@ -6367,7 +6500,7 @@
       <c r="M142" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="N142" s="8" t="str">
+      <c r="N142" s="29" t="str">
         <f>IF(N141&lt;&gt;"",LEFT(N141,6),IF(O142&lt;&gt;"",LEFT(O142,6),IF(N143&lt;&gt;"",LEFT(N143,6),IF(M142&lt;&gt;"",LEFT(M142,6),""))))</f>
         <v>14_3_2</v>
       </c>
@@ -6477,7 +6610,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="8" t="str">
         <f>IF(Q144&lt;&gt;"",LEFT(Q144,6),IF(R145&lt;&gt;"",LEFT(R145,6),IF(Q146&lt;&gt;"",LEFT(Q146,6),IF(P145&lt;&gt;"",LEFT(P145,6),""))))</f>
-        <v>09_5_6</v>
+        <v/>
       </c>
       <c r="R145" s="9"/>
       <c r="S145" s="7"/>
@@ -6510,9 +6643,7 @@
       <c r="N146" s="11"/>
       <c r="O146" s="16"/>
       <c r="P146" s="19"/>
-      <c r="Q146" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="Q146" s="11"/>
       <c r="R146" s="16"/>
       <c r="S146" s="19"/>
       <c r="T146" s="11"/>
@@ -6538,9 +6669,7 @@
       <c r="N147" s="5"/>
       <c r="O147" s="15"/>
       <c r="P147" s="18"/>
-      <c r="Q147" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q147" s="5"/>
       <c r="R147" s="15"/>
       <c r="S147" s="18"/>
       <c r="T147" s="5"/>
@@ -6575,17 +6704,17 @@
       </c>
       <c r="L148" s="9"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="8" t="str">
+      <c r="N148" s="29" t="str">
         <f>IF(N147&lt;&gt;"",LEFT(N147,6),IF(O148&lt;&gt;"",LEFT(O148,6),IF(N149&lt;&gt;"",LEFT(N149,6),IF(M148&lt;&gt;"",LEFT(M148,6),""))))</f>
         <v>11_5_3</v>
       </c>
       <c r="O148" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P148" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q148" s="8" t="str">
+        <v>137</v>
+      </c>
+      <c r="Q148" s="29" t="str">
         <f>IF(Q147&lt;&gt;"",LEFT(Q147,6),IF(R148&lt;&gt;"",LEFT(R148,6),IF(Q149&lt;&gt;"",LEFT(Q149,6),IF(P148&lt;&gt;"",LEFT(P148,6),""))))</f>
         <v>08_1_1</v>
       </c>
@@ -6595,17 +6724,17 @@
       <c r="S148" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="T148" s="8" t="str">
+      <c r="T148" s="29" t="str">
         <f>IF(T147&lt;&gt;"",LEFT(T147,6),IF(U148&lt;&gt;"",LEFT(U148,6),IF(T149&lt;&gt;"",LEFT(T149,6),IF(S148&lt;&gt;"",LEFT(S148,6),""))))</f>
         <v>07_4_1</v>
       </c>
       <c r="U148" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V148" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="W148" s="8" t="str">
+        <v>136</v>
+      </c>
+      <c r="W148" s="29" t="str">
         <f>IF(W147&lt;&gt;"",LEFT(W147,6),IF(X148&lt;&gt;"",LEFT(X148,6),IF(W149&lt;&gt;"",LEFT(W149,6),IF(V148&lt;&gt;"",LEFT(V148,6),""))))</f>
         <v>08_4_7</v>
       </c>
@@ -6713,7 +6842,7 @@
       </c>
       <c r="R151" s="9"/>
       <c r="S151" s="7"/>
-      <c r="T151" s="8" t="str">
+      <c r="T151" s="29" t="str">
         <f>IF(T150&lt;&gt;"",LEFT(T150,6),IF(U151&lt;&gt;"",LEFT(U151,6),IF(T152&lt;&gt;"",LEFT(T152,6),IF(S151&lt;&gt;"",LEFT(S151,6),""))))</f>
         <v>13_5_4</v>
       </c>
@@ -6951,7 +7080,7 @@
       <c r="O158" s="16"/>
       <c r="P158" s="19"/>
       <c r="Q158" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R158" s="16"/>
       <c r="S158" s="19"/>
@@ -6979,7 +7108,7 @@
       <c r="O159" s="15"/>
       <c r="P159" s="18"/>
       <c r="Q159" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R159" s="15"/>
       <c r="S159" s="18"/>
@@ -7020,10 +7149,10 @@
         <v>06_3_4</v>
       </c>
       <c r="O160" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P160" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q160" s="8" t="str">
         <f>IF(Q159&lt;&gt;"",LEFT(Q159,6),IF(R160&lt;&gt;"",LEFT(R160,6),IF(Q161&lt;&gt;"",LEFT(Q161,6),IF(P160&lt;&gt;"",LEFT(P160,6),""))))</f>
@@ -7058,12 +7187,12 @@
       <c r="L161" s="16"/>
       <c r="M161" s="10"/>
       <c r="N161" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O161" s="16"/>
       <c r="P161" s="19"/>
       <c r="Q161" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R161" s="16"/>
       <c r="S161" s="19"/>
@@ -7088,12 +7217,12 @@
       <c r="L162" s="15"/>
       <c r="M162" s="4"/>
       <c r="N162" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O162" s="15"/>
       <c r="P162" s="18"/>
       <c r="Q162" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R162" s="15"/>
       <c r="S162" s="18"/>
@@ -7119,7 +7248,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="8" t="str">
         <f>IF(H162&lt;&gt;"",LEFT(H162,6),IF(I163&lt;&gt;"",LEFT(I163,6),IF(H164&lt;&gt;"",LEFT(H164,6),IF(G163&lt;&gt;"",LEFT(G163,6),""))))</f>
-        <v/>
+        <v>15_1_6</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="7"/>
@@ -7134,10 +7263,10 @@
         <v>06_5_5</v>
       </c>
       <c r="O163" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P163" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q163" s="8" t="str">
         <f>IF(Q162&lt;&gt;"",LEFT(Q162,6),IF(R163&lt;&gt;"",LEFT(R163,6),IF(Q164&lt;&gt;"",LEFT(Q164,6),IF(P163&lt;&gt;"",LEFT(P163,6),""))))</f>
@@ -7165,7 +7294,9 @@
       <c r="E164" s="11"/>
       <c r="F164" s="12"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="11"/>
+      <c r="H164" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="I164" s="16"/>
       <c r="J164" s="19"/>
       <c r="K164" s="11"/>
@@ -7191,7 +7322,9 @@
       <c r="E165" s="5"/>
       <c r="F165" s="6"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="I165" s="15"/>
       <c r="J165" s="18"/>
       <c r="K165" s="5"/>
@@ -7209,7 +7342,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="15"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="8" t="str">
         <f>IF(B165&lt;&gt;"",LEFT(B165,6),IF(C166&lt;&gt;"",LEFT(C166,6),IF(B167&lt;&gt;"",LEFT(B167,6),IF(A166&lt;&gt;"",LEFT(A166,6),""))))</f>
@@ -7219,19 +7352,27 @@
       <c r="D166" s="7"/>
       <c r="E166" s="8" t="str">
         <f>IF(E165&lt;&gt;"",LEFT(E165,6),IF(F166&lt;&gt;"",LEFT(F166,6),IF(E167&lt;&gt;"",LEFT(E167,6),IF(D166&lt;&gt;"",LEFT(D166,6),""))))</f>
-        <v/>
-      </c>
-      <c r="F166" s="9"/>
-      <c r="G166" s="7"/>
+        <v>14_2_5</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="H166" s="8" t="str">
         <f>IF(H165&lt;&gt;"",LEFT(H165,6),IF(I166&lt;&gt;"",LEFT(I166,6),IF(H167&lt;&gt;"",LEFT(H167,6),IF(G166&lt;&gt;"",LEFT(G166,6),""))))</f>
-        <v/>
-      </c>
-      <c r="I166" s="9"/>
-      <c r="J166" s="7"/>
+        <v>15_1_7</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="K166" s="8" t="str">
         <f>IF(K165&lt;&gt;"",LEFT(K165,6),IF(L166&lt;&gt;"",LEFT(L166,6),IF(K167&lt;&gt;"",LEFT(K167,6),IF(J166&lt;&gt;"",LEFT(J166,6),""))))</f>
-        <v/>
+        <v>08_5_5</v>
       </c>
       <c r="L166" s="9"/>
       <c r="M166" s="7"/>

--- a/Puzzle.xlsx
+++ b/Puzzle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>01_1_1_4_out</t>
   </si>
@@ -729,6 +729,42 @@
   </si>
   <si>
     <t>02_1_5_2_out</t>
+  </si>
+  <si>
+    <t>05_5_4_2_out</t>
+  </si>
+  <si>
+    <t>04_1_6_3_in</t>
+  </si>
+  <si>
+    <t>03_1_3_4_out</t>
+  </si>
+  <si>
+    <t>12_5_1_1_in</t>
+  </si>
+  <si>
+    <t>06_3_1_1_in</t>
+  </si>
+  <si>
+    <t>12_5_6_4_out</t>
+  </si>
+  <si>
+    <t>12_5_1_3_in</t>
+  </si>
+  <si>
+    <t>07_4_7_4_out</t>
+  </si>
+  <si>
+    <t>12_5_1_2_out</t>
+  </si>
+  <si>
+    <t>12_4_3_1_in</t>
+  </si>
+  <si>
+    <t>08_2_2_3_in</t>
+  </si>
+  <si>
+    <t>02_2_2_4_out</t>
   </si>
 </sst>
 </file>
@@ -751,7 +787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,11 +1053,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,8 +1342,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T151" sqref="T151"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N163" sqref="N163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,10 +2005,10 @@
         <f>IF(E18&lt;&gt;"",LEFT(E18,6),IF(F19&lt;&gt;"",LEFT(F19,6),IF(E20&lt;&gt;"",LEFT(E20,6),IF(D19&lt;&gt;"",LEFT(D19,6),""))))</f>
         <v>03_5_3</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="24" t="s">
         <v>221</v>
       </c>
       <c r="H19" s="29" t="str">
@@ -3032,7 +3074,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="15"/>
     </row>
-    <row r="49" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="48" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="str">
         <f>IF(B48&lt;&gt;"",LEFT(B48,6),IF(C49&lt;&gt;"",LEFT(C49,6),IF(B50&lt;&gt;"",LEFT(B50,6),IF(A49&lt;&gt;"",LEFT(A49,6),""))))</f>
@@ -3066,11 +3108,15 @@
         <f>IF(N48&lt;&gt;"",LEFT(N48,6),IF(O49&lt;&gt;"",LEFT(O49,6),IF(N50&lt;&gt;"",LEFT(N50,6),IF(M49&lt;&gt;"",LEFT(M49,6),""))))</f>
         <v>08_2_2</v>
       </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="8" t="str">
+      <c r="O49" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q49" s="29" t="str">
         <f>IF(Q48&lt;&gt;"",LEFT(Q48,6),IF(R49&lt;&gt;"",LEFT(R49,6),IF(Q50&lt;&gt;"",LEFT(Q50,6),IF(P49&lt;&gt;"",LEFT(P49,6),""))))</f>
-        <v/>
+        <v>02_2_2</v>
       </c>
       <c r="R49" s="9"/>
       <c r="S49" s="7"/>
@@ -5252,10 +5298,10 @@
         <f>IF(Q108&lt;&gt;"",LEFT(Q108,6),IF(R109&lt;&gt;"",LEFT(R109,6),IF(Q110&lt;&gt;"",LEFT(Q110,6),IF(P109&lt;&gt;"",LEFT(P109,6),""))))</f>
         <v>13_1_6</v>
       </c>
-      <c r="R109" s="32" t="s">
+      <c r="R109" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="S109" s="33" t="s">
+      <c r="S109" s="24" t="s">
         <v>224</v>
       </c>
       <c r="T109" s="29" t="str">
@@ -5287,7 +5333,7 @@
       <c r="N110" s="11"/>
       <c r="O110" s="16"/>
       <c r="P110" s="19"/>
-      <c r="Q110" s="30" t="s">
+      <c r="Q110" s="26" t="s">
         <v>223</v>
       </c>
       <c r="R110" s="16"/>
@@ -5317,7 +5363,7 @@
       <c r="N111" s="5"/>
       <c r="O111" s="15"/>
       <c r="P111" s="18"/>
-      <c r="Q111" s="31" t="s">
+      <c r="Q111" s="21" t="s">
         <v>225</v>
       </c>
       <c r="R111" s="15"/>
@@ -5376,10 +5422,10 @@
         <f>IF(T111&lt;&gt;"",LEFT(T111,6),IF(U112&lt;&gt;"",LEFT(U112,6),IF(T113&lt;&gt;"",LEFT(T113,6),IF(S112&lt;&gt;"",LEFT(S112,6),""))))</f>
         <v>05_4_2</v>
       </c>
-      <c r="U112" s="32" t="s">
+      <c r="U112" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="V112" s="33" t="s">
+      <c r="V112" s="24" t="s">
         <v>227</v>
       </c>
       <c r="W112" s="29" t="str">
@@ -5415,7 +5461,7 @@
       </c>
       <c r="U113" s="16"/>
       <c r="V113" s="19"/>
-      <c r="W113" s="30" t="s">
+      <c r="W113" s="26" t="s">
         <v>226</v>
       </c>
       <c r="X113" s="16"/>
@@ -5447,7 +5493,7 @@
       </c>
       <c r="U114" s="15"/>
       <c r="V114" s="18"/>
-      <c r="W114" s="31" t="s">
+      <c r="W114" s="21" t="s">
         <v>228</v>
       </c>
       <c r="X114" s="15"/>
@@ -5464,10 +5510,10 @@
         <f>IF(E114&lt;&gt;"",LEFT(E114,6),IF(F115&lt;&gt;"",LEFT(F115,6),IF(E116&lt;&gt;"",LEFT(E116,6),IF(D115&lt;&gt;"",LEFT(D115,6),""))))</f>
         <v>09_5_7</v>
       </c>
-      <c r="F115" s="32" t="s">
+      <c r="F115" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="24" t="s">
         <v>232</v>
       </c>
       <c r="H115" s="29" t="str">
@@ -5523,7 +5569,7 @@
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="26" t="s">
         <v>231</v>
       </c>
       <c r="F116" s="12"/>
@@ -5553,7 +5599,7 @@
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="21" t="s">
         <v>233</v>
       </c>
       <c r="F117" s="6"/>
@@ -5622,7 +5668,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="8" t="str">
         <f>IF(T117&lt;&gt;"",LEFT(T117,6),IF(U118&lt;&gt;"",LEFT(U118,6),IF(T119&lt;&gt;"",LEFT(T119,6),IF(S118&lt;&gt;"",LEFT(S118,6),""))))</f>
-        <v/>
+        <v>07_4_7</v>
       </c>
       <c r="U118" s="9"/>
       <c r="V118" s="7"/>
@@ -5656,7 +5702,9 @@
       <c r="Q119" s="11"/>
       <c r="R119" s="16"/>
       <c r="S119" s="19"/>
-      <c r="T119" s="11"/>
+      <c r="T119" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="U119" s="16"/>
       <c r="V119" s="19"/>
       <c r="W119" s="11"/>
@@ -5686,7 +5734,9 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="15"/>
       <c r="S120" s="18"/>
-      <c r="T120" s="5"/>
+      <c r="T120" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="U120" s="15"/>
       <c r="V120" s="18"/>
       <c r="W120" s="5"/>
@@ -5730,13 +5780,17 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="8" t="str">
         <f>IF(Q120&lt;&gt;"",LEFT(Q120,6),IF(R121&lt;&gt;"",LEFT(R121,6),IF(Q122&lt;&gt;"",LEFT(Q122,6),IF(P121&lt;&gt;"",LEFT(P121,6),""))))</f>
-        <v/>
-      </c>
-      <c r="R121" s="9"/>
-      <c r="S121" s="7"/>
+        <v>12_4_3</v>
+      </c>
+      <c r="R121" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="T121" s="8" t="str">
         <f>IF(T120&lt;&gt;"",LEFT(T120,6),IF(U121&lt;&gt;"",LEFT(U121,6),IF(T122&lt;&gt;"",LEFT(T122,6),IF(S121&lt;&gt;"",LEFT(S121,6),""))))</f>
-        <v/>
+        <v>12_5_1</v>
       </c>
       <c r="U121" s="9"/>
       <c r="V121" s="7"/>
@@ -5763,10 +5817,12 @@
       <c r="N122" s="11"/>
       <c r="O122" s="16"/>
       <c r="P122" s="19"/>
-      <c r="Q122" s="11"/>
+      <c r="Q122" s="32"/>
       <c r="R122" s="16"/>
       <c r="S122" s="19"/>
-      <c r="T122" s="11"/>
+      <c r="T122" s="11" t="s">
+        <v>237</v>
+      </c>
       <c r="U122" s="16"/>
       <c r="V122" s="19"/>
       <c r="W122" s="11"/>
@@ -5789,10 +5845,12 @@
       <c r="N123" s="5"/>
       <c r="O123" s="15"/>
       <c r="P123" s="18"/>
-      <c r="Q123" s="5"/>
+      <c r="Q123" s="33"/>
       <c r="R123" s="15"/>
       <c r="S123" s="18"/>
-      <c r="T123" s="5"/>
+      <c r="T123" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="U123" s="15"/>
       <c r="V123" s="18"/>
       <c r="W123" s="5"/>
@@ -6018,14 +6076,18 @@
       <c r="W129" s="5"/>
       <c r="X129" s="15"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="str">
         <f>IF(B129&lt;&gt;"",LEFT(B129,6),IF(C130&lt;&gt;"",LEFT(C130,6),IF(B131&lt;&gt;"",LEFT(B131,6),IF(A130&lt;&gt;"",LEFT(A130,6),""))))</f>
-        <v/>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="7"/>
+        <v>12_5_6</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="E130" s="8" t="str">
         <f>IF(E129&lt;&gt;"",LEFT(E129,6),IF(F130&lt;&gt;"",LEFT(F130,6),IF(E131&lt;&gt;"",LEFT(E131,6),IF(D130&lt;&gt;"",LEFT(D130,6),""))))</f>
         <v>06_3_1</v>
@@ -7044,7 +7106,7 @@
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="7"/>
-      <c r="Q157" s="8" t="str">
+      <c r="Q157" s="29" t="str">
         <f>IF(Q156&lt;&gt;"",LEFT(Q156,6),IF(R157&lt;&gt;"",LEFT(R157,6),IF(Q158&lt;&gt;"",LEFT(Q158,6),IF(P157&lt;&gt;"",LEFT(P157,6),""))))</f>
         <v>06_5_3</v>
       </c>
@@ -7144,7 +7206,7 @@
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="8" t="str">
+      <c r="N160" s="29" t="str">
         <f>IF(N159&lt;&gt;"",LEFT(N159,6),IF(O160&lt;&gt;"",LEFT(O160,6),IF(N161&lt;&gt;"",LEFT(N161,6),IF(M160&lt;&gt;"",LEFT(M160,6),""))))</f>
         <v>06_3_4</v>
       </c>
@@ -7154,15 +7216,19 @@
       <c r="P160" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Q160" s="8" t="str">
+      <c r="Q160" s="29" t="str">
         <f>IF(Q159&lt;&gt;"",LEFT(Q159,6),IF(R160&lt;&gt;"",LEFT(R160,6),IF(Q161&lt;&gt;"",LEFT(Q161,6),IF(P160&lt;&gt;"",LEFT(P160,6),""))))</f>
         <v>05_5_4</v>
       </c>
-      <c r="R160" s="9"/>
-      <c r="S160" s="7"/>
-      <c r="T160" s="8" t="str">
+      <c r="R160" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S160" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="T160" s="29" t="str">
         <f>IF(T159&lt;&gt;"",LEFT(T159,6),IF(U160&lt;&gt;"",LEFT(U160,6),IF(T161&lt;&gt;"",LEFT(T161,6),IF(S160&lt;&gt;"",LEFT(S160,6),""))))</f>
-        <v/>
+        <v>04_1_6</v>
       </c>
       <c r="U160" s="9"/>
       <c r="V160" s="7"/>
@@ -7258,7 +7324,7 @@
       </c>
       <c r="L163" s="9"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="8" t="str">
+      <c r="N163" s="29" t="str">
         <f>IF(N162&lt;&gt;"",LEFT(N162,6),IF(O163&lt;&gt;"",LEFT(O163,6),IF(N164&lt;&gt;"",LEFT(N164,6),IF(M163&lt;&gt;"",LEFT(M163,6),""))))</f>
         <v>06_5_5</v>
       </c>
@@ -7268,7 +7334,7 @@
       <c r="P163" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="Q163" s="8" t="str">
+      <c r="Q163" s="29" t="str">
         <f>IF(Q162&lt;&gt;"",LEFT(Q162,6),IF(R163&lt;&gt;"",LEFT(R163,6),IF(Q164&lt;&gt;"",LEFT(Q164,6),IF(P163&lt;&gt;"",LEFT(P163,6),""))))</f>
         <v>06_4_5</v>
       </c>
